--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928993A-554A-40E0-A7D3-AEA6E7FA59AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5F7D5-8531-4B9A-A979-2BF07549A6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -2994,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8462,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF213926-1F88-4DE3-9839-C1A1F39A2ED3}">
   <dimension ref="A1:CC135"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5F7D5-8531-4B9A-A979-2BF07549A6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7A360-29CD-4924-89EF-95CC259B2426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -8462,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF213926-1F88-4DE3-9839-C1A1F39A2ED3}">
   <dimension ref="A1:CC135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -10523,7 +10523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temas\Informativas\Documentos Digitales\POL 5611\Insumos XML-JSON\Esquemas JSON\IVAN\Diccionario Esquemas\Integración\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7DF34-F4A2-4B18-A6D7-DB041845DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673E765-01EB-498F-ACC5-0676BD9304EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="1" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Desdoble" sheetId="5" r:id="rId3"/>
     <sheet name="Diccionario_DDL" sheetId="6" r:id="rId4"/>
     <sheet name="Diccionario_Esquema_Completo" sheetId="4" r:id="rId5"/>
-    <sheet name="Diccionario_Esquema_Pruebas" sheetId="7" r:id="rId6"/>
+    <sheet name="Diccionario_Esquema_Pruebas" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Diccionario_DDL!$A$1:$C$1</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="587">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -1823,12 +1823,15 @@
   <si>
     <t>CHARACTER VARYING(250)</t>
   </si>
+  <si>
+    <t>D_DEC_TDIEPCO1(002)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1988,8 +1991,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2196,6 +2205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,7 +2439,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2489,13 +2504,6 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2523,6 +2531,18 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2716,9 +2736,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2756,9 +2776,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2791,9 +2811,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2826,9 +2863,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3008,16 +3062,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3085,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>172</v>
       </c>
@@ -3045,7 +3099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
@@ -3059,7 +3113,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>174</v>
       </c>
@@ -3083,597 +3137,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="2" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="2"/>
-    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="247" width="11.453125" style="2"/>
+    <col min="11" max="11" width="29.28515625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" style="2"/>
+    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="11.42578125" style="2"/>
     <col min="248" max="248" width="33" style="2" customWidth="1"/>
     <col min="249" max="249" width="25" style="2" customWidth="1"/>
-    <col min="250" max="250" width="25.7265625" style="2" customWidth="1"/>
-    <col min="251" max="251" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.453125" style="2" customWidth="1"/>
-    <col min="253" max="253" width="18.453125" style="2" customWidth="1"/>
+    <col min="250" max="250" width="25.7109375" style="2" customWidth="1"/>
+    <col min="251" max="251" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.42578125" style="2" customWidth="1"/>
+    <col min="253" max="253" width="18.42578125" style="2" customWidth="1"/>
     <col min="254" max="254" width="20" style="2" customWidth="1"/>
-    <col min="255" max="255" width="36.54296875" style="2" customWidth="1"/>
-    <col min="256" max="503" width="11.453125" style="2"/>
+    <col min="255" max="255" width="36.5703125" style="2" customWidth="1"/>
+    <col min="256" max="503" width="11.42578125" style="2"/>
     <col min="504" max="504" width="33" style="2" customWidth="1"/>
     <col min="505" max="505" width="25" style="2" customWidth="1"/>
-    <col min="506" max="506" width="25.7265625" style="2" customWidth="1"/>
-    <col min="507" max="507" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="22.453125" style="2" customWidth="1"/>
-    <col min="509" max="509" width="18.453125" style="2" customWidth="1"/>
+    <col min="506" max="506" width="25.7109375" style="2" customWidth="1"/>
+    <col min="507" max="507" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="22.42578125" style="2" customWidth="1"/>
+    <col min="509" max="509" width="18.42578125" style="2" customWidth="1"/>
     <col min="510" max="510" width="20" style="2" customWidth="1"/>
-    <col min="511" max="511" width="36.54296875" style="2" customWidth="1"/>
-    <col min="512" max="759" width="11.453125" style="2"/>
+    <col min="511" max="511" width="36.5703125" style="2" customWidth="1"/>
+    <col min="512" max="759" width="11.42578125" style="2"/>
     <col min="760" max="760" width="33" style="2" customWidth="1"/>
     <col min="761" max="761" width="25" style="2" customWidth="1"/>
-    <col min="762" max="762" width="25.7265625" style="2" customWidth="1"/>
-    <col min="763" max="763" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="22.453125" style="2" customWidth="1"/>
-    <col min="765" max="765" width="18.453125" style="2" customWidth="1"/>
+    <col min="762" max="762" width="25.7109375" style="2" customWidth="1"/>
+    <col min="763" max="763" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="22.42578125" style="2" customWidth="1"/>
+    <col min="765" max="765" width="18.42578125" style="2" customWidth="1"/>
     <col min="766" max="766" width="20" style="2" customWidth="1"/>
-    <col min="767" max="767" width="36.54296875" style="2" customWidth="1"/>
-    <col min="768" max="1015" width="11.453125" style="2"/>
+    <col min="767" max="767" width="36.5703125" style="2" customWidth="1"/>
+    <col min="768" max="1015" width="11.42578125" style="2"/>
     <col min="1016" max="1016" width="33" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="25" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1019" max="1019" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="22.453125" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="18.453125" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1019" max="1019" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1020" width="22.42578125" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="18.42578125" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="20" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1024" max="1271" width="11.453125" style="2"/>
+    <col min="1023" max="1023" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1024" max="1271" width="11.42578125" style="2"/>
     <col min="1272" max="1272" width="33" style="2" customWidth="1"/>
     <col min="1273" max="1273" width="25" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1275" max="1275" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1276" max="1276" width="22.453125" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="18.453125" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1275" max="1275" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1276" max="1276" width="22.42578125" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="18.42578125" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="20" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1280" max="1527" width="11.453125" style="2"/>
+    <col min="1279" max="1279" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1280" max="1527" width="11.42578125" style="2"/>
     <col min="1528" max="1528" width="33" style="2" customWidth="1"/>
     <col min="1529" max="1529" width="25" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1531" max="1531" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1532" max="1532" width="22.453125" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="18.453125" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1531" max="1531" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1532" max="1532" width="22.42578125" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="18.42578125" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="20" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1536" max="1783" width="11.453125" style="2"/>
+    <col min="1535" max="1535" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1536" max="1783" width="11.42578125" style="2"/>
     <col min="1784" max="1784" width="33" style="2" customWidth="1"/>
     <col min="1785" max="1785" width="25" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1787" max="1787" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1788" max="1788" width="22.453125" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="18.453125" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="25.7109375" style="2" customWidth="1"/>
+    <col min="1787" max="1787" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1788" max="1788" width="22.42578125" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="18.42578125" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="20" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1792" max="2039" width="11.453125" style="2"/>
+    <col min="1791" max="1791" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1792" max="2039" width="11.42578125" style="2"/>
     <col min="2040" max="2040" width="33" style="2" customWidth="1"/>
     <col min="2041" max="2041" width="25" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2043" max="2043" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2044" max="2044" width="22.453125" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="18.453125" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2043" max="2043" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2044" max="2044" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="18.42578125" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="20" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2048" max="2295" width="11.453125" style="2"/>
+    <col min="2047" max="2047" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2048" max="2295" width="11.42578125" style="2"/>
     <col min="2296" max="2296" width="33" style="2" customWidth="1"/>
     <col min="2297" max="2297" width="25" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2299" max="2299" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2300" max="2300" width="22.453125" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="18.453125" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2299" max="2299" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2300" max="2300" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="18.42578125" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="20" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2304" max="2551" width="11.453125" style="2"/>
+    <col min="2303" max="2303" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2304" max="2551" width="11.42578125" style="2"/>
     <col min="2552" max="2552" width="33" style="2" customWidth="1"/>
     <col min="2553" max="2553" width="25" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2555" max="2555" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2556" max="2556" width="22.453125" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="18.453125" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2555" max="2555" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2556" max="2556" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="18.42578125" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="20" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2560" max="2807" width="11.453125" style="2"/>
+    <col min="2559" max="2559" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2560" max="2807" width="11.42578125" style="2"/>
     <col min="2808" max="2808" width="33" style="2" customWidth="1"/>
     <col min="2809" max="2809" width="25" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2811" max="2811" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2812" max="2812" width="22.453125" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="18.453125" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2811" max="2811" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2812" max="2812" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="18.42578125" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="20" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2816" max="3063" width="11.453125" style="2"/>
+    <col min="2815" max="2815" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2816" max="3063" width="11.42578125" style="2"/>
     <col min="3064" max="3064" width="33" style="2" customWidth="1"/>
     <col min="3065" max="3065" width="25" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3067" max="3067" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3068" max="3068" width="22.453125" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="18.453125" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3067" max="3067" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3068" max="3068" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="18.42578125" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="20" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3072" max="3319" width="11.453125" style="2"/>
+    <col min="3071" max="3071" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3072" max="3319" width="11.42578125" style="2"/>
     <col min="3320" max="3320" width="33" style="2" customWidth="1"/>
     <col min="3321" max="3321" width="25" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3323" max="3323" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3324" max="3324" width="22.453125" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="18.453125" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3323" max="3323" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3324" max="3324" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="18.42578125" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="20" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3328" max="3575" width="11.453125" style="2"/>
+    <col min="3327" max="3327" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3328" max="3575" width="11.42578125" style="2"/>
     <col min="3576" max="3576" width="33" style="2" customWidth="1"/>
     <col min="3577" max="3577" width="25" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3579" max="3579" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3580" max="3580" width="22.453125" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="18.453125" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3579" max="3579" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3580" max="3580" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="18.42578125" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="20" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3584" max="3831" width="11.453125" style="2"/>
+    <col min="3583" max="3583" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3584" max="3831" width="11.42578125" style="2"/>
     <col min="3832" max="3832" width="33" style="2" customWidth="1"/>
     <col min="3833" max="3833" width="25" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3835" max="3835" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3836" max="3836" width="22.453125" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="18.453125" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3835" max="3835" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3836" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="18.42578125" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="20" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3840" max="4087" width="11.453125" style="2"/>
+    <col min="3839" max="3839" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3840" max="4087" width="11.42578125" style="2"/>
     <col min="4088" max="4088" width="33" style="2" customWidth="1"/>
     <col min="4089" max="4089" width="25" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4091" max="4091" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4092" max="4092" width="22.453125" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="18.453125" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4091" max="4091" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4092" max="4092" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="18.42578125" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="20" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4096" max="4343" width="11.453125" style="2"/>
+    <col min="4095" max="4095" width="36.5703125" style="2" customWidth="1"/>
+    <col min="4096" max="4343" width="11.42578125" style="2"/>
     <col min="4344" max="4344" width="33" style="2" customWidth="1"/>
     <col min="4345" max="4345" width="25" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4347" max="4347" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4348" max="4348" width="22.453125" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="18.453125" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4347" max="4347" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4348" max="4348" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="18.42578125" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="20" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4352" max="4599" width="11.453125" style="2"/>
+    <col min="4351" max="4351" width="36.5703125" style="2" customWidth="1"/>
+    <col min="4352" max="4599" width="11.42578125" style="2"/>
     <col min="4600" max="4600" width="33" style="2" customWidth="1"/>
     <col min="4601" max="4601" width="25" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4603" max="4603" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4604" max="4604" width="22.453125" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="18.453125" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4603" max="4603" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4604" max="4604" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="18.42578125" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="20" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4608" max="4855" width="11.453125" style="2"/>
+    <col min="4607" max="4607" width="36.5703125" style="2" customWidth="1"/>
+    <col min="4608" max="4855" width="11.42578125" style="2"/>
     <col min="4856" max="4856" width="33" style="2" customWidth="1"/>
     <col min="4857" max="4857" width="25" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4859" max="4859" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4860" max="4860" width="22.453125" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="18.453125" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4859" max="4859" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4860" max="4860" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="18.42578125" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="20" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4864" max="5111" width="11.453125" style="2"/>
+    <col min="4863" max="4863" width="36.5703125" style="2" customWidth="1"/>
+    <col min="4864" max="5111" width="11.42578125" style="2"/>
     <col min="5112" max="5112" width="33" style="2" customWidth="1"/>
     <col min="5113" max="5113" width="25" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5115" max="5115" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5116" max="5116" width="22.453125" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="18.453125" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5115" max="5115" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5116" max="5116" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="18.42578125" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="20" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5120" max="5367" width="11.453125" style="2"/>
+    <col min="5119" max="5119" width="36.5703125" style="2" customWidth="1"/>
+    <col min="5120" max="5367" width="11.42578125" style="2"/>
     <col min="5368" max="5368" width="33" style="2" customWidth="1"/>
     <col min="5369" max="5369" width="25" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5371" max="5371" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5372" max="5372" width="22.453125" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="18.453125" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5371" max="5371" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5372" max="5372" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="18.42578125" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="20" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5376" max="5623" width="11.453125" style="2"/>
+    <col min="5375" max="5375" width="36.5703125" style="2" customWidth="1"/>
+    <col min="5376" max="5623" width="11.42578125" style="2"/>
     <col min="5624" max="5624" width="33" style="2" customWidth="1"/>
     <col min="5625" max="5625" width="25" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5627" max="5627" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5628" max="5628" width="22.453125" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="18.453125" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5627" max="5627" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5628" max="5628" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="18.42578125" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="20" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5632" max="5879" width="11.453125" style="2"/>
+    <col min="5631" max="5631" width="36.5703125" style="2" customWidth="1"/>
+    <col min="5632" max="5879" width="11.42578125" style="2"/>
     <col min="5880" max="5880" width="33" style="2" customWidth="1"/>
     <col min="5881" max="5881" width="25" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5883" max="5883" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5884" max="5884" width="22.453125" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="18.453125" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5883" max="5883" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5884" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="18.42578125" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="20" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5888" max="6135" width="11.453125" style="2"/>
+    <col min="5887" max="5887" width="36.5703125" style="2" customWidth="1"/>
+    <col min="5888" max="6135" width="11.42578125" style="2"/>
     <col min="6136" max="6136" width="33" style="2" customWidth="1"/>
     <col min="6137" max="6137" width="25" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6139" max="6139" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6140" max="6140" width="22.453125" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="18.453125" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6139" max="6139" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6140" max="6140" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="18.42578125" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="20" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6144" max="6391" width="11.453125" style="2"/>
+    <col min="6143" max="6143" width="36.5703125" style="2" customWidth="1"/>
+    <col min="6144" max="6391" width="11.42578125" style="2"/>
     <col min="6392" max="6392" width="33" style="2" customWidth="1"/>
     <col min="6393" max="6393" width="25" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6395" max="6395" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6396" max="6396" width="22.453125" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="18.453125" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6395" max="6395" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6396" max="6396" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="18.42578125" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="20" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6400" max="6647" width="11.453125" style="2"/>
+    <col min="6399" max="6399" width="36.5703125" style="2" customWidth="1"/>
+    <col min="6400" max="6647" width="11.42578125" style="2"/>
     <col min="6648" max="6648" width="33" style="2" customWidth="1"/>
     <col min="6649" max="6649" width="25" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6651" max="6651" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6652" max="6652" width="22.453125" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="18.453125" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6651" max="6651" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6652" max="6652" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="18.42578125" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="20" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6656" max="6903" width="11.453125" style="2"/>
+    <col min="6655" max="6655" width="36.5703125" style="2" customWidth="1"/>
+    <col min="6656" max="6903" width="11.42578125" style="2"/>
     <col min="6904" max="6904" width="33" style="2" customWidth="1"/>
     <col min="6905" max="6905" width="25" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6907" max="6907" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6908" max="6908" width="22.453125" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="18.453125" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6907" max="6907" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6908" max="6908" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="18.42578125" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="20" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6912" max="7159" width="11.453125" style="2"/>
+    <col min="6911" max="6911" width="36.5703125" style="2" customWidth="1"/>
+    <col min="6912" max="7159" width="11.42578125" style="2"/>
     <col min="7160" max="7160" width="33" style="2" customWidth="1"/>
     <col min="7161" max="7161" width="25" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7163" max="7163" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7164" max="7164" width="22.453125" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="18.453125" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7163" max="7163" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7164" max="7164" width="22.42578125" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="18.42578125" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="20" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7168" max="7415" width="11.453125" style="2"/>
+    <col min="7167" max="7167" width="36.5703125" style="2" customWidth="1"/>
+    <col min="7168" max="7415" width="11.42578125" style="2"/>
     <col min="7416" max="7416" width="33" style="2" customWidth="1"/>
     <col min="7417" max="7417" width="25" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7419" max="7419" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7420" max="7420" width="22.453125" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="18.453125" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7419" max="7419" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7420" max="7420" width="22.42578125" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="18.42578125" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="20" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7424" max="7671" width="11.453125" style="2"/>
+    <col min="7423" max="7423" width="36.5703125" style="2" customWidth="1"/>
+    <col min="7424" max="7671" width="11.42578125" style="2"/>
     <col min="7672" max="7672" width="33" style="2" customWidth="1"/>
     <col min="7673" max="7673" width="25" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7675" max="7675" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7676" max="7676" width="22.453125" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="18.453125" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7675" max="7675" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7676" max="7676" width="22.42578125" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="18.42578125" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="20" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7680" max="7927" width="11.453125" style="2"/>
+    <col min="7679" max="7679" width="36.5703125" style="2" customWidth="1"/>
+    <col min="7680" max="7927" width="11.42578125" style="2"/>
     <col min="7928" max="7928" width="33" style="2" customWidth="1"/>
     <col min="7929" max="7929" width="25" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7931" max="7931" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7932" max="7932" width="22.453125" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="18.453125" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7931" max="7931" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7932" max="7932" width="22.42578125" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="18.42578125" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="20" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7936" max="8183" width="11.453125" style="2"/>
+    <col min="7935" max="7935" width="36.5703125" style="2" customWidth="1"/>
+    <col min="7936" max="8183" width="11.42578125" style="2"/>
     <col min="8184" max="8184" width="33" style="2" customWidth="1"/>
     <col min="8185" max="8185" width="25" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8187" max="8187" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8188" max="8188" width="22.453125" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="18.453125" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8187" max="8187" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8188" max="8188" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="18.42578125" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="20" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8192" max="8439" width="11.453125" style="2"/>
+    <col min="8191" max="8191" width="36.5703125" style="2" customWidth="1"/>
+    <col min="8192" max="8439" width="11.42578125" style="2"/>
     <col min="8440" max="8440" width="33" style="2" customWidth="1"/>
     <col min="8441" max="8441" width="25" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8443" max="8443" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8444" max="8444" width="22.453125" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="18.453125" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8443" max="8443" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8444" max="8444" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="18.42578125" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="20" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8448" max="8695" width="11.453125" style="2"/>
+    <col min="8447" max="8447" width="36.5703125" style="2" customWidth="1"/>
+    <col min="8448" max="8695" width="11.42578125" style="2"/>
     <col min="8696" max="8696" width="33" style="2" customWidth="1"/>
     <col min="8697" max="8697" width="25" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8699" max="8699" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8700" max="8700" width="22.453125" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="18.453125" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8699" max="8699" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8700" max="8700" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="18.42578125" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="20" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8704" max="8951" width="11.453125" style="2"/>
+    <col min="8703" max="8703" width="36.5703125" style="2" customWidth="1"/>
+    <col min="8704" max="8951" width="11.42578125" style="2"/>
     <col min="8952" max="8952" width="33" style="2" customWidth="1"/>
     <col min="8953" max="8953" width="25" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8955" max="8955" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8956" max="8956" width="22.453125" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="18.453125" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8955" max="8955" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8956" max="8956" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="18.42578125" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="20" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8960" max="9207" width="11.453125" style="2"/>
+    <col min="8959" max="8959" width="36.5703125" style="2" customWidth="1"/>
+    <col min="8960" max="9207" width="11.42578125" style="2"/>
     <col min="9208" max="9208" width="33" style="2" customWidth="1"/>
     <col min="9209" max="9209" width="25" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9211" max="9211" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9212" max="9212" width="22.453125" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="18.453125" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9211" max="9211" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9212" max="9212" width="22.42578125" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="18.42578125" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="20" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9216" max="9463" width="11.453125" style="2"/>
+    <col min="9215" max="9215" width="36.5703125" style="2" customWidth="1"/>
+    <col min="9216" max="9463" width="11.42578125" style="2"/>
     <col min="9464" max="9464" width="33" style="2" customWidth="1"/>
     <col min="9465" max="9465" width="25" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9467" max="9467" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9468" max="9468" width="22.453125" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="18.453125" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9467" max="9467" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9468" max="9468" width="22.42578125" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="18.42578125" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="20" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9472" max="9719" width="11.453125" style="2"/>
+    <col min="9471" max="9471" width="36.5703125" style="2" customWidth="1"/>
+    <col min="9472" max="9719" width="11.42578125" style="2"/>
     <col min="9720" max="9720" width="33" style="2" customWidth="1"/>
     <col min="9721" max="9721" width="25" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9723" max="9723" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9724" max="9724" width="22.453125" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="18.453125" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9723" max="9723" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9724" max="9724" width="22.42578125" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="18.42578125" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="20" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9728" max="9975" width="11.453125" style="2"/>
+    <col min="9727" max="9727" width="36.5703125" style="2" customWidth="1"/>
+    <col min="9728" max="9975" width="11.42578125" style="2"/>
     <col min="9976" max="9976" width="33" style="2" customWidth="1"/>
     <col min="9977" max="9977" width="25" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9979" max="9979" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9980" max="9980" width="22.453125" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="18.453125" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9979" max="9979" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9980" max="9980" width="22.42578125" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="18.42578125" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="20" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9984" max="10231" width="11.453125" style="2"/>
+    <col min="9983" max="9983" width="36.5703125" style="2" customWidth="1"/>
+    <col min="9984" max="10231" width="11.42578125" style="2"/>
     <col min="10232" max="10232" width="33" style="2" customWidth="1"/>
     <col min="10233" max="10233" width="25" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10235" max="10235" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10236" max="10236" width="22.453125" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="18.453125" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="25.7109375" style="2" customWidth="1"/>
+    <col min="10235" max="10235" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10236" max="10236" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="18.42578125" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="20" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10240" max="10487" width="11.453125" style="2"/>
+    <col min="10239" max="10239" width="36.5703125" style="2" customWidth="1"/>
+    <col min="10240" max="10487" width="11.42578125" style="2"/>
     <col min="10488" max="10488" width="33" style="2" customWidth="1"/>
     <col min="10489" max="10489" width="25" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10491" max="10491" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10492" max="10492" width="22.453125" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="18.453125" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="25.7109375" style="2" customWidth="1"/>
+    <col min="10491" max="10491" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10492" max="10492" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="18.42578125" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="20" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10496" max="10743" width="11.453125" style="2"/>
+    <col min="10495" max="10495" width="36.5703125" style="2" customWidth="1"/>
+    <col min="10496" max="10743" width="11.42578125" style="2"/>
     <col min="10744" max="10744" width="33" style="2" customWidth="1"/>
     <col min="10745" max="10745" width="25" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10747" max="10747" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10748" max="10748" width="22.453125" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="18.453125" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="25.7109375" style="2" customWidth="1"/>
+    <col min="10747" max="10747" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10748" max="10748" width="22.42578125" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="18.42578125" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="20" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10752" max="10999" width="11.453125" style="2"/>
+    <col min="10751" max="10751" width="36.5703125" style="2" customWidth="1"/>
+    <col min="10752" max="10999" width="11.42578125" style="2"/>
     <col min="11000" max="11000" width="33" style="2" customWidth="1"/>
     <col min="11001" max="11001" width="25" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11003" max="11003" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11004" max="11004" width="22.453125" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="18.453125" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11003" max="11003" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11004" max="11004" width="22.42578125" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="18.42578125" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="20" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11008" max="11255" width="11.453125" style="2"/>
+    <col min="11007" max="11007" width="36.5703125" style="2" customWidth="1"/>
+    <col min="11008" max="11255" width="11.42578125" style="2"/>
     <col min="11256" max="11256" width="33" style="2" customWidth="1"/>
     <col min="11257" max="11257" width="25" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11259" max="11259" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11260" max="11260" width="22.453125" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="18.453125" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11259" max="11259" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11260" max="11260" width="22.42578125" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="18.42578125" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="20" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11264" max="11511" width="11.453125" style="2"/>
+    <col min="11263" max="11263" width="36.5703125" style="2" customWidth="1"/>
+    <col min="11264" max="11511" width="11.42578125" style="2"/>
     <col min="11512" max="11512" width="33" style="2" customWidth="1"/>
     <col min="11513" max="11513" width="25" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11515" max="11515" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11516" max="11516" width="22.453125" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="18.453125" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11515" max="11515" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11516" max="11516" width="22.42578125" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="18.42578125" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="20" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11520" max="11767" width="11.453125" style="2"/>
+    <col min="11519" max="11519" width="36.5703125" style="2" customWidth="1"/>
+    <col min="11520" max="11767" width="11.42578125" style="2"/>
     <col min="11768" max="11768" width="33" style="2" customWidth="1"/>
     <col min="11769" max="11769" width="25" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11771" max="11771" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11772" max="11772" width="22.453125" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="18.453125" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11771" max="11771" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11772" max="11772" width="22.42578125" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="18.42578125" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="20" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11776" max="12023" width="11.453125" style="2"/>
+    <col min="11775" max="11775" width="36.5703125" style="2" customWidth="1"/>
+    <col min="11776" max="12023" width="11.42578125" style="2"/>
     <col min="12024" max="12024" width="33" style="2" customWidth="1"/>
     <col min="12025" max="12025" width="25" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12027" max="12027" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12028" max="12028" width="22.453125" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="18.453125" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="25.7109375" style="2" customWidth="1"/>
+    <col min="12027" max="12027" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12028" max="12028" width="22.42578125" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="18.42578125" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="20" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12032" max="12279" width="11.453125" style="2"/>
+    <col min="12031" max="12031" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12032" max="12279" width="11.42578125" style="2"/>
     <col min="12280" max="12280" width="33" style="2" customWidth="1"/>
     <col min="12281" max="12281" width="25" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12283" max="12283" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12284" max="12284" width="22.453125" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="18.453125" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="25.7109375" style="2" customWidth="1"/>
+    <col min="12283" max="12283" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12284" max="12284" width="22.42578125" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="18.42578125" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="20" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12288" max="12535" width="11.453125" style="2"/>
+    <col min="12287" max="12287" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12288" max="12535" width="11.42578125" style="2"/>
     <col min="12536" max="12536" width="33" style="2" customWidth="1"/>
     <col min="12537" max="12537" width="25" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12539" max="12539" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12540" max="12540" width="22.453125" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="18.453125" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="25.7109375" style="2" customWidth="1"/>
+    <col min="12539" max="12539" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12540" max="12540" width="22.42578125" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="18.42578125" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="20" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12544" max="12791" width="11.453125" style="2"/>
+    <col min="12543" max="12543" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12544" max="12791" width="11.42578125" style="2"/>
     <col min="12792" max="12792" width="33" style="2" customWidth="1"/>
     <col min="12793" max="12793" width="25" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12795" max="12795" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12796" max="12796" width="22.453125" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="18.453125" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="25.7109375" style="2" customWidth="1"/>
+    <col min="12795" max="12795" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12796" max="12796" width="22.42578125" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="18.42578125" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="20" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12800" max="13047" width="11.453125" style="2"/>
+    <col min="12799" max="12799" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12800" max="13047" width="11.42578125" style="2"/>
     <col min="13048" max="13048" width="33" style="2" customWidth="1"/>
     <col min="13049" max="13049" width="25" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13051" max="13051" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13052" max="13052" width="22.453125" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="18.453125" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13051" max="13051" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13052" max="13052" width="22.42578125" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="18.42578125" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="20" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13056" max="13303" width="11.453125" style="2"/>
+    <col min="13055" max="13055" width="36.5703125" style="2" customWidth="1"/>
+    <col min="13056" max="13303" width="11.42578125" style="2"/>
     <col min="13304" max="13304" width="33" style="2" customWidth="1"/>
     <col min="13305" max="13305" width="25" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13307" max="13307" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13308" max="13308" width="22.453125" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="18.453125" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13307" max="13307" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13308" max="13308" width="22.42578125" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="18.42578125" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="20" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13312" max="13559" width="11.453125" style="2"/>
+    <col min="13311" max="13311" width="36.5703125" style="2" customWidth="1"/>
+    <col min="13312" max="13559" width="11.42578125" style="2"/>
     <col min="13560" max="13560" width="33" style="2" customWidth="1"/>
     <col min="13561" max="13561" width="25" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13563" max="13563" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13564" max="13564" width="22.453125" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="18.453125" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13563" max="13563" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13564" max="13564" width="22.42578125" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="18.42578125" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="20" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13568" max="13815" width="11.453125" style="2"/>
+    <col min="13567" max="13567" width="36.5703125" style="2" customWidth="1"/>
+    <col min="13568" max="13815" width="11.42578125" style="2"/>
     <col min="13816" max="13816" width="33" style="2" customWidth="1"/>
     <col min="13817" max="13817" width="25" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13819" max="13819" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13820" max="13820" width="22.453125" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="18.453125" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13819" max="13819" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13820" max="13820" width="22.42578125" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="18.42578125" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="20" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13824" max="14071" width="11.453125" style="2"/>
+    <col min="13823" max="13823" width="36.5703125" style="2" customWidth="1"/>
+    <col min="13824" max="14071" width="11.42578125" style="2"/>
     <col min="14072" max="14072" width="33" style="2" customWidth="1"/>
     <col min="14073" max="14073" width="25" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14075" max="14075" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14076" max="14076" width="22.453125" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="18.453125" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="25.7109375" style="2" customWidth="1"/>
+    <col min="14075" max="14075" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14076" max="14076" width="22.42578125" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="18.42578125" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="20" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14080" max="14327" width="11.453125" style="2"/>
+    <col min="14079" max="14079" width="36.5703125" style="2" customWidth="1"/>
+    <col min="14080" max="14327" width="11.42578125" style="2"/>
     <col min="14328" max="14328" width="33" style="2" customWidth="1"/>
     <col min="14329" max="14329" width="25" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14331" max="14331" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14332" max="14332" width="22.453125" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="18.453125" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="25.7109375" style="2" customWidth="1"/>
+    <col min="14331" max="14331" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14332" max="14332" width="22.42578125" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="18.42578125" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="20" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14336" max="14583" width="11.453125" style="2"/>
+    <col min="14335" max="14335" width="36.5703125" style="2" customWidth="1"/>
+    <col min="14336" max="14583" width="11.42578125" style="2"/>
     <col min="14584" max="14584" width="33" style="2" customWidth="1"/>
     <col min="14585" max="14585" width="25" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14587" max="14587" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14588" max="14588" width="22.453125" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="18.453125" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="25.7109375" style="2" customWidth="1"/>
+    <col min="14587" max="14587" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14588" max="14588" width="22.42578125" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="18.42578125" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="20" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14592" max="14839" width="11.453125" style="2"/>
+    <col min="14591" max="14591" width="36.5703125" style="2" customWidth="1"/>
+    <col min="14592" max="14839" width="11.42578125" style="2"/>
     <col min="14840" max="14840" width="33" style="2" customWidth="1"/>
     <col min="14841" max="14841" width="25" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14843" max="14843" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14844" max="14844" width="22.453125" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="18.453125" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="25.7109375" style="2" customWidth="1"/>
+    <col min="14843" max="14843" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14844" max="14844" width="22.42578125" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="18.42578125" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="20" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14848" max="15095" width="11.453125" style="2"/>
+    <col min="14847" max="14847" width="36.5703125" style="2" customWidth="1"/>
+    <col min="14848" max="15095" width="11.42578125" style="2"/>
     <col min="15096" max="15096" width="33" style="2" customWidth="1"/>
     <col min="15097" max="15097" width="25" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15099" max="15099" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15100" max="15100" width="22.453125" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="18.453125" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15099" max="15099" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15100" max="15100" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="18.42578125" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="20" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15104" max="15351" width="11.453125" style="2"/>
+    <col min="15103" max="15103" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15104" max="15351" width="11.42578125" style="2"/>
     <col min="15352" max="15352" width="33" style="2" customWidth="1"/>
     <col min="15353" max="15353" width="25" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15355" max="15355" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15356" max="15356" width="22.453125" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="18.453125" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15355" max="15355" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15356" max="15356" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="18.42578125" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="20" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15360" max="15607" width="11.453125" style="2"/>
+    <col min="15359" max="15359" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15360" max="15607" width="11.42578125" style="2"/>
     <col min="15608" max="15608" width="33" style="2" customWidth="1"/>
     <col min="15609" max="15609" width="25" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15611" max="15611" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15612" max="15612" width="22.453125" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="18.453125" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15611" max="15611" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15612" max="15612" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="18.42578125" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="20" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15616" max="15863" width="11.453125" style="2"/>
+    <col min="15615" max="15615" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15616" max="15863" width="11.42578125" style="2"/>
     <col min="15864" max="15864" width="33" style="2" customWidth="1"/>
     <col min="15865" max="15865" width="25" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15867" max="15867" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15868" max="15868" width="22.453125" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="18.453125" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15867" max="15867" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15868" max="15868" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="18.42578125" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="20" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15872" max="16119" width="11.453125" style="2"/>
+    <col min="15871" max="15871" width="36.5703125" style="2" customWidth="1"/>
+    <col min="15872" max="16119" width="11.42578125" style="2"/>
     <col min="16120" max="16120" width="33" style="2" customWidth="1"/>
     <col min="16121" max="16121" width="25" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="25.7265625" style="2" customWidth="1"/>
-    <col min="16123" max="16123" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16124" max="16124" width="22.453125" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="18.453125" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="25.7109375" style="2" customWidth="1"/>
+    <col min="16123" max="16123" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16124" max="16124" width="22.42578125" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="18.42578125" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="20" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="36.54296875" style="2" customWidth="1"/>
-    <col min="16128" max="16384" width="11.453125" style="2"/>
+    <col min="16127" max="16127" width="36.5703125" style="2" customWidth="1"/>
+    <col min="16128" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +3762,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>172</v>
       </c>
@@ -3741,7 +3795,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
@@ -3774,7 +3828,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -3807,7 +3861,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>172</v>
       </c>
@@ -3840,7 +3894,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>172</v>
       </c>
@@ -3873,7 +3927,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>172</v>
       </c>
@@ -3906,7 +3960,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>172</v>
       </c>
@@ -3939,7 +3993,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>172</v>
       </c>
@@ -3972,7 +4026,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>172</v>
       </c>
@@ -4005,7 +4059,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>172</v>
       </c>
@@ -4038,7 +4092,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>172</v>
       </c>
@@ -4071,7 +4125,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>172</v>
       </c>
@@ -4104,7 +4158,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>172</v>
       </c>
@@ -4137,7 +4191,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>172</v>
       </c>
@@ -4170,7 +4224,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>172</v>
       </c>
@@ -4203,7 +4257,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>172</v>
       </c>
@@ -4236,7 +4290,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>172</v>
       </c>
@@ -4269,7 +4323,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>172</v>
       </c>
@@ -4302,7 +4356,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>172</v>
       </c>
@@ -4335,7 +4389,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>172</v>
       </c>
@@ -4368,7 +4422,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
@@ -4401,7 +4455,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>172</v>
       </c>
@@ -4434,7 +4488,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
@@ -4467,7 +4521,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>172</v>
       </c>
@@ -4500,7 +4554,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>172</v>
       </c>
@@ -4533,7 +4587,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
@@ -4566,7 +4620,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>172</v>
       </c>
@@ -4599,7 +4653,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>172</v>
       </c>
@@ -4632,7 +4686,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>172</v>
       </c>
@@ -4665,7 +4719,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>172</v>
       </c>
@@ -4698,7 +4752,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>172</v>
       </c>
@@ -4731,7 +4785,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>172</v>
       </c>
@@ -4764,7 +4818,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>172</v>
       </c>
@@ -4797,7 +4851,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>172</v>
       </c>
@@ -4830,7 +4884,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>172</v>
       </c>
@@ -4863,7 +4917,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>172</v>
       </c>
@@ -4896,7 +4950,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>172</v>
       </c>
@@ -4929,7 +4983,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>172</v>
       </c>
@@ -4962,7 +5016,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -4995,7 +5049,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>172</v>
       </c>
@@ -5028,7 +5082,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>172</v>
       </c>
@@ -5061,7 +5115,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>172</v>
       </c>
@@ -5094,7 +5148,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>172</v>
       </c>
@@ -5127,7 +5181,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>172</v>
       </c>
@@ -5160,7 +5214,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>172</v>
       </c>
@@ -5193,7 +5247,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>172</v>
       </c>
@@ -5226,7 +5280,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>172</v>
       </c>
@@ -5259,7 +5313,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>172</v>
       </c>
@@ -5292,7 +5346,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>172</v>
       </c>
@@ -5325,7 +5379,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>172</v>
       </c>
@@ -5358,7 +5412,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>172</v>
       </c>
@@ -5391,7 +5445,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>172</v>
       </c>
@@ -5424,7 +5478,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>172</v>
       </c>
@@ -5457,7 +5511,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>172</v>
       </c>
@@ -5490,7 +5544,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
@@ -5523,7 +5577,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -5556,7 +5610,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>172</v>
       </c>
@@ -5589,7 +5643,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>172</v>
       </c>
@@ -5622,7 +5676,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>172</v>
       </c>
@@ -5655,7 +5709,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>172</v>
       </c>
@@ -5688,7 +5742,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>172</v>
       </c>
@@ -5721,7 +5775,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>172</v>
       </c>
@@ -5754,7 +5808,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>172</v>
       </c>
@@ -5787,7 +5841,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>172</v>
       </c>
@@ -5797,7 +5851,7 @@
       <c r="C65" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -5820,7 +5874,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>172</v>
       </c>
@@ -5830,7 +5884,7 @@
       <c r="C66" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="37" t="s">
         <v>68</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -5853,7 +5907,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>172</v>
       </c>
@@ -5886,7 +5940,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>172</v>
       </c>
@@ -5919,7 +5973,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>172</v>
       </c>
@@ -5952,7 +6006,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>172</v>
       </c>
@@ -5985,7 +6039,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>172</v>
       </c>
@@ -6018,7 +6072,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -6051,7 +6105,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>172</v>
       </c>
@@ -6084,7 +6138,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>172</v>
       </c>
@@ -6117,7 +6171,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>172</v>
       </c>
@@ -6150,7 +6204,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>172</v>
       </c>
@@ -6183,7 +6237,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>172</v>
       </c>
@@ -6216,7 +6270,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
@@ -6249,7 +6303,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>172</v>
       </c>
@@ -6282,7 +6336,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>172</v>
       </c>
@@ -6315,7 +6369,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>172</v>
       </c>
@@ -6348,7 +6402,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>172</v>
       </c>
@@ -6381,7 +6435,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>172</v>
       </c>
@@ -6414,7 +6468,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
@@ -6447,7 +6501,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
@@ -6475,14 +6529,14 @@
       <c r="I85" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J85" s="37" t="s">
+      <c r="J85" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="K85" s="34" t="s">
+      <c r="K85" s="31" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>172</v>
       </c>
@@ -6510,10 +6564,10 @@
       <c r="I86" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J86" s="38"/>
-      <c r="K86" s="35"/>
-    </row>
-    <row r="87" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="35"/>
+      <c r="K86" s="32"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
@@ -6541,10 +6595,10 @@
       <c r="I87" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J87" s="38"/>
-      <c r="K87" s="35"/>
-    </row>
-    <row r="88" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="35"/>
+      <c r="K87" s="32"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>172</v>
       </c>
@@ -6572,10 +6626,10 @@
       <c r="I88" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J88" s="38"/>
-      <c r="K88" s="35"/>
-    </row>
-    <row r="89" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="35"/>
+      <c r="K88" s="32"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>172</v>
       </c>
@@ -6603,10 +6657,10 @@
       <c r="I89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J89" s="38"/>
-      <c r="K89" s="35"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="35"/>
+      <c r="K89" s="32"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>172</v>
       </c>
@@ -6634,10 +6688,10 @@
       <c r="I90" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J90" s="38"/>
-      <c r="K90" s="35"/>
-    </row>
-    <row r="91" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="35"/>
+      <c r="K90" s="32"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>172</v>
       </c>
@@ -6665,10 +6719,10 @@
       <c r="I91" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J91" s="39"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" ht="172.5" x14ac:dyDescent="0.25">
+      <c r="J91" s="36"/>
+      <c r="K91" s="33"/>
+    </row>
+    <row r="92" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>172</v>
       </c>
@@ -6703,7 +6757,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="132" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>172</v>
       </c>
@@ -6738,7 +6792,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>172</v>
       </c>
@@ -6769,11 +6823,11 @@
       <c r="J94" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K94" s="31" t="s">
+      <c r="K94" s="28" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>172</v>
       </c>
@@ -6804,9 +6858,9 @@
       <c r="J95" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K95" s="32"/>
-    </row>
-    <row r="96" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="29"/>
+    </row>
+    <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>172</v>
       </c>
@@ -6837,9 +6891,9 @@
       <c r="J96" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K96" s="32"/>
-    </row>
-    <row r="97" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="29"/>
+    </row>
+    <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>172</v>
       </c>
@@ -6870,9 +6924,9 @@
       <c r="J97" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K97" s="32"/>
-    </row>
-    <row r="98" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>172</v>
       </c>
@@ -6903,9 +6957,9 @@
       <c r="J98" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K98" s="33"/>
-    </row>
-    <row r="99" spans="1:11" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="K98" s="30"/>
+    </row>
+    <row r="99" spans="1:11" ht="72" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>172</v>
       </c>
@@ -6940,7 +6994,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>172</v>
       </c>
@@ -6973,7 +7027,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>172</v>
       </c>
@@ -7008,7 +7062,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>172</v>
       </c>
@@ -7043,7 +7097,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>172</v>
       </c>
@@ -7076,7 +7130,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>172</v>
       </c>
@@ -7109,7 +7163,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>172</v>
       </c>
@@ -7142,7 +7196,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>172</v>
       </c>
@@ -7175,7 +7229,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>173</v>
       </c>
@@ -7208,7 +7262,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>173</v>
       </c>
@@ -7241,7 +7295,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>173</v>
       </c>
@@ -7274,7 +7328,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>173</v>
       </c>
@@ -7309,7 +7363,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>173</v>
       </c>
@@ -7342,7 +7396,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>173</v>
       </c>
@@ -7375,7 +7429,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>173</v>
       </c>
@@ -7408,7 +7462,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>173</v>
       </c>
@@ -7441,7 +7495,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>173</v>
       </c>
@@ -7474,7 +7528,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>173</v>
       </c>
@@ -7507,7 +7561,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>173</v>
       </c>
@@ -7540,7 +7594,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>173</v>
       </c>
@@ -7573,7 +7627,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>173</v>
       </c>
@@ -7606,7 +7660,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>173</v>
       </c>
@@ -7639,7 +7693,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>173</v>
       </c>
@@ -7672,7 +7726,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>173</v>
       </c>
@@ -7705,7 +7759,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>173</v>
       </c>
@@ -7738,7 +7792,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>173</v>
       </c>
@@ -7771,7 +7825,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>173</v>
       </c>
@@ -7804,7 +7858,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>173</v>
       </c>
@@ -7839,7 +7893,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>173</v>
       </c>
@@ -7872,7 +7926,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>173</v>
       </c>
@@ -7905,7 +7959,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>173</v>
       </c>
@@ -7938,7 +7992,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>173</v>
       </c>
@@ -7971,7 +8025,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>174</v>
       </c>
@@ -8004,7 +8058,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
@@ -8037,7 +8091,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>174</v>
       </c>
@@ -8070,7 +8124,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>174</v>
       </c>
@@ -8105,7 +8159,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>174</v>
       </c>
@@ -8138,7 +8192,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>174</v>
       </c>
@@ -8171,7 +8225,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>174</v>
       </c>
@@ -8204,7 +8258,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>174</v>
       </c>
@@ -8237,7 +8291,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>174</v>
       </c>
@@ -8270,7 +8324,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>174</v>
       </c>
@@ -8303,7 +8357,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>174</v>
       </c>
@@ -8336,7 +8390,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>174</v>
       </c>
@@ -8369,7 +8423,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>174</v>
       </c>
@@ -8404,7 +8458,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>174</v>
       </c>
@@ -8437,7 +8491,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -8470,7 +8524,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>174</v>
       </c>
@@ -8503,7 +8557,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>174</v>
       </c>
@@ -8555,15 +8609,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>405</v>
       </c>
@@ -8577,7 +8631,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8589,7 +8643,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -8601,7 +8655,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8613,7 +8667,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8625,7 +8679,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -8637,7 +8691,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8649,7 +8703,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8661,7 +8715,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -8673,7 +8727,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -8685,7 +8739,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -8697,7 +8751,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -8709,7 +8763,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -8721,7 +8775,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -8733,7 +8787,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -8745,7 +8799,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8811,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -8769,7 +8823,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -8781,7 +8835,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -8793,7 +8847,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -8805,7 +8859,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -8817,7 +8871,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -8829,7 +8883,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -8841,7 +8895,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -8853,7 +8907,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -8865,7 +8919,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -8877,7 +8931,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -8889,7 +8943,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -8901,7 +8955,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +8967,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -8925,7 +8979,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -8937,7 +8991,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -8949,7 +9003,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -8961,7 +9015,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -8973,7 +9027,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -8985,7 +9039,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -8997,7 +9051,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
@@ -9009,7 +9063,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -9021,7 +9075,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -9033,7 +9087,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -9045,7 +9099,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -9057,7 +9111,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -9069,7 +9123,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -9081,7 +9135,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -9093,7 +9147,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -9105,7 +9159,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -9117,7 +9171,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
@@ -9129,7 +9183,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
@@ -9141,7 +9195,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -9153,7 +9207,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
@@ -9165,7 +9219,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
@@ -9177,7 +9231,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -9189,7 +9243,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -9201,7 +9255,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
@@ -9213,7 +9267,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -9225,7 +9279,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -9237,7 +9291,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
@@ -9249,7 +9303,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -9261,7 +9315,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -9273,7 +9327,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -9285,7 +9339,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
@@ -9297,7 +9351,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
@@ -9309,7 +9363,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
@@ -9321,7 +9375,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
@@ -9333,7 +9387,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
@@ -9345,7 +9399,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
@@ -9357,7 +9411,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
@@ -9369,7 +9423,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -9381,7 +9435,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
@@ -9393,7 +9447,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
@@ -9405,7 +9459,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -9417,7 +9471,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
@@ -9429,7 +9483,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
@@ -9441,7 +9495,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
@@ -9453,7 +9507,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
@@ -9465,7 +9519,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -9477,7 +9531,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
@@ -9489,7 +9543,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>3</v>
       </c>
@@ -9501,7 +9555,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
@@ -9513,7 +9567,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
@@ -9525,7 +9579,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -9537,7 +9591,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
@@ -9549,7 +9603,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9615,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -9573,7 +9627,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -9585,7 +9639,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
@@ -9597,7 +9651,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -9609,7 +9663,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
@@ -9621,7 +9675,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
@@ -9633,7 +9687,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
@@ -9645,7 +9699,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
@@ -9657,7 +9711,7 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>3</v>
       </c>
@@ -9669,7 +9723,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -9681,7 +9735,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
@@ -9693,7 +9747,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -9705,7 +9759,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -9717,7 +9771,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -9729,7 +9783,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
@@ -9741,7 +9795,7 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
@@ -9753,7 +9807,7 @@
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
@@ -9765,7 +9819,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
@@ -9777,7 +9831,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
@@ -9789,7 +9843,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>108</v>
       </c>
@@ -9880,7 +9934,7 @@
       <c r="CB103"/>
       <c r="CC103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>108</v>
       </c>
@@ -9892,7 +9946,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>108</v>
       </c>
@@ -9983,7 +10037,7 @@
       <c r="CB105"/>
       <c r="CC105"/>
     </row>
-    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>108</v>
       </c>
@@ -10074,7 +10128,7 @@
       <c r="CB106"/>
       <c r="CC106"/>
     </row>
-    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>108</v>
       </c>
@@ -10165,7 +10219,7 @@
       <c r="CB107"/>
       <c r="CC107"/>
     </row>
-    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>108</v>
       </c>
@@ -10256,7 +10310,7 @@
       <c r="CB108"/>
       <c r="CC108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -10268,7 +10322,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -10280,7 +10334,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
@@ -10292,7 +10346,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -10304,7 +10358,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -10316,7 +10370,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -10328,7 +10382,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -10340,7 +10394,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -10352,7 +10406,7 @@
       </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>108</v>
       </c>
@@ -10364,7 +10418,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
@@ -10376,7 +10430,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>108</v>
       </c>
@@ -10388,7 +10442,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>108</v>
       </c>
@@ -10400,7 +10454,7 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>108</v>
       </c>
@@ -10412,7 +10466,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>108</v>
       </c>
@@ -10426,7 +10480,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
         <v>123</v>
       </c>
@@ -10440,7 +10494,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>123</v>
       </c>
@@ -10452,7 +10506,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
         <v>123</v>
       </c>
@@ -10466,7 +10520,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>123</v>
       </c>
@@ -10480,7 +10534,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
         <v>123</v>
       </c>
@@ -10494,7 +10548,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>123</v>
       </c>
@@ -10508,7 +10562,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>123</v>
       </c>
@@ -10520,7 +10574,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>123</v>
       </c>
@@ -10532,7 +10586,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>123</v>
       </c>
@@ -10544,7 +10598,7 @@
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>123</v>
       </c>
@@ -10556,7 +10610,7 @@
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>123</v>
       </c>
@@ -10568,7 +10622,7 @@
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>123</v>
       </c>
@@ -10580,7 +10634,7 @@
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>123</v>
       </c>
@@ -10616,15 +10670,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>405</v>
       </c>
@@ -10644,7 +10698,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -10664,7 +10718,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -10682,7 +10736,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -10700,7 +10754,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10718,7 +10772,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -10736,7 +10790,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -10754,7 +10808,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -10772,7 +10826,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -10790,7 +10844,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -10808,7 +10862,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -10826,7 +10880,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -10844,7 +10898,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -10862,7 +10916,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -10880,7 +10934,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10898,7 +10952,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -10916,7 +10970,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -10934,7 +10988,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -10952,7 +11006,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -10970,7 +11024,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -10988,7 +11042,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -11006,7 +11060,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -11024,7 +11078,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -11042,7 +11096,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -11060,7 +11114,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -11078,7 +11132,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -11096,7 +11150,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -11114,7 +11168,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -11132,7 +11186,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -11150,7 +11204,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11222,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -11186,7 +11240,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -11204,7 +11258,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -11222,7 +11276,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -11240,7 +11294,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -11258,7 +11312,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -11276,7 +11330,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
@@ -11294,7 +11348,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -11312,7 +11366,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -11330,7 +11384,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -11348,7 +11402,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -11366,7 +11420,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -11384,7 +11438,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -11402,7 +11456,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -11420,7 +11474,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -11438,7 +11492,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -11456,7 +11510,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
@@ -11474,7 +11528,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
@@ -11492,7 +11546,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -11510,7 +11564,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
@@ -11528,7 +11582,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
@@ -11546,7 +11600,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -11564,7 +11618,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -11582,7 +11636,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
@@ -11600,7 +11654,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -11618,7 +11672,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -11636,7 +11690,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
@@ -11654,7 +11708,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -11672,7 +11726,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -11690,7 +11744,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -11708,7 +11762,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
@@ -11726,7 +11780,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
@@ -11744,7 +11798,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
@@ -11762,7 +11816,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
@@ -11780,7 +11834,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
@@ -11798,7 +11852,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
@@ -11816,7 +11870,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
@@ -11834,7 +11888,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -11852,7 +11906,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
@@ -11870,7 +11924,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
@@ -11888,7 +11942,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -11906,7 +11960,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
@@ -11924,7 +11978,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
@@ -11942,7 +11996,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
@@ -11960,7 +12014,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
@@ -11978,7 +12032,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -11996,7 +12050,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
@@ -12014,7 +12068,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>3</v>
       </c>
@@ -12032,7 +12086,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12104,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
@@ -12068,7 +12122,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -12086,7 +12140,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
@@ -12104,7 +12158,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
@@ -12122,7 +12176,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -12140,7 +12194,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -12158,7 +12212,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
@@ -12176,7 +12230,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -12194,7 +12248,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
@@ -12212,7 +12266,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
@@ -12230,7 +12284,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
@@ -12248,7 +12302,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
@@ -12266,7 +12320,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>3</v>
       </c>
@@ -12284,7 +12338,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -12302,7 +12356,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
@@ -12320,7 +12374,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -12338,7 +12392,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -12356,7 +12410,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -12374,7 +12428,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
@@ -12392,7 +12446,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
@@ -12410,7 +12464,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
@@ -12428,7 +12482,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
@@ -12446,7 +12500,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
@@ -12464,7 +12518,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>3</v>
       </c>
@@ -12482,7 +12536,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>3</v>
       </c>
@@ -12500,7 +12554,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>3</v>
       </c>
@@ -12518,7 +12572,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>3</v>
       </c>
@@ -12534,7 +12588,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>108</v>
       </c>
@@ -12554,7 +12608,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -12574,7 +12628,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>108</v>
       </c>
@@ -12592,7 +12646,7 @@
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>108</v>
       </c>
@@ -12610,7 +12664,7 @@
       </c>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>108</v>
       </c>
@@ -12628,7 +12682,7 @@
       </c>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>108</v>
       </c>
@@ -12646,7 +12700,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -12664,7 +12718,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -12682,7 +12736,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -12700,7 +12754,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -12718,7 +12772,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>108</v>
       </c>
@@ -12736,7 +12790,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>108</v>
       </c>
@@ -12754,7 +12808,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>108</v>
       </c>
@@ -12772,7 +12826,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>108</v>
       </c>
@@ -12790,7 +12844,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>108</v>
       </c>
@@ -12808,7 +12862,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>108</v>
       </c>
@@ -12826,7 +12880,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>108</v>
       </c>
@@ -12844,7 +12898,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>108</v>
       </c>
@@ -12862,7 +12916,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
@@ -12880,7 +12934,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>108</v>
       </c>
@@ -12898,7 +12952,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>108</v>
       </c>
@@ -12916,7 +12970,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>108</v>
       </c>
@@ -12934,7 +12988,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>108</v>
       </c>
@@ -12952,7 +13006,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>108</v>
       </c>
@@ -12968,7 +13022,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>123</v>
       </c>
@@ -12988,7 +13042,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>123</v>
       </c>
@@ -13008,7 +13062,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
         <v>123</v>
       </c>
@@ -13026,7 +13080,7 @@
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
         <v>123</v>
       </c>
@@ -13044,7 +13098,7 @@
       </c>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>123</v>
       </c>
@@ -13062,7 +13116,7 @@
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>123</v>
       </c>
@@ -13080,7 +13134,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>123</v>
       </c>
@@ -13098,7 +13152,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>123</v>
       </c>
@@ -13116,7 +13170,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>123</v>
       </c>
@@ -13134,7 +13188,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>123</v>
       </c>
@@ -13152,7 +13206,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
         <v>123</v>
       </c>
@@ -13170,7 +13224,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>123</v>
       </c>
@@ -13188,7 +13242,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>123</v>
       </c>
@@ -13206,7 +13260,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>123</v>
       </c>
@@ -13224,7 +13278,7 @@
       </c>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>123</v>
       </c>
@@ -13242,7 +13296,7 @@
       </c>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>123</v>
       </c>
@@ -13260,7 +13314,7 @@
       </c>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>123</v>
       </c>
@@ -13294,29 +13348,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" customWidth="1"/>
-    <col min="9" max="10" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="15" width="24.81640625" customWidth="1"/>
-    <col min="16" max="16" width="59.1796875" customWidth="1"/>
-    <col min="17" max="17" width="51.26953125" style="26" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="15" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="59.140625" customWidth="1"/>
+    <col min="17" max="17" width="51.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>405</v>
       </c>
@@ -13369,7 +13423,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -13414,7 +13468,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -13457,7 +13511,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -13502,7 +13556,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -13545,7 +13599,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -13588,7 +13642,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -13631,7 +13685,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -13676,7 +13730,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -13719,7 +13773,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -13762,7 +13816,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -13805,7 +13859,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -13848,7 +13902,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -13893,7 +13947,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -13936,7 +13990,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -13979,7 +14033,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -14022,7 +14076,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -14065,7 +14119,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -14108,7 +14162,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -14151,7 +14205,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -14194,7 +14248,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -14237,7 +14291,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -14280,7 +14334,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -14323,7 +14377,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -14366,7 +14420,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -14409,7 +14463,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -14452,7 +14506,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -14495,7 +14549,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -14538,7 +14592,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -14581,7 +14635,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -14624,7 +14678,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -14667,7 +14721,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -14710,7 +14764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -14753,7 +14807,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -14796,7 +14850,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -14839,7 +14893,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -14882,7 +14936,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
@@ -14925,7 +14979,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -14968,7 +15022,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -15011,7 +15065,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -15054,7 +15108,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -15097,7 +15151,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -15140,7 +15194,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -15183,7 +15237,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -15226,7 +15280,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -15269,7 +15323,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -15312,7 +15366,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
@@ -15355,7 +15409,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
@@ -15398,7 +15452,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -15441,7 +15495,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
@@ -15484,7 +15538,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
@@ -15527,7 +15581,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -15570,7 +15624,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -15613,7 +15667,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
@@ -15656,7 +15710,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -15699,7 +15753,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -15742,7 +15796,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
@@ -15785,7 +15839,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -15828,7 +15882,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -15873,7 +15927,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -15920,7 +15974,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
@@ -15965,7 +16019,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
@@ -16012,7 +16066,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
@@ -16050,7 +16104,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="11" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>487</v>
@@ -16059,7 +16113,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
@@ -16095,7 +16149,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="11" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>488</v>
@@ -16104,7 +16158,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
@@ -16151,7 +16205,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
@@ -16198,7 +16252,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
@@ -16243,7 +16297,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -16288,7 +16342,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
@@ -16333,7 +16387,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
@@ -16378,7 +16432,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -16423,7 +16477,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
@@ -16466,7 +16520,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
@@ -16509,7 +16563,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
@@ -16554,7 +16608,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
@@ -16599,7 +16653,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -16644,7 +16698,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
@@ -16687,7 +16741,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>3</v>
       </c>
@@ -16732,7 +16786,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
@@ -16775,7 +16829,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
@@ -16816,7 +16870,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -16859,7 +16913,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
@@ -16902,7 +16956,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
@@ -16947,7 +17001,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -16990,7 +17044,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -17033,7 +17087,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
@@ -17076,7 +17130,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -17119,7 +17173,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
@@ -17162,7 +17216,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
@@ -17205,7 +17259,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
@@ -17248,7 +17302,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
@@ -17291,7 +17345,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>3</v>
       </c>
@@ -17334,7 +17388,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -17377,7 +17431,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
@@ -17420,7 +17474,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -17463,7 +17517,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -17506,7 +17560,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -17549,7 +17603,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
@@ -17592,7 +17646,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
@@ -17635,7 +17689,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
@@ -17678,7 +17732,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
@@ -17721,7 +17775,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
@@ -17759,7 +17813,7 @@
       </c>
       <c r="N102" s="7"/>
       <c r="O102" s="11" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>530</v>
@@ -17768,7 +17822,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>108</v>
       </c>
@@ -17813,7 +17867,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>108</v>
       </c>
@@ -17860,7 +17914,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -17897,7 +17951,7 @@
       <c r="L105" s="10"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="38" t="s">
         <v>536</v>
       </c>
       <c r="P105" s="3" t="s">
@@ -17907,7 +17961,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
@@ -17944,7 +17998,7 @@
       <c r="L106" s="10"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="38" t="s">
         <v>536</v>
       </c>
       <c r="P106" s="3" t="s">
@@ -17954,54 +18008,54 @@
         <v>563</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="13" t="s">
+    <row r="107" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C107" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="39">
         <v>0</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E107" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F107" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="G107" s="13">
+      <c r="F107" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="G107" s="39">
         <v>0</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="I107" s="27">
+      <c r="I107" s="40">
         <v>250916</v>
       </c>
-      <c r="J107" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K107" s="28">
+      <c r="J107" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107" s="41">
         <v>254</v>
       </c>
-      <c r="L107" s="28"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="29" t="s">
+      <c r="L107" s="41"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="P107" s="13" t="s">
+      <c r="P107" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="Q107" s="27" t="s">
+      <c r="Q107" s="40" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -18038,9 +18092,7 @@
       <c r="L108" s="10"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
-      <c r="O108" s="11" t="s">
-        <v>538</v>
-      </c>
+      <c r="O108" s="11"/>
       <c r="P108" s="3" t="s">
         <v>540</v>
       </c>
@@ -18048,7 +18100,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -18087,7 +18139,7 @@
         <v>541</v>
       </c>
       <c r="N109" s="3"/>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P109" s="3" t="s">
@@ -18097,7 +18149,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -18134,7 +18186,7 @@
       <c r="L110" s="10"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P110" s="3" t="s">
@@ -18144,7 +18196,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
@@ -18181,7 +18233,7 @@
       <c r="L111" s="10"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P111" s="3" t="s">
@@ -18191,7 +18243,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -18228,7 +18280,7 @@
       <c r="L112" s="10"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P112" s="3" t="s">
@@ -18238,7 +18290,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -18275,7 +18327,7 @@
       <c r="L113" s="10"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P113" s="3" t="s">
@@ -18285,7 +18337,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -18322,7 +18374,7 @@
       <c r="L114" s="10"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P114" s="3" t="s">
@@ -18332,7 +18384,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -18369,7 +18421,7 @@
       <c r="L115" s="10"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="38" t="s">
         <v>538</v>
       </c>
       <c r="P115" s="3" t="s">
@@ -18379,7 +18431,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -18422,7 +18474,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
@@ -18467,7 +18519,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>123</v>
       </c>
@@ -18512,7 +18564,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>123</v>
       </c>
@@ -18557,7 +18609,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>123</v>
       </c>
@@ -18602,7 +18654,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>123</v>
       </c>
@@ -18647,7 +18699,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>123</v>
       </c>
@@ -18692,7 +18744,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>123</v>
       </c>
@@ -18750,29 +18802,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4D1D3-D648-400C-A91B-25D8B9FDA7A7}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="B82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" customWidth="1"/>
-    <col min="8" max="9" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="17.7265625" customWidth="1"/>
-    <col min="13" max="14" width="24.81640625" customWidth="1"/>
-    <col min="15" max="15" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.26953125" style="26" customWidth="1"/>
+    <col min="11" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>405</v>
       </c>
@@ -18825,7 +18877,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -18870,7 +18922,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -18913,7 +18965,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -18958,7 +19010,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -19001,7 +19053,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -19044,7 +19096,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -19087,7 +19139,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -19132,7 +19184,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -19175,7 +19227,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -19218,7 +19270,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -19261,7 +19313,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -19304,7 +19356,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -19349,7 +19401,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -19392,7 +19444,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -19435,7 +19487,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -19478,7 +19530,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -19521,7 +19573,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -19564,7 +19616,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -19607,7 +19659,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -19650,7 +19702,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -19693,7 +19745,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -19736,7 +19788,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -19779,7 +19831,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -19822,7 +19874,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -19865,7 +19917,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -19908,7 +19960,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -19951,7 +20003,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -19994,7 +20046,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -20037,7 +20089,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -20080,7 +20132,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -20123,7 +20175,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -20166,7 +20218,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -20209,7 +20261,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -20252,7 +20304,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -20295,7 +20347,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -20338,7 +20390,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
@@ -20381,7 +20433,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -20424,7 +20476,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -20467,7 +20519,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -20510,7 +20562,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -20553,7 +20605,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -20596,7 +20648,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -20639,7 +20691,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -20682,7 +20734,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -20725,7 +20777,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -20768,7 +20820,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
@@ -20811,7 +20863,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
@@ -20854,7 +20906,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -20897,7 +20949,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
@@ -20940,7 +20992,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
@@ -20983,7 +21035,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -21026,7 +21078,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -21069,7 +21121,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
@@ -21112,7 +21164,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -21155,7 +21207,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
@@ -21198,7 +21250,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
@@ -21241,7 +21293,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -21284,7 +21336,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -21329,7 +21381,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -21376,7 +21428,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>3</v>
       </c>
@@ -21421,7 +21473,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
@@ -21468,7 +21520,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
@@ -21515,7 +21567,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
@@ -21560,7 +21612,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
@@ -21607,7 +21659,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
@@ -21654,7 +21706,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>3</v>
       </c>
@@ -21699,7 +21751,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -21744,7 +21796,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>3</v>
       </c>
@@ -21789,7 +21841,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
@@ -21834,7 +21886,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -21879,7 +21931,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
@@ -21922,7 +21974,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>3</v>
       </c>
@@ -21965,7 +22017,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
@@ -22010,7 +22062,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
@@ -22055,7 +22107,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -22100,7 +22152,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>3</v>
       </c>
@@ -22143,7 +22195,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>3</v>
       </c>
@@ -22188,7 +22240,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
@@ -22231,7 +22283,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>3</v>
       </c>
@@ -22272,7 +22324,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>3</v>
       </c>
@@ -22315,7 +22367,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
@@ -22358,7 +22410,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
@@ -22403,7 +22455,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -22446,7 +22498,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>3</v>
       </c>
@@ -22489,7 +22541,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
@@ -22532,7 +22584,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -22575,7 +22627,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>3</v>
       </c>
@@ -22618,7 +22670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
@@ -22661,7 +22713,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
@@ -22704,7 +22756,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
@@ -22747,7 +22799,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>3</v>
       </c>
@@ -22790,7 +22842,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -22833,7 +22885,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>3</v>
       </c>
@@ -22876,7 +22928,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -22919,7 +22971,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -22962,7 +23014,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -23005,7 +23057,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
@@ -23048,7 +23100,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
@@ -23091,7 +23143,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
@@ -23134,7 +23186,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
@@ -23177,7 +23229,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
@@ -23224,7 +23276,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>108</v>
       </c>
@@ -23269,7 +23321,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>108</v>
       </c>
@@ -23316,7 +23368,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -23363,7 +23415,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
@@ -23410,7 +23462,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -23457,7 +23509,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -23504,7 +23556,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -23553,7 +23605,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -23600,7 +23652,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
@@ -23647,7 +23699,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
@@ -23694,7 +23746,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
@@ -23741,7 +23793,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -23788,7 +23840,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -23835,7 +23887,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -23878,7 +23930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
@@ -23923,7 +23975,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>123</v>
       </c>
@@ -23968,7 +24020,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>123</v>
       </c>
@@ -24013,7 +24065,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>123</v>
       </c>
@@ -24058,7 +24110,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>123</v>
       </c>
@@ -24103,7 +24155,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>123</v>
       </c>
@@ -24148,7 +24200,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>123</v>
       </c>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E7608-544C-4725-8C45-41DA1EC46567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3D220-1941-4CB3-8044-D82D6C814C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="2" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -1999,7 +1999,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,6 +2212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2440,7 +2446,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2536,6 +2542,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2729,9 +2736,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2769,9 +2776,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2804,9 +2811,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2839,9 +2863,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3021,16 +3062,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3058,7 +3099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
@@ -3072,7 +3113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3100,593 +3141,593 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="2" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="2"/>
-    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="247" width="11.453125" style="2"/>
+    <col min="11" max="11" width="29.21875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.44140625" style="2"/>
+    <col min="15" max="15" width="15.77734375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="11.44140625" style="2"/>
     <col min="248" max="248" width="33" style="2" customWidth="1"/>
     <col min="249" max="249" width="25" style="2" customWidth="1"/>
-    <col min="250" max="250" width="25.7265625" style="2" customWidth="1"/>
-    <col min="251" max="251" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.453125" style="2" customWidth="1"/>
-    <col min="253" max="253" width="18.453125" style="2" customWidth="1"/>
+    <col min="250" max="250" width="25.77734375" style="2" customWidth="1"/>
+    <col min="251" max="251" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.44140625" style="2" customWidth="1"/>
+    <col min="253" max="253" width="18.44140625" style="2" customWidth="1"/>
     <col min="254" max="254" width="20" style="2" customWidth="1"/>
-    <col min="255" max="255" width="36.54296875" style="2" customWidth="1"/>
-    <col min="256" max="503" width="11.453125" style="2"/>
+    <col min="255" max="255" width="36.5546875" style="2" customWidth="1"/>
+    <col min="256" max="503" width="11.44140625" style="2"/>
     <col min="504" max="504" width="33" style="2" customWidth="1"/>
     <col min="505" max="505" width="25" style="2" customWidth="1"/>
-    <col min="506" max="506" width="25.7265625" style="2" customWidth="1"/>
-    <col min="507" max="507" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="22.453125" style="2" customWidth="1"/>
-    <col min="509" max="509" width="18.453125" style="2" customWidth="1"/>
+    <col min="506" max="506" width="25.77734375" style="2" customWidth="1"/>
+    <col min="507" max="507" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="22.44140625" style="2" customWidth="1"/>
+    <col min="509" max="509" width="18.44140625" style="2" customWidth="1"/>
     <col min="510" max="510" width="20" style="2" customWidth="1"/>
-    <col min="511" max="511" width="36.54296875" style="2" customWidth="1"/>
-    <col min="512" max="759" width="11.453125" style="2"/>
+    <col min="511" max="511" width="36.5546875" style="2" customWidth="1"/>
+    <col min="512" max="759" width="11.44140625" style="2"/>
     <col min="760" max="760" width="33" style="2" customWidth="1"/>
     <col min="761" max="761" width="25" style="2" customWidth="1"/>
-    <col min="762" max="762" width="25.7265625" style="2" customWidth="1"/>
-    <col min="763" max="763" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="22.453125" style="2" customWidth="1"/>
-    <col min="765" max="765" width="18.453125" style="2" customWidth="1"/>
+    <col min="762" max="762" width="25.77734375" style="2" customWidth="1"/>
+    <col min="763" max="763" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="22.44140625" style="2" customWidth="1"/>
+    <col min="765" max="765" width="18.44140625" style="2" customWidth="1"/>
     <col min="766" max="766" width="20" style="2" customWidth="1"/>
-    <col min="767" max="767" width="36.54296875" style="2" customWidth="1"/>
-    <col min="768" max="1015" width="11.453125" style="2"/>
+    <col min="767" max="767" width="36.5546875" style="2" customWidth="1"/>
+    <col min="768" max="1015" width="11.44140625" style="2"/>
     <col min="1016" max="1016" width="33" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="25" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1019" max="1019" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="22.453125" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="18.453125" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1019" max="1019" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1020" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="18.44140625" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="20" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1024" max="1271" width="11.453125" style="2"/>
+    <col min="1023" max="1023" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1024" max="1271" width="11.44140625" style="2"/>
     <col min="1272" max="1272" width="33" style="2" customWidth="1"/>
     <col min="1273" max="1273" width="25" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1275" max="1275" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1276" max="1276" width="22.453125" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="18.453125" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1275" max="1275" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1276" max="1276" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="18.44140625" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="20" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1280" max="1527" width="11.453125" style="2"/>
+    <col min="1279" max="1279" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1280" max="1527" width="11.44140625" style="2"/>
     <col min="1528" max="1528" width="33" style="2" customWidth="1"/>
     <col min="1529" max="1529" width="25" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1531" max="1531" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1532" max="1532" width="22.453125" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="18.453125" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1531" max="1531" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1532" max="1532" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="18.44140625" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="20" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1536" max="1783" width="11.453125" style="2"/>
+    <col min="1535" max="1535" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1536" max="1783" width="11.44140625" style="2"/>
     <col min="1784" max="1784" width="33" style="2" customWidth="1"/>
     <col min="1785" max="1785" width="25" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="25.7265625" style="2" customWidth="1"/>
-    <col min="1787" max="1787" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1788" max="1788" width="22.453125" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="18.453125" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1787" max="1787" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1788" max="1788" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="18.44140625" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="20" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1792" max="2039" width="11.453125" style="2"/>
+    <col min="1791" max="1791" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1792" max="2039" width="11.44140625" style="2"/>
     <col min="2040" max="2040" width="33" style="2" customWidth="1"/>
     <col min="2041" max="2041" width="25" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2043" max="2043" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2044" max="2044" width="22.453125" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="18.453125" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2043" max="2043" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2044" max="2044" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="18.44140625" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="20" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2048" max="2295" width="11.453125" style="2"/>
+    <col min="2047" max="2047" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2048" max="2295" width="11.44140625" style="2"/>
     <col min="2296" max="2296" width="33" style="2" customWidth="1"/>
     <col min="2297" max="2297" width="25" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2299" max="2299" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2300" max="2300" width="22.453125" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="18.453125" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2299" max="2299" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2300" max="2300" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="18.44140625" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="20" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2304" max="2551" width="11.453125" style="2"/>
+    <col min="2303" max="2303" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2304" max="2551" width="11.44140625" style="2"/>
     <col min="2552" max="2552" width="33" style="2" customWidth="1"/>
     <col min="2553" max="2553" width="25" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2555" max="2555" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2556" max="2556" width="22.453125" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="18.453125" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2555" max="2555" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2556" max="2556" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="18.44140625" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="20" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2560" max="2807" width="11.453125" style="2"/>
+    <col min="2559" max="2559" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2560" max="2807" width="11.44140625" style="2"/>
     <col min="2808" max="2808" width="33" style="2" customWidth="1"/>
     <col min="2809" max="2809" width="25" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="25.7265625" style="2" customWidth="1"/>
-    <col min="2811" max="2811" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2812" max="2812" width="22.453125" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="18.453125" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2811" max="2811" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2812" max="2812" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="18.44140625" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="20" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2816" max="3063" width="11.453125" style="2"/>
+    <col min="2815" max="2815" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2816" max="3063" width="11.44140625" style="2"/>
     <col min="3064" max="3064" width="33" style="2" customWidth="1"/>
     <col min="3065" max="3065" width="25" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3067" max="3067" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3068" max="3068" width="22.453125" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="18.453125" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3067" max="3067" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3068" max="3068" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="18.44140625" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="20" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3072" max="3319" width="11.453125" style="2"/>
+    <col min="3071" max="3071" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3072" max="3319" width="11.44140625" style="2"/>
     <col min="3320" max="3320" width="33" style="2" customWidth="1"/>
     <col min="3321" max="3321" width="25" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3323" max="3323" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3324" max="3324" width="22.453125" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="18.453125" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3323" max="3323" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3324" max="3324" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="18.44140625" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="20" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3328" max="3575" width="11.453125" style="2"/>
+    <col min="3327" max="3327" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3328" max="3575" width="11.44140625" style="2"/>
     <col min="3576" max="3576" width="33" style="2" customWidth="1"/>
     <col min="3577" max="3577" width="25" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3579" max="3579" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3580" max="3580" width="22.453125" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="18.453125" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3579" max="3579" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3580" max="3580" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="18.44140625" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="20" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3584" max="3831" width="11.453125" style="2"/>
+    <col min="3583" max="3583" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3584" max="3831" width="11.44140625" style="2"/>
     <col min="3832" max="3832" width="33" style="2" customWidth="1"/>
     <col min="3833" max="3833" width="25" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="25.7265625" style="2" customWidth="1"/>
-    <col min="3835" max="3835" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3836" max="3836" width="22.453125" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="18.453125" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3835" max="3835" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3836" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="18.44140625" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="20" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3840" max="4087" width="11.453125" style="2"/>
+    <col min="3839" max="3839" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3840" max="4087" width="11.44140625" style="2"/>
     <col min="4088" max="4088" width="33" style="2" customWidth="1"/>
     <col min="4089" max="4089" width="25" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4091" max="4091" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4092" max="4092" width="22.453125" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="18.453125" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4091" max="4091" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4092" max="4092" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="18.44140625" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="20" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4096" max="4343" width="11.453125" style="2"/>
+    <col min="4095" max="4095" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4096" max="4343" width="11.44140625" style="2"/>
     <col min="4344" max="4344" width="33" style="2" customWidth="1"/>
     <col min="4345" max="4345" width="25" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4347" max="4347" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4348" max="4348" width="22.453125" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="18.453125" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4347" max="4347" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4348" max="4348" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="18.44140625" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="20" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4352" max="4599" width="11.453125" style="2"/>
+    <col min="4351" max="4351" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4352" max="4599" width="11.44140625" style="2"/>
     <col min="4600" max="4600" width="33" style="2" customWidth="1"/>
     <col min="4601" max="4601" width="25" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4603" max="4603" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4604" max="4604" width="22.453125" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="18.453125" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4603" max="4603" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4604" max="4604" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="18.44140625" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="20" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4608" max="4855" width="11.453125" style="2"/>
+    <col min="4607" max="4607" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4608" max="4855" width="11.44140625" style="2"/>
     <col min="4856" max="4856" width="33" style="2" customWidth="1"/>
     <col min="4857" max="4857" width="25" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="25.7265625" style="2" customWidth="1"/>
-    <col min="4859" max="4859" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4860" max="4860" width="22.453125" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="18.453125" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4859" max="4859" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4860" max="4860" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="18.44140625" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="20" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4864" max="5111" width="11.453125" style="2"/>
+    <col min="4863" max="4863" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4864" max="5111" width="11.44140625" style="2"/>
     <col min="5112" max="5112" width="33" style="2" customWidth="1"/>
     <col min="5113" max="5113" width="25" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5115" max="5115" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5116" max="5116" width="22.453125" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="18.453125" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5115" max="5115" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5116" max="5116" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="18.44140625" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="20" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5120" max="5367" width="11.453125" style="2"/>
+    <col min="5119" max="5119" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5120" max="5367" width="11.44140625" style="2"/>
     <col min="5368" max="5368" width="33" style="2" customWidth="1"/>
     <col min="5369" max="5369" width="25" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5371" max="5371" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5372" max="5372" width="22.453125" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="18.453125" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5371" max="5371" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5372" max="5372" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="18.44140625" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="20" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5376" max="5623" width="11.453125" style="2"/>
+    <col min="5375" max="5375" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5376" max="5623" width="11.44140625" style="2"/>
     <col min="5624" max="5624" width="33" style="2" customWidth="1"/>
     <col min="5625" max="5625" width="25" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5627" max="5627" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5628" max="5628" width="22.453125" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="18.453125" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5627" max="5627" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5628" max="5628" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="18.44140625" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="20" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5632" max="5879" width="11.453125" style="2"/>
+    <col min="5631" max="5631" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5632" max="5879" width="11.44140625" style="2"/>
     <col min="5880" max="5880" width="33" style="2" customWidth="1"/>
     <col min="5881" max="5881" width="25" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="25.7265625" style="2" customWidth="1"/>
-    <col min="5883" max="5883" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5884" max="5884" width="22.453125" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="18.453125" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5883" max="5883" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5884" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="18.44140625" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="20" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5888" max="6135" width="11.453125" style="2"/>
+    <col min="5887" max="5887" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5888" max="6135" width="11.44140625" style="2"/>
     <col min="6136" max="6136" width="33" style="2" customWidth="1"/>
     <col min="6137" max="6137" width="25" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6139" max="6139" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6140" max="6140" width="22.453125" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="18.453125" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6139" max="6139" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6140" max="6140" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="18.44140625" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="20" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6144" max="6391" width="11.453125" style="2"/>
+    <col min="6143" max="6143" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6144" max="6391" width="11.44140625" style="2"/>
     <col min="6392" max="6392" width="33" style="2" customWidth="1"/>
     <col min="6393" max="6393" width="25" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6395" max="6395" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6396" max="6396" width="22.453125" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="18.453125" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6395" max="6395" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6396" max="6396" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="18.44140625" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="20" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6400" max="6647" width="11.453125" style="2"/>
+    <col min="6399" max="6399" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6400" max="6647" width="11.44140625" style="2"/>
     <col min="6648" max="6648" width="33" style="2" customWidth="1"/>
     <col min="6649" max="6649" width="25" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6651" max="6651" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6652" max="6652" width="22.453125" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="18.453125" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6651" max="6651" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6652" max="6652" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="18.44140625" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="20" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6656" max="6903" width="11.453125" style="2"/>
+    <col min="6655" max="6655" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6656" max="6903" width="11.44140625" style="2"/>
     <col min="6904" max="6904" width="33" style="2" customWidth="1"/>
     <col min="6905" max="6905" width="25" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="25.7265625" style="2" customWidth="1"/>
-    <col min="6907" max="6907" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6908" max="6908" width="22.453125" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="18.453125" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6907" max="6907" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6908" max="6908" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="18.44140625" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="20" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6912" max="7159" width="11.453125" style="2"/>
+    <col min="6911" max="6911" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6912" max="7159" width="11.44140625" style="2"/>
     <col min="7160" max="7160" width="33" style="2" customWidth="1"/>
     <col min="7161" max="7161" width="25" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7163" max="7163" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7164" max="7164" width="22.453125" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="18.453125" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7163" max="7163" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7164" max="7164" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="18.44140625" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="20" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7168" max="7415" width="11.453125" style="2"/>
+    <col min="7167" max="7167" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7168" max="7415" width="11.44140625" style="2"/>
     <col min="7416" max="7416" width="33" style="2" customWidth="1"/>
     <col min="7417" max="7417" width="25" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7419" max="7419" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7420" max="7420" width="22.453125" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="18.453125" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7419" max="7419" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7420" max="7420" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="18.44140625" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="20" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7424" max="7671" width="11.453125" style="2"/>
+    <col min="7423" max="7423" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7424" max="7671" width="11.44140625" style="2"/>
     <col min="7672" max="7672" width="33" style="2" customWidth="1"/>
     <col min="7673" max="7673" width="25" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7675" max="7675" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7676" max="7676" width="22.453125" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="18.453125" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7675" max="7675" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7676" max="7676" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="18.44140625" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="20" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7680" max="7927" width="11.453125" style="2"/>
+    <col min="7679" max="7679" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7680" max="7927" width="11.44140625" style="2"/>
     <col min="7928" max="7928" width="33" style="2" customWidth="1"/>
     <col min="7929" max="7929" width="25" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="25.7265625" style="2" customWidth="1"/>
-    <col min="7931" max="7931" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7932" max="7932" width="22.453125" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="18.453125" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7931" max="7931" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7932" max="7932" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="18.44140625" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="20" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7936" max="8183" width="11.453125" style="2"/>
+    <col min="7935" max="7935" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7936" max="8183" width="11.44140625" style="2"/>
     <col min="8184" max="8184" width="33" style="2" customWidth="1"/>
     <col min="8185" max="8185" width="25" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8187" max="8187" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8188" max="8188" width="22.453125" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="18.453125" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8187" max="8187" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8188" max="8188" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="18.44140625" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="20" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8192" max="8439" width="11.453125" style="2"/>
+    <col min="8191" max="8191" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8192" max="8439" width="11.44140625" style="2"/>
     <col min="8440" max="8440" width="33" style="2" customWidth="1"/>
     <col min="8441" max="8441" width="25" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8443" max="8443" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8444" max="8444" width="22.453125" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="18.453125" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8443" max="8443" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8444" max="8444" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="18.44140625" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="20" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8448" max="8695" width="11.453125" style="2"/>
+    <col min="8447" max="8447" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8448" max="8695" width="11.44140625" style="2"/>
     <col min="8696" max="8696" width="33" style="2" customWidth="1"/>
     <col min="8697" max="8697" width="25" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8699" max="8699" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8700" max="8700" width="22.453125" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="18.453125" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8699" max="8699" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8700" max="8700" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="18.44140625" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="20" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8704" max="8951" width="11.453125" style="2"/>
+    <col min="8703" max="8703" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8704" max="8951" width="11.44140625" style="2"/>
     <col min="8952" max="8952" width="33" style="2" customWidth="1"/>
     <col min="8953" max="8953" width="25" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="25.7265625" style="2" customWidth="1"/>
-    <col min="8955" max="8955" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8956" max="8956" width="22.453125" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="18.453125" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8955" max="8955" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8956" max="8956" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="18.44140625" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="20" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8960" max="9207" width="11.453125" style="2"/>
+    <col min="8959" max="8959" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8960" max="9207" width="11.44140625" style="2"/>
     <col min="9208" max="9208" width="33" style="2" customWidth="1"/>
     <col min="9209" max="9209" width="25" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9211" max="9211" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9212" max="9212" width="22.453125" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="18.453125" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9211" max="9211" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9212" max="9212" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="18.44140625" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="20" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9216" max="9463" width="11.453125" style="2"/>
+    <col min="9215" max="9215" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9216" max="9463" width="11.44140625" style="2"/>
     <col min="9464" max="9464" width="33" style="2" customWidth="1"/>
     <col min="9465" max="9465" width="25" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9467" max="9467" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9468" max="9468" width="22.453125" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="18.453125" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9467" max="9467" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9468" max="9468" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="18.44140625" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="20" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9472" max="9719" width="11.453125" style="2"/>
+    <col min="9471" max="9471" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9472" max="9719" width="11.44140625" style="2"/>
     <col min="9720" max="9720" width="33" style="2" customWidth="1"/>
     <col min="9721" max="9721" width="25" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9723" max="9723" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9724" max="9724" width="22.453125" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="18.453125" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9723" max="9723" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9724" max="9724" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="18.44140625" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="20" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9728" max="9975" width="11.453125" style="2"/>
+    <col min="9727" max="9727" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9728" max="9975" width="11.44140625" style="2"/>
     <col min="9976" max="9976" width="33" style="2" customWidth="1"/>
     <col min="9977" max="9977" width="25" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="25.7265625" style="2" customWidth="1"/>
-    <col min="9979" max="9979" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9980" max="9980" width="22.453125" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="18.453125" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9979" max="9979" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9980" max="9980" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="18.44140625" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="20" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9984" max="10231" width="11.453125" style="2"/>
+    <col min="9983" max="9983" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9984" max="10231" width="11.44140625" style="2"/>
     <col min="10232" max="10232" width="33" style="2" customWidth="1"/>
     <col min="10233" max="10233" width="25" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10235" max="10235" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10236" max="10236" width="22.453125" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="18.453125" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10235" max="10235" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10236" max="10236" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="18.44140625" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="20" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10240" max="10487" width="11.453125" style="2"/>
+    <col min="10239" max="10239" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10240" max="10487" width="11.44140625" style="2"/>
     <col min="10488" max="10488" width="33" style="2" customWidth="1"/>
     <col min="10489" max="10489" width="25" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10491" max="10491" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10492" max="10492" width="22.453125" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="18.453125" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10491" max="10491" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10492" max="10492" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="18.44140625" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="20" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10496" max="10743" width="11.453125" style="2"/>
+    <col min="10495" max="10495" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10496" max="10743" width="11.44140625" style="2"/>
     <col min="10744" max="10744" width="33" style="2" customWidth="1"/>
     <col min="10745" max="10745" width="25" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="25.7265625" style="2" customWidth="1"/>
-    <col min="10747" max="10747" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10748" max="10748" width="22.453125" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="18.453125" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10747" max="10747" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10748" max="10748" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="18.44140625" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="20" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10752" max="10999" width="11.453125" style="2"/>
+    <col min="10751" max="10751" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10752" max="10999" width="11.44140625" style="2"/>
     <col min="11000" max="11000" width="33" style="2" customWidth="1"/>
     <col min="11001" max="11001" width="25" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11003" max="11003" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11004" max="11004" width="22.453125" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="18.453125" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11003" max="11003" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11004" max="11004" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="18.44140625" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="20" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11008" max="11255" width="11.453125" style="2"/>
+    <col min="11007" max="11007" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11008" max="11255" width="11.44140625" style="2"/>
     <col min="11256" max="11256" width="33" style="2" customWidth="1"/>
     <col min="11257" max="11257" width="25" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11259" max="11259" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11260" max="11260" width="22.453125" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="18.453125" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11259" max="11259" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11260" max="11260" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="18.44140625" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="20" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11264" max="11511" width="11.453125" style="2"/>
+    <col min="11263" max="11263" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11264" max="11511" width="11.44140625" style="2"/>
     <col min="11512" max="11512" width="33" style="2" customWidth="1"/>
     <col min="11513" max="11513" width="25" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11515" max="11515" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11516" max="11516" width="22.453125" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="18.453125" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11515" max="11515" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11516" max="11516" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="18.44140625" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="20" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11520" max="11767" width="11.453125" style="2"/>
+    <col min="11519" max="11519" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11520" max="11767" width="11.44140625" style="2"/>
     <col min="11768" max="11768" width="33" style="2" customWidth="1"/>
     <col min="11769" max="11769" width="25" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="25.7265625" style="2" customWidth="1"/>
-    <col min="11771" max="11771" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11772" max="11772" width="22.453125" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="18.453125" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11771" max="11771" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11772" max="11772" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="18.44140625" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="20" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11776" max="12023" width="11.453125" style="2"/>
+    <col min="11775" max="11775" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11776" max="12023" width="11.44140625" style="2"/>
     <col min="12024" max="12024" width="33" style="2" customWidth="1"/>
     <col min="12025" max="12025" width="25" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12027" max="12027" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12028" max="12028" width="22.453125" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="18.453125" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12027" max="12027" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12028" max="12028" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="18.44140625" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="20" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12032" max="12279" width="11.453125" style="2"/>
+    <col min="12031" max="12031" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12032" max="12279" width="11.44140625" style="2"/>
     <col min="12280" max="12280" width="33" style="2" customWidth="1"/>
     <col min="12281" max="12281" width="25" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12283" max="12283" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12284" max="12284" width="22.453125" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="18.453125" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12283" max="12283" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12284" max="12284" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="18.44140625" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="20" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12288" max="12535" width="11.453125" style="2"/>
+    <col min="12287" max="12287" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12288" max="12535" width="11.44140625" style="2"/>
     <col min="12536" max="12536" width="33" style="2" customWidth="1"/>
     <col min="12537" max="12537" width="25" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12539" max="12539" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12540" max="12540" width="22.453125" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="18.453125" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12539" max="12539" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12540" max="12540" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="18.44140625" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="20" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12544" max="12791" width="11.453125" style="2"/>
+    <col min="12543" max="12543" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12544" max="12791" width="11.44140625" style="2"/>
     <col min="12792" max="12792" width="33" style="2" customWidth="1"/>
     <col min="12793" max="12793" width="25" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="25.7265625" style="2" customWidth="1"/>
-    <col min="12795" max="12795" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12796" max="12796" width="22.453125" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="18.453125" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12795" max="12795" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12796" max="12796" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="18.44140625" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="20" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12800" max="13047" width="11.453125" style="2"/>
+    <col min="12799" max="12799" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12800" max="13047" width="11.44140625" style="2"/>
     <col min="13048" max="13048" width="33" style="2" customWidth="1"/>
     <col min="13049" max="13049" width="25" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13051" max="13051" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13052" max="13052" width="22.453125" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="18.453125" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13051" max="13051" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13052" max="13052" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="18.44140625" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="20" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13056" max="13303" width="11.453125" style="2"/>
+    <col min="13055" max="13055" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13056" max="13303" width="11.44140625" style="2"/>
     <col min="13304" max="13304" width="33" style="2" customWidth="1"/>
     <col min="13305" max="13305" width="25" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13307" max="13307" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13308" max="13308" width="22.453125" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="18.453125" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13307" max="13307" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13308" max="13308" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="18.44140625" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="20" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13312" max="13559" width="11.453125" style="2"/>
+    <col min="13311" max="13311" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13312" max="13559" width="11.44140625" style="2"/>
     <col min="13560" max="13560" width="33" style="2" customWidth="1"/>
     <col min="13561" max="13561" width="25" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13563" max="13563" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13564" max="13564" width="22.453125" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="18.453125" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13563" max="13563" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13564" max="13564" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="18.44140625" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="20" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13568" max="13815" width="11.453125" style="2"/>
+    <col min="13567" max="13567" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13568" max="13815" width="11.44140625" style="2"/>
     <col min="13816" max="13816" width="33" style="2" customWidth="1"/>
     <col min="13817" max="13817" width="25" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="25.7265625" style="2" customWidth="1"/>
-    <col min="13819" max="13819" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13820" max="13820" width="22.453125" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="18.453125" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13819" max="13819" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13820" max="13820" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="18.44140625" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="20" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13824" max="14071" width="11.453125" style="2"/>
+    <col min="13823" max="13823" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13824" max="14071" width="11.44140625" style="2"/>
     <col min="14072" max="14072" width="33" style="2" customWidth="1"/>
     <col min="14073" max="14073" width="25" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14075" max="14075" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14076" max="14076" width="22.453125" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="18.453125" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14075" max="14075" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14076" max="14076" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="18.44140625" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="20" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14080" max="14327" width="11.453125" style="2"/>
+    <col min="14079" max="14079" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14080" max="14327" width="11.44140625" style="2"/>
     <col min="14328" max="14328" width="33" style="2" customWidth="1"/>
     <col min="14329" max="14329" width="25" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14331" max="14331" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14332" max="14332" width="22.453125" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="18.453125" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14331" max="14331" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14332" max="14332" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="18.44140625" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="20" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14336" max="14583" width="11.453125" style="2"/>
+    <col min="14335" max="14335" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14336" max="14583" width="11.44140625" style="2"/>
     <col min="14584" max="14584" width="33" style="2" customWidth="1"/>
     <col min="14585" max="14585" width="25" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14587" max="14587" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14588" max="14588" width="22.453125" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="18.453125" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14587" max="14587" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14588" max="14588" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="18.44140625" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="20" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14592" max="14839" width="11.453125" style="2"/>
+    <col min="14591" max="14591" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14592" max="14839" width="11.44140625" style="2"/>
     <col min="14840" max="14840" width="33" style="2" customWidth="1"/>
     <col min="14841" max="14841" width="25" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="25.7265625" style="2" customWidth="1"/>
-    <col min="14843" max="14843" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14844" max="14844" width="22.453125" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="18.453125" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14843" max="14843" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14844" max="14844" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="18.44140625" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="20" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14848" max="15095" width="11.453125" style="2"/>
+    <col min="14847" max="14847" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14848" max="15095" width="11.44140625" style="2"/>
     <col min="15096" max="15096" width="33" style="2" customWidth="1"/>
     <col min="15097" max="15097" width="25" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15099" max="15099" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15100" max="15100" width="22.453125" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="18.453125" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15099" max="15099" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15100" max="15100" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="18.44140625" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="20" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15104" max="15351" width="11.453125" style="2"/>
+    <col min="15103" max="15103" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15104" max="15351" width="11.44140625" style="2"/>
     <col min="15352" max="15352" width="33" style="2" customWidth="1"/>
     <col min="15353" max="15353" width="25" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15355" max="15355" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15356" max="15356" width="22.453125" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="18.453125" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15355" max="15355" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15356" max="15356" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="18.44140625" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="20" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15360" max="15607" width="11.453125" style="2"/>
+    <col min="15359" max="15359" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15360" max="15607" width="11.44140625" style="2"/>
     <col min="15608" max="15608" width="33" style="2" customWidth="1"/>
     <col min="15609" max="15609" width="25" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15611" max="15611" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15612" max="15612" width="22.453125" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="18.453125" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15611" max="15611" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15612" max="15612" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="18.44140625" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="20" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15616" max="15863" width="11.453125" style="2"/>
+    <col min="15615" max="15615" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15616" max="15863" width="11.44140625" style="2"/>
     <col min="15864" max="15864" width="33" style="2" customWidth="1"/>
     <col min="15865" max="15865" width="25" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="25.7265625" style="2" customWidth="1"/>
-    <col min="15867" max="15867" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15868" max="15868" width="22.453125" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="18.453125" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15867" max="15867" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15868" max="15868" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="18.44140625" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="20" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15872" max="16119" width="11.453125" style="2"/>
+    <col min="15871" max="15871" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15872" max="16119" width="11.44140625" style="2"/>
     <col min="16120" max="16120" width="33" style="2" customWidth="1"/>
     <col min="16121" max="16121" width="25" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="25.7265625" style="2" customWidth="1"/>
-    <col min="16123" max="16123" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16124" max="16124" width="22.453125" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="18.453125" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="25.77734375" style="2" customWidth="1"/>
+    <col min="16123" max="16123" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16124" max="16124" width="22.44140625" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="18.44140625" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="20" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="36.54296875" style="2" customWidth="1"/>
-    <col min="16128" max="16384" width="11.453125" style="2"/>
+    <col min="16127" max="16127" width="36.5546875" style="2" customWidth="1"/>
+    <col min="16128" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3721,7 +3762,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3754,7 +3795,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3787,7 +3828,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -3820,7 +3861,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -3853,7 +3894,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
@@ -3886,7 +3927,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
@@ -3919,7 +3960,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -3952,7 +3993,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
@@ -3985,7 +4026,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -4018,7 +4059,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -4051,7 +4092,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -4084,7 +4125,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -4117,7 +4158,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -4150,7 +4191,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4183,7 +4224,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -4216,7 +4257,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -4249,7 +4290,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -4282,7 +4323,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -4315,7 +4356,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -4348,7 +4389,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -4381,7 +4422,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -4414,7 +4455,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -4447,7 +4488,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -4480,7 +4521,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -4513,7 +4554,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -4546,7 +4587,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -4579,7 +4620,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>171</v>
       </c>
@@ -4612,7 +4653,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -4645,7 +4686,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -4678,7 +4719,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
@@ -4711,7 +4752,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -4744,7 +4785,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>171</v>
       </c>
@@ -4777,7 +4818,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -4810,7 +4851,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -4843,7 +4884,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
@@ -4876,7 +4917,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -4909,7 +4950,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -4942,7 +4983,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -4975,7 +5016,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>171</v>
       </c>
@@ -5008,7 +5049,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
@@ -5041,7 +5082,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -5074,7 +5115,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>171</v>
       </c>
@@ -5107,7 +5148,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -5140,7 +5181,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -5173,7 +5214,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>171</v>
       </c>
@@ -5206,7 +5247,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -5239,7 +5280,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -5272,7 +5313,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
@@ -5305,7 +5346,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>171</v>
       </c>
@@ -5338,7 +5379,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5371,7 +5412,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>171</v>
       </c>
@@ -5404,7 +5445,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -5437,7 +5478,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -5470,7 +5511,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
@@ -5503,7 +5544,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5536,7 +5577,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
@@ -5569,7 +5610,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -5602,7 +5643,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -5635,7 +5676,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>171</v>
       </c>
@@ -5668,7 +5709,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -5701,7 +5742,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
@@ -5734,7 +5775,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>171</v>
       </c>
@@ -5767,7 +5808,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -5800,7 +5841,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>171</v>
       </c>
@@ -5833,7 +5874,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>171</v>
       </c>
@@ -5866,7 +5907,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -5899,7 +5940,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
@@ -5932,7 +5973,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
@@ -5965,7 +6006,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -5998,7 +6039,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>171</v>
       </c>
@@ -6031,7 +6072,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -6064,7 +6105,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -6097,7 +6138,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
@@ -6130,7 +6171,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -6163,7 +6204,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
@@ -6196,7 +6237,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6229,7 +6270,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -6262,7 +6303,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>171</v>
       </c>
@@ -6295,7 +6336,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -6328,7 +6369,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -6361,7 +6402,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
@@ -6394,7 +6435,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -6427,7 +6468,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -6460,7 +6501,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -6495,7 +6536,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -6526,7 +6567,7 @@
       <c r="J86" s="37"/>
       <c r="K86" s="34"/>
     </row>
-    <row r="87" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -6557,7 +6598,7 @@
       <c r="J87" s="37"/>
       <c r="K87" s="34"/>
     </row>
-    <row r="88" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
@@ -6588,7 +6629,7 @@
       <c r="J88" s="37"/>
       <c r="K88" s="34"/>
     </row>
-    <row r="89" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -6619,7 +6660,7 @@
       <c r="J89" s="37"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -6650,7 +6691,7 @@
       <c r="J90" s="37"/>
       <c r="K90" s="34"/>
     </row>
-    <row r="91" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -6681,7 +6722,7 @@
       <c r="J91" s="38"/>
       <c r="K91" s="35"/>
     </row>
-    <row r="92" spans="1:11" ht="172.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="171" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -6716,7 +6757,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -6751,7 +6792,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>171</v>
       </c>
@@ -6786,7 +6827,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
@@ -6819,7 +6860,7 @@
       </c>
       <c r="K95" s="31"/>
     </row>
-    <row r="96" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
@@ -6852,7 +6893,7 @@
       </c>
       <c r="K96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -6885,7 +6926,7 @@
       </c>
       <c r="K97" s="31"/>
     </row>
-    <row r="98" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
@@ -6918,7 +6959,7 @@
       </c>
       <c r="K98" s="32"/>
     </row>
-    <row r="99" spans="1:11" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
@@ -6953,7 +6994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
@@ -6986,7 +7027,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
@@ -7021,7 +7062,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>171</v>
       </c>
@@ -7056,7 +7097,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -7089,7 +7130,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>171</v>
       </c>
@@ -7122,7 +7163,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
@@ -7155,7 +7196,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>171</v>
       </c>
@@ -7188,7 +7229,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>172</v>
       </c>
@@ -7221,7 +7262,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -7254,7 +7295,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -7287,7 +7328,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
@@ -7322,7 +7363,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -7355,7 +7396,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -7388,7 +7429,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>172</v>
       </c>
@@ -7421,7 +7462,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>172</v>
       </c>
@@ -7454,7 +7495,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
@@ -7487,7 +7528,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>172</v>
       </c>
@@ -7520,7 +7561,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
@@ -7553,7 +7594,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
@@ -7586,7 +7627,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>172</v>
       </c>
@@ -7619,7 +7660,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>172</v>
       </c>
@@ -7652,7 +7693,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>172</v>
       </c>
@@ -7685,7 +7726,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -7718,7 +7759,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>172</v>
       </c>
@@ -7751,7 +7792,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>172</v>
       </c>
@@ -7784,7 +7825,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -7817,7 +7858,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -7852,7 +7893,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
@@ -7885,7 +7926,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
@@ -7918,7 +7959,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>172</v>
       </c>
@@ -7951,7 +7992,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -7984,7 +8025,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -8017,7 +8058,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>173</v>
       </c>
@@ -8050,7 +8091,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>173</v>
       </c>
@@ -8083,7 +8124,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
@@ -8118,7 +8159,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>173</v>
       </c>
@@ -8151,7 +8192,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>173</v>
       </c>
@@ -8184,7 +8225,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>173</v>
       </c>
@@ -8217,7 +8258,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>173</v>
       </c>
@@ -8250,7 +8291,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
@@ -8283,7 +8324,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>173</v>
       </c>
@@ -8316,7 +8357,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>173</v>
       </c>
@@ -8349,7 +8390,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>173</v>
       </c>
@@ -8382,7 +8423,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -8417,7 +8458,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -8450,7 +8491,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>173</v>
       </c>
@@ -8483,7 +8524,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>173</v>
       </c>
@@ -8516,7 +8557,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>173</v>
       </c>
@@ -8568,15 +8609,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -8590,7 +8631,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8602,7 +8643,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8614,7 +8655,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8626,7 +8667,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8638,7 +8679,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8650,7 +8691,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8662,7 +8703,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8674,7 +8715,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -8686,7 +8727,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -8698,7 +8739,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -8710,7 +8751,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -8722,7 +8763,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -8734,7 +8775,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8746,7 +8787,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8758,7 +8799,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8770,7 +8811,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -8782,7 +8823,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -8794,7 +8835,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -8806,7 +8847,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -8818,7 +8859,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -8830,7 +8871,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -8842,7 +8883,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -8854,7 +8895,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -8866,7 +8907,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -8878,7 +8919,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8931,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -8902,7 +8943,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -8914,7 +8955,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -8926,7 +8967,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -8938,7 +8979,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -8950,7 +8991,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -8962,7 +9003,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -8974,7 +9015,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -8986,7 +9027,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -8998,7 +9039,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -9010,7 +9051,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -9022,7 +9063,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -9034,7 +9075,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -9046,7 +9087,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -9058,7 +9099,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -9070,7 +9111,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -9082,7 +9123,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9135,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -9106,7 +9147,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -9118,7 +9159,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -9130,7 +9171,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -9142,7 +9183,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -9154,7 +9195,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -9166,7 +9207,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -9178,7 +9219,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -9190,7 +9231,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -9202,7 +9243,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -9214,7 +9255,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -9226,7 +9267,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -9238,7 +9279,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -9250,7 +9291,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -9262,7 +9303,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -9274,7 +9315,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -9286,7 +9327,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -9298,7 +9339,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -9310,7 +9351,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -9322,7 +9363,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -9334,7 +9375,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -9346,7 +9387,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -9358,7 +9399,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -9370,7 +9411,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -9382,7 +9423,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -9394,7 +9435,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -9406,7 +9447,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -9418,7 +9459,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -9430,7 +9471,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -9442,7 +9483,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -9454,7 +9495,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -9466,7 +9507,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -9478,7 +9519,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -9490,7 +9531,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -9502,7 +9543,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -9514,7 +9555,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -9526,7 +9567,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -9538,7 +9579,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -9550,7 +9591,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -9562,7 +9603,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -9574,7 +9615,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -9586,7 +9627,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -9598,7 +9639,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -9610,7 +9651,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -9622,7 +9663,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -9634,7 +9675,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -9646,7 +9687,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -9658,7 +9699,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -9670,7 +9711,7 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -9682,7 +9723,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -9694,7 +9735,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -9706,7 +9747,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -9718,7 +9759,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -9730,7 +9771,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -9742,7 +9783,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -9754,7 +9795,7 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -9766,7 +9807,7 @@
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -9778,7 +9819,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -9790,7 +9831,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -9802,7 +9843,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>107</v>
       </c>
@@ -9893,7 +9934,7 @@
       <c r="CB103"/>
       <c r="CC103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -9905,7 +9946,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>107</v>
       </c>
@@ -9996,7 +10037,7 @@
       <c r="CB105"/>
       <c r="CC105"/>
     </row>
-    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>107</v>
       </c>
@@ -10087,7 +10128,7 @@
       <c r="CB106"/>
       <c r="CC106"/>
     </row>
-    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -10178,7 +10219,7 @@
       <c r="CB107"/>
       <c r="CC107"/>
     </row>
-    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>107</v>
       </c>
@@ -10269,7 +10310,7 @@
       <c r="CB108"/>
       <c r="CC108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -10281,7 +10322,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -10293,7 +10334,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -10305,7 +10346,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -10317,7 +10358,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -10329,7 +10370,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -10341,7 +10382,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -10353,7 +10394,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -10365,7 +10406,7 @@
       </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -10377,7 +10418,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -10389,7 +10430,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -10401,7 +10442,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -10413,7 +10454,7 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -10425,7 +10466,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -10439,7 +10480,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
         <v>122</v>
       </c>
@@ -10453,7 +10494,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>122</v>
       </c>
@@ -10465,7 +10506,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>122</v>
       </c>
@@ -10479,7 +10520,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="s">
         <v>122</v>
       </c>
@@ -10493,7 +10534,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20" t="s">
         <v>122</v>
       </c>
@@ -10507,7 +10548,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>122</v>
       </c>
@@ -10521,7 +10562,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>122</v>
       </c>
@@ -10533,7 +10574,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>122</v>
       </c>
@@ -10545,7 +10586,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -10557,7 +10598,7 @@
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -10569,7 +10610,7 @@
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -10581,7 +10622,7 @@
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -10593,7 +10634,7 @@
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -10629,15 +10670,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -10657,7 +10698,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10677,7 +10718,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10695,7 +10736,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -10713,7 +10754,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10731,7 +10772,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10749,7 +10790,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -10767,7 +10808,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -10785,7 +10826,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -10803,7 +10844,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -10821,7 +10862,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -10839,7 +10880,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -10857,7 +10898,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -10875,7 +10916,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -10893,7 +10934,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10911,7 +10952,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -10929,7 +10970,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -10947,7 +10988,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -10965,7 +11006,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -10983,7 +11024,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -11001,7 +11042,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -11019,7 +11060,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -11037,7 +11078,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -11055,7 +11096,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -11073,7 +11114,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +11132,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -11109,7 +11150,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -11127,7 +11168,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -11145,7 +11186,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +11204,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -11181,7 +11222,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -11199,7 +11240,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -11217,7 +11258,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -11235,7 +11276,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -11253,7 +11294,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -11271,7 +11312,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -11289,7 +11330,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -11307,7 +11348,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -11325,7 +11366,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -11343,7 +11384,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -11361,7 +11402,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -11379,7 +11420,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -11397,7 +11438,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -11415,7 +11456,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -11433,7 +11474,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -11451,7 +11492,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -11469,7 +11510,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -11487,7 +11528,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -11505,7 +11546,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -11523,7 +11564,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -11541,7 +11582,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -11559,7 +11600,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -11577,7 +11618,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -11595,7 +11636,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -11613,7 +11654,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -11631,7 +11672,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -11649,7 +11690,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -11667,7 +11708,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -11685,7 +11726,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -11703,7 +11744,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -11721,7 +11762,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -11739,7 +11780,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -11757,7 +11798,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -11775,7 +11816,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -11793,7 +11834,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -11811,7 +11852,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -11829,7 +11870,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -11847,7 +11888,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -11865,7 +11906,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -11883,7 +11924,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -11901,7 +11942,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -11919,7 +11960,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -11937,7 +11978,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -11955,7 +11996,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -11973,7 +12014,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -11991,7 +12032,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -12009,7 +12050,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -12027,7 +12068,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -12045,7 +12086,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -12063,7 +12104,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -12081,7 +12122,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -12099,7 +12140,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -12117,7 +12158,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -12135,7 +12176,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -12153,7 +12194,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -12171,7 +12212,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -12189,7 +12230,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -12207,7 +12248,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -12225,7 +12266,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -12243,7 +12284,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -12261,7 +12302,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -12279,7 +12320,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -12297,7 +12338,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -12315,7 +12356,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -12333,7 +12374,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -12351,7 +12392,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -12369,7 +12410,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -12387,7 +12428,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -12405,7 +12446,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -12423,7 +12464,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -12441,7 +12482,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -12459,7 +12500,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -12477,7 +12518,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -12495,7 +12536,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>2</v>
       </c>
@@ -12513,7 +12554,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -12531,7 +12572,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -12547,7 +12588,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -12567,7 +12608,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -12587,7 +12628,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>107</v>
       </c>
@@ -12605,7 +12646,7 @@
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>107</v>
       </c>
@@ -12623,7 +12664,7 @@
       </c>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>107</v>
       </c>
@@ -12641,7 +12682,7 @@
       </c>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>107</v>
       </c>
@@ -12659,7 +12700,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -12677,7 +12718,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -12695,7 +12736,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -12713,7 +12754,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -12731,7 +12772,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -12749,7 +12790,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -12767,7 +12808,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -12785,7 +12826,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -12803,7 +12844,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -12821,7 +12862,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -12839,7 +12880,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -12857,7 +12898,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -12875,7 +12916,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -12893,7 +12934,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -12911,7 +12952,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -12929,7 +12970,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -12947,7 +12988,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -12965,7 +13006,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>107</v>
       </c>
@@ -12981,7 +13022,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="20" t="s">
         <v>122</v>
       </c>
@@ -13001,7 +13042,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -13021,7 +13062,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="20" t="s">
         <v>122</v>
       </c>
@@ -13039,7 +13080,7 @@
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>122</v>
       </c>
@@ -13057,7 +13098,7 @@
       </c>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
         <v>122</v>
       </c>
@@ -13075,7 +13116,7 @@
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
         <v>122</v>
       </c>
@@ -13093,7 +13134,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -13111,7 +13152,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -13129,7 +13170,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -13147,7 +13188,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -13165,7 +13206,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="20" t="s">
         <v>122</v>
       </c>
@@ -13183,7 +13224,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
         <v>122</v>
       </c>
@@ -13201,7 +13242,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -13219,7 +13260,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="20" t="s">
         <v>122</v>
       </c>
@@ -13237,7 +13278,7 @@
       </c>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="20" t="s">
         <v>122</v>
       </c>
@@ -13255,7 +13296,7 @@
       </c>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -13273,7 +13314,7 @@
       </c>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -13307,29 +13348,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" customWidth="1"/>
-    <col min="9" max="10" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" customWidth="1"/>
+    <col min="9" max="10" width="21.77734375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="15" width="24.81640625" customWidth="1"/>
-    <col min="16" max="16" width="59.1796875" customWidth="1"/>
-    <col min="17" max="17" width="51.26953125" style="26" customWidth="1"/>
+    <col min="12" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="15" width="24.77734375" customWidth="1"/>
+    <col min="16" max="16" width="59.21875" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -13382,7 +13423,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13427,7 +13468,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13470,7 +13511,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -13515,7 +13556,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -13535,9 +13576,9 @@
         <v>420</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>301</v>
       </c>
       <c r="I5" s="8"/>
@@ -13558,7 +13599,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13578,9 +13619,9 @@
         <v>420</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>302</v>
       </c>
       <c r="I6" s="8"/>
@@ -13601,7 +13642,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -13621,9 +13662,9 @@
         <v>420</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>303</v>
       </c>
       <c r="I7" s="8"/>
@@ -13644,7 +13685,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13689,7 +13730,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -13732,7 +13773,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -13775,7 +13816,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -13818,7 +13859,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -13861,7 +13902,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13906,7 +13947,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -13949,7 +13990,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -13992,7 +14033,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -14035,7 +14076,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -14078,7 +14119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -14121,7 +14162,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -14164,7 +14205,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -14207,7 +14248,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -14250,7 +14291,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -14293,7 +14334,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -14336,7 +14377,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -14379,7 +14420,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -14422,7 +14463,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -14465,7 +14506,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -14508,7 +14549,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -14528,9 +14569,9 @@
         <v>420</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>324</v>
       </c>
       <c r="I28" s="8"/>
@@ -14551,7 +14592,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -14571,9 +14612,9 @@
         <v>420</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>325</v>
       </c>
       <c r="I29" s="8"/>
@@ -14594,7 +14635,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -14637,7 +14678,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -14680,7 +14721,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -14700,9 +14741,9 @@
         <v>420</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>328</v>
       </c>
       <c r="I32" s="8"/>
@@ -14723,7 +14764,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -14766,7 +14807,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -14809,7 +14850,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -14852,7 +14893,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -14895,7 +14936,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -14938,7 +14979,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -14981,7 +15022,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -15024,7 +15065,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -15067,7 +15108,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -15110,7 +15151,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -15153,7 +15194,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -15196,7 +15237,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -15239,7 +15280,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -15282,7 +15323,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -15325,7 +15366,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -15368,7 +15409,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -15411,7 +15452,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -15454,7 +15495,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -15497,7 +15538,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -15540,7 +15581,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -15583,7 +15624,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -15626,7 +15667,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -15669,7 +15710,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -15712,7 +15753,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -15755,7 +15796,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -15798,7 +15839,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -15841,7 +15882,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -15886,7 +15927,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -15933,7 +15974,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -15978,7 +16019,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -16025,7 +16066,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -16072,7 +16113,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -16117,7 +16158,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -16164,7 +16205,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -16211,7 +16252,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -16256,7 +16297,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -16301,7 +16342,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -16346,7 +16387,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -16391,7 +16432,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -16436,7 +16477,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -16479,7 +16520,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -16522,7 +16563,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -16567,7 +16608,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -16612,7 +16653,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -16657,7 +16698,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -16700,7 +16741,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -16745,7 +16786,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -16788,7 +16829,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -16808,9 +16849,9 @@
         <v>420</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="39" t="s">
         <v>371</v>
       </c>
       <c r="I80" s="8"/>
@@ -16829,7 +16870,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -16872,7 +16913,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -16892,9 +16933,9 @@
         <v>420</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="39" t="s">
         <v>303</v>
       </c>
       <c r="I82" s="8"/>
@@ -16915,7 +16956,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -16935,9 +16976,9 @@
         <v>420</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="39" t="s">
         <v>373</v>
       </c>
       <c r="I83" s="8">
@@ -16960,7 +17001,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -16980,9 +17021,9 @@
         <v>420</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="39" t="s">
         <v>374</v>
       </c>
       <c r="I84" s="8"/>
@@ -17003,7 +17044,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -17046,7 +17087,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -17089,7 +17130,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -17132,7 +17173,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -17175,7 +17216,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -17218,7 +17259,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -17261,7 +17302,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -17304,7 +17345,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -17347,7 +17388,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -17390,7 +17431,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -17433,7 +17474,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -17476,7 +17517,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -17519,7 +17560,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -17562,7 +17603,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -17605,7 +17646,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -17648,7 +17689,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -17691,7 +17732,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -17734,7 +17775,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -17781,7 +17822,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -17826,7 +17867,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -17873,7 +17914,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -17920,7 +17961,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -17967,7 +18008,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
@@ -18014,7 +18055,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -18059,7 +18100,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -18108,7 +18149,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -18155,7 +18196,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -18202,7 +18243,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -18249,7 +18290,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -18296,7 +18337,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -18343,7 +18384,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -18390,7 +18431,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -18433,7 +18474,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -18478,7 +18519,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -18523,7 +18564,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -18568,7 +18609,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -18613,7 +18654,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -18658,7 +18699,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -18703,7 +18744,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
@@ -18761,18 +18802,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861C695-FDFF-4472-8570-A9657F93AFC3}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>404</v>
       </c>
@@ -18783,7 +18824,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -18794,7 +18835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -18805,7 +18846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -18816,7 +18857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -18827,7 +18868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -18838,7 +18879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -18849,7 +18890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -18860,7 +18901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -18871,7 +18912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -18882,7 +18923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -18893,7 +18934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -18904,7 +18945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -18915,7 +18956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -18926,7 +18967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -18937,7 +18978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -18948,7 +18989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -18959,7 +19000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -18970,7 +19011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -18981,7 +19022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -18992,7 +19033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -19003,7 +19044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -19014,7 +19055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -19025,7 +19066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -19036,7 +19077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -19047,7 +19088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -19058,7 +19099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -19069,7 +19110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -19080,7 +19121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -19091,7 +19132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -19102,7 +19143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -19113,7 +19154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -19124,7 +19165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -19135,7 +19176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -19146,7 +19187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -19157,7 +19198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -19168,7 +19209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -19179,7 +19220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -19190,7 +19231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -19201,7 +19242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -19212,7 +19253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -19223,7 +19264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -19234,7 +19275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -19245,7 +19286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -19256,7 +19297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -19267,7 +19308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -19278,7 +19319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -19289,7 +19330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -19300,7 +19341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -19311,7 +19352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -19322,7 +19363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -19333,7 +19374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -19344,7 +19385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -19355,7 +19396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -19366,7 +19407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -19377,7 +19418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -19388,7 +19429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -19399,7 +19440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -19410,7 +19451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -19421,7 +19462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -19432,7 +19473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -19443,7 +19484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -19454,7 +19495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -19465,7 +19506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -19476,7 +19517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -19487,7 +19528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -19498,7 +19539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -19509,7 +19550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -19520,7 +19561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -19531,7 +19572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -19542,7 +19583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -19553,7 +19594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -19564,7 +19605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -19575,7 +19616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -19586,7 +19627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -19597,7 +19638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -19608,7 +19649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -19619,7 +19660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -19630,7 +19671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -19641,7 +19682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -19652,7 +19693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -19663,7 +19704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -19674,7 +19715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -19685,7 +19726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -19696,7 +19737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -19707,7 +19748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -19718,7 +19759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -19729,7 +19770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -19740,7 +19781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -19751,7 +19792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -19762,7 +19803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -19773,7 +19814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -19784,7 +19825,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -19795,7 +19836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -19806,7 +19847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -19817,7 +19858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -19828,7 +19869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -19839,7 +19880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -19850,7 +19891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -19861,7 +19902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -19872,7 +19913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -19883,7 +19924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>2</v>
       </c>
@@ -19894,7 +19935,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -19905,7 +19946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>2</v>
       </c>
@@ -19916,7 +19957,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -19927,7 +19968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -19938,7 +19979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -19949,7 +19990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -19960,7 +20001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -19971,7 +20012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -19982,7 +20023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -19993,7 +20034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -20004,7 +20045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -20015,7 +20056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -20026,7 +20067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -20037,7 +20078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -20048,7 +20089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -20059,7 +20100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -20070,7 +20111,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -20081,7 +20122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -20092,7 +20133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -20103,7 +20144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -20114,7 +20155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -20125,7 +20166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -20136,7 +20177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -20147,7 +20188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -20158,7 +20199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -20169,7 +20210,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>107</v>
       </c>
@@ -20180,7 +20221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>107</v>
       </c>
@@ -20191,7 +20232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>107</v>
       </c>
@@ -20202,7 +20243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -20213,7 +20254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -20224,7 +20265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -20235,7 +20276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -20246,7 +20287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -20257,7 +20298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>122</v>
       </c>
@@ -20268,7 +20309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -20279,7 +20320,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -20290,7 +20331,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -20301,7 +20342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -20312,7 +20353,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>122</v>
       </c>
@@ -20323,7 +20364,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>122</v>
       </c>
@@ -20334,7 +20375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -20345,7 +20386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>122</v>
       </c>
@@ -20356,7 +20397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>122</v>
       </c>
@@ -20367,7 +20408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -20378,7 +20419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -20402,25 +20443,25 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" customWidth="1"/>
-    <col min="8" max="9" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="9" width="21.77734375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="17.7265625" customWidth="1"/>
-    <col min="13" max="14" width="24.81640625" customWidth="1"/>
-    <col min="15" max="15" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.26953125" style="26" customWidth="1"/>
+    <col min="11" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="14" width="24.77734375" customWidth="1"/>
+    <col min="15" max="15" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -20473,7 +20514,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -20518,7 +20559,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -20561,7 +20602,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -20606,7 +20647,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -20649,7 +20690,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -20692,7 +20733,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -20735,7 +20776,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -20780,7 +20821,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -20823,7 +20864,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -20866,7 +20907,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -20909,7 +20950,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -20952,7 +20993,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -20997,7 +21038,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -21040,7 +21081,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -21083,7 +21124,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -21126,7 +21167,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -21169,7 +21210,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -21212,7 +21253,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -21255,7 +21296,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -21298,7 +21339,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -21341,7 +21382,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -21384,7 +21425,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -21427,7 +21468,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -21470,7 +21511,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -21513,7 +21554,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -21556,7 +21597,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -21599,7 +21640,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -21642,7 +21683,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -21685,7 +21726,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -21728,7 +21769,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -21771,7 +21812,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -21814,7 +21855,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -21857,7 +21898,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -21900,7 +21941,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -21943,7 +21984,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -21986,7 +22027,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -22029,7 +22070,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -22072,7 +22113,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -22115,7 +22156,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -22158,7 +22199,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -22201,7 +22242,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -22244,7 +22285,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -22287,7 +22328,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -22330,7 +22371,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -22373,7 +22414,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -22416,7 +22457,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -22459,7 +22500,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -22502,7 +22543,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -22545,7 +22586,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -22588,7 +22629,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -22631,7 +22672,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -22674,7 +22715,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -22717,7 +22758,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -22760,7 +22801,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -22803,7 +22844,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -22846,7 +22887,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -22889,7 +22930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -22932,7 +22973,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -22977,7 +23018,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -23024,7 +23065,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -23069,7 +23110,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -23116,7 +23157,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -23163,7 +23204,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -23208,7 +23249,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -23255,7 +23296,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -23302,7 +23343,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -23347,7 +23388,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -23392,7 +23433,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -23437,7 +23478,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -23482,7 +23523,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -23527,7 +23568,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -23570,7 +23611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -23613,7 +23654,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -23658,7 +23699,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -23703,7 +23744,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -23748,7 +23789,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -23791,7 +23832,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -23836,7 +23877,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -23879,7 +23920,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -23920,7 +23961,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -23963,7 +24004,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -24006,7 +24047,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -24051,7 +24092,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -24094,7 +24135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -24137,7 +24178,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -24180,7 +24221,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -24223,7 +24264,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -24266,7 +24307,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -24309,7 +24350,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -24352,7 +24393,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -24395,7 +24436,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -24438,7 +24479,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -24481,7 +24522,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -24524,7 +24565,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -24567,7 +24608,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -24610,7 +24651,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -24653,7 +24694,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -24696,7 +24737,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -24739,7 +24780,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -24782,7 +24823,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -24825,7 +24866,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -24872,7 +24913,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -24917,7 +24958,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -24964,7 +25005,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -25011,7 +25052,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -25058,7 +25099,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -25105,7 +25146,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -25152,7 +25193,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -25201,7 +25242,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -25248,7 +25289,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -25295,7 +25336,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -25342,7 +25383,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -25389,7 +25430,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -25436,7 +25477,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -25483,7 +25524,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -25526,7 +25567,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -25571,7 +25612,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -25616,7 +25657,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -25661,7 +25702,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -25706,7 +25747,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -25751,7 +25792,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -25796,7 +25837,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3D220-1941-4CB3-8044-D82D6C814C1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03FEC3C-EB1F-488C-AC0A-FDC109C19A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="2" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
@@ -2217,7 +2217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,7 +2446,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2543,6 +2543,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6722,7 +6723,7 @@
       <c r="J91" s="38"/>
       <c r="K91" s="35"/>
     </row>
-    <row r="92" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -13348,8 +13349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13922,9 +13923,9 @@
         <v>420</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="8">
@@ -14657,7 +14658,7 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="39" t="s">
         <v>326</v>
       </c>
       <c r="I30" s="8"/>
@@ -14700,7 +14701,7 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="39" t="s">
         <v>327</v>
       </c>
       <c r="I31" s="8"/>
@@ -16540,9 +16541,9 @@
         <v>420</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="39" t="s">
         <v>367</v>
       </c>
       <c r="I73" s="8"/>
@@ -16849,9 +16850,9 @@
         <v>420</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="40" t="s">
         <v>371</v>
       </c>
       <c r="I80" s="8"/>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03FEC3C-EB1F-488C-AC0A-FDC109C19A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF25D65-BF30-41B5-BD3D-7FA1F00F88DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="2" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="588">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -1826,6 +1826,9 @@
   </si>
   <si>
     <t>Nombre del atributo</t>
+  </si>
+  <si>
+    <t>D_DEC_TCIOPMO1(003)</t>
   </si>
 </sst>
 </file>
@@ -2515,6 +2518,8 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2542,8 +2547,6 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6530,10 +6533,10 @@
       <c r="I85" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="J85" s="36" t="s">
+      <c r="J85" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="K85" s="33" t="s">
+      <c r="K85" s="35" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6565,8 +6568,8 @@
       <c r="I86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J86" s="37"/>
-      <c r="K86" s="34"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -6596,8 +6599,8 @@
       <c r="I87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J87" s="37"/>
-      <c r="K87" s="34"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
@@ -6627,8 +6630,8 @@
       <c r="I88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J88" s="37"/>
-      <c r="K88" s="34"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -6658,8 +6661,8 @@
       <c r="I89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J89" s="37"/>
-      <c r="K89" s="34"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -6689,8 +6692,8 @@
       <c r="I90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J90" s="37"/>
-      <c r="K90" s="34"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
@@ -6720,10 +6723,10 @@
       <c r="I91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="38"/>
-      <c r="K91" s="35"/>
-    </row>
-    <row r="92" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.2">
+      <c r="J91" s="40"/>
+      <c r="K91" s="37"/>
+    </row>
+    <row r="92" spans="1:11" ht="171" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -6824,7 +6827,7 @@
       <c r="J94" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K94" s="30" t="s">
+      <c r="K94" s="32" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6859,7 +6862,7 @@
       <c r="J95" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K95" s="31"/>
+      <c r="K95" s="33"/>
     </row>
     <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -6892,7 +6895,7 @@
       <c r="J96" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K96" s="31"/>
+      <c r="K96" s="33"/>
     </row>
     <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -6925,7 +6928,7 @@
       <c r="J97" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K97" s="31"/>
+      <c r="K97" s="33"/>
     </row>
     <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -6958,7 +6961,7 @@
       <c r="J98" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K98" s="32"/>
+      <c r="K98" s="34"/>
     </row>
     <row r="99" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -13350,7 +13353,7 @@
   <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O63" sqref="O63:O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13579,7 +13582,7 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="30" t="s">
         <v>301</v>
       </c>
       <c r="I5" s="8"/>
@@ -13622,7 +13625,7 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="30" t="s">
         <v>302</v>
       </c>
       <c r="I6" s="8"/>
@@ -13665,7 +13668,7 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="30" t="s">
         <v>303</v>
       </c>
       <c r="I7" s="8"/>
@@ -13925,7 +13928,7 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="30" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="8">
@@ -14572,7 +14575,7 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="30" t="s">
         <v>324</v>
       </c>
       <c r="I28" s="8"/>
@@ -14615,7 +14618,7 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="30" t="s">
         <v>325</v>
       </c>
       <c r="I29" s="8"/>
@@ -14658,7 +14661,7 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="30" t="s">
         <v>326</v>
       </c>
       <c r="I30" s="8"/>
@@ -14701,7 +14704,7 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="30" t="s">
         <v>327</v>
       </c>
       <c r="I31" s="8"/>
@@ -14744,7 +14747,7 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="30" t="s">
         <v>328</v>
       </c>
       <c r="I32" s="8"/>
@@ -16104,8 +16107,8 @@
       <c r="L63" s="10"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="11" t="s">
-        <v>585</v>
+      <c r="O63" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>486</v>
@@ -16149,8 +16152,8 @@
       <c r="L64" s="10"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="11" t="s">
-        <v>585</v>
+      <c r="O64" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>487</v>
@@ -16543,7 +16546,7 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="30" t="s">
         <v>367</v>
       </c>
       <c r="I73" s="8"/>
@@ -16852,7 +16855,7 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="31" t="s">
         <v>371</v>
       </c>
       <c r="I80" s="8"/>
@@ -16936,7 +16939,7 @@
       <c r="G82" s="3">
         <v>0</v>
       </c>
-      <c r="H82" s="39" t="s">
+      <c r="H82" s="30" t="s">
         <v>303</v>
       </c>
       <c r="I82" s="8"/>
@@ -16979,7 +16982,7 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="39" t="s">
+      <c r="H83" s="30" t="s">
         <v>373</v>
       </c>
       <c r="I83" s="8">
@@ -17024,7 +17027,7 @@
       <c r="G84" s="3">
         <v>0</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="30" t="s">
         <v>374</v>
       </c>
       <c r="I84" s="8"/>
@@ -17813,7 +17816,7 @@
         <v>528</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="29" t="s">
         <v>585</v>
       </c>
       <c r="P102" s="7" t="s">

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF25D65-BF30-41B5-BD3D-7FA1F00F88DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E719E8-2F10-46E7-9020-291E50683CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="2" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -2449,7 +2449,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2519,7 +2519,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2740,9 +2739,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2780,9 +2779,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2815,26 +2814,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,26 +2849,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3066,16 +3031,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3103,7 +3068,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
@@ -3117,7 +3082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3141,597 +3106,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="2"/>
-    <col min="15" max="15" width="15.77734375" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="247" width="11.44140625" style="2"/>
+    <col min="11" max="11" width="29.1796875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.453125" style="2"/>
+    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="11.453125" style="2"/>
     <col min="248" max="248" width="33" style="2" customWidth="1"/>
     <col min="249" max="249" width="25" style="2" customWidth="1"/>
-    <col min="250" max="250" width="25.77734375" style="2" customWidth="1"/>
-    <col min="251" max="251" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.44140625" style="2" customWidth="1"/>
-    <col min="253" max="253" width="18.44140625" style="2" customWidth="1"/>
+    <col min="250" max="250" width="25.81640625" style="2" customWidth="1"/>
+    <col min="251" max="251" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.453125" style="2" customWidth="1"/>
+    <col min="253" max="253" width="18.453125" style="2" customWidth="1"/>
     <col min="254" max="254" width="20" style="2" customWidth="1"/>
-    <col min="255" max="255" width="36.5546875" style="2" customWidth="1"/>
-    <col min="256" max="503" width="11.44140625" style="2"/>
+    <col min="255" max="255" width="36.54296875" style="2" customWidth="1"/>
+    <col min="256" max="503" width="11.453125" style="2"/>
     <col min="504" max="504" width="33" style="2" customWidth="1"/>
     <col min="505" max="505" width="25" style="2" customWidth="1"/>
-    <col min="506" max="506" width="25.77734375" style="2" customWidth="1"/>
-    <col min="507" max="507" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="22.44140625" style="2" customWidth="1"/>
-    <col min="509" max="509" width="18.44140625" style="2" customWidth="1"/>
+    <col min="506" max="506" width="25.81640625" style="2" customWidth="1"/>
+    <col min="507" max="507" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="22.453125" style="2" customWidth="1"/>
+    <col min="509" max="509" width="18.453125" style="2" customWidth="1"/>
     <col min="510" max="510" width="20" style="2" customWidth="1"/>
-    <col min="511" max="511" width="36.5546875" style="2" customWidth="1"/>
-    <col min="512" max="759" width="11.44140625" style="2"/>
+    <col min="511" max="511" width="36.54296875" style="2" customWidth="1"/>
+    <col min="512" max="759" width="11.453125" style="2"/>
     <col min="760" max="760" width="33" style="2" customWidth="1"/>
     <col min="761" max="761" width="25" style="2" customWidth="1"/>
-    <col min="762" max="762" width="25.77734375" style="2" customWidth="1"/>
-    <col min="763" max="763" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="22.44140625" style="2" customWidth="1"/>
-    <col min="765" max="765" width="18.44140625" style="2" customWidth="1"/>
+    <col min="762" max="762" width="25.81640625" style="2" customWidth="1"/>
+    <col min="763" max="763" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="22.453125" style="2" customWidth="1"/>
+    <col min="765" max="765" width="18.453125" style="2" customWidth="1"/>
     <col min="766" max="766" width="20" style="2" customWidth="1"/>
-    <col min="767" max="767" width="36.5546875" style="2" customWidth="1"/>
-    <col min="768" max="1015" width="11.44140625" style="2"/>
+    <col min="767" max="767" width="36.54296875" style="2" customWidth="1"/>
+    <col min="768" max="1015" width="11.453125" style="2"/>
     <col min="1016" max="1016" width="33" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="25" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1019" max="1019" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1019" max="1019" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1020" width="22.453125" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="18.453125" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="20" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1024" max="1271" width="11.44140625" style="2"/>
+    <col min="1023" max="1023" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1024" max="1271" width="11.453125" style="2"/>
     <col min="1272" max="1272" width="33" style="2" customWidth="1"/>
     <col min="1273" max="1273" width="25" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1275" max="1275" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1276" max="1276" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1275" max="1275" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1276" max="1276" width="22.453125" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="18.453125" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="20" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1280" max="1527" width="11.44140625" style="2"/>
+    <col min="1279" max="1279" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1280" max="1527" width="11.453125" style="2"/>
     <col min="1528" max="1528" width="33" style="2" customWidth="1"/>
     <col min="1529" max="1529" width="25" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1531" max="1531" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1532" max="1532" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1531" max="1531" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1532" max="1532" width="22.453125" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="18.453125" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="20" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1536" max="1783" width="11.44140625" style="2"/>
+    <col min="1535" max="1535" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1536" max="1783" width="11.453125" style="2"/>
     <col min="1784" max="1784" width="33" style="2" customWidth="1"/>
     <col min="1785" max="1785" width="25" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1787" max="1787" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1788" max="1788" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1787" max="1787" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1788" max="1788" width="22.453125" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="18.453125" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="20" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1792" max="2039" width="11.44140625" style="2"/>
+    <col min="1791" max="1791" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1792" max="2039" width="11.453125" style="2"/>
     <col min="2040" max="2040" width="33" style="2" customWidth="1"/>
     <col min="2041" max="2041" width="25" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2043" max="2043" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2044" max="2044" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2043" max="2043" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2044" max="2044" width="22.453125" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="18.453125" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="20" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2048" max="2295" width="11.44140625" style="2"/>
+    <col min="2047" max="2047" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2048" max="2295" width="11.453125" style="2"/>
     <col min="2296" max="2296" width="33" style="2" customWidth="1"/>
     <col min="2297" max="2297" width="25" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2299" max="2299" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2300" max="2300" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2299" max="2299" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2300" max="2300" width="22.453125" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="18.453125" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="20" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2304" max="2551" width="11.44140625" style="2"/>
+    <col min="2303" max="2303" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2304" max="2551" width="11.453125" style="2"/>
     <col min="2552" max="2552" width="33" style="2" customWidth="1"/>
     <col min="2553" max="2553" width="25" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2555" max="2555" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2556" max="2556" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2555" max="2555" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2556" max="2556" width="22.453125" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="18.453125" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="20" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2560" max="2807" width="11.44140625" style="2"/>
+    <col min="2559" max="2559" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2560" max="2807" width="11.453125" style="2"/>
     <col min="2808" max="2808" width="33" style="2" customWidth="1"/>
     <col min="2809" max="2809" width="25" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2811" max="2811" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2812" max="2812" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2811" max="2811" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2812" max="2812" width="22.453125" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="18.453125" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="20" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2816" max="3063" width="11.44140625" style="2"/>
+    <col min="2815" max="2815" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2816" max="3063" width="11.453125" style="2"/>
     <col min="3064" max="3064" width="33" style="2" customWidth="1"/>
     <col min="3065" max="3065" width="25" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3067" max="3067" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3068" max="3068" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3067" max="3067" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3068" max="3068" width="22.453125" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="18.453125" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="20" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3072" max="3319" width="11.44140625" style="2"/>
+    <col min="3071" max="3071" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3072" max="3319" width="11.453125" style="2"/>
     <col min="3320" max="3320" width="33" style="2" customWidth="1"/>
     <col min="3321" max="3321" width="25" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3323" max="3323" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3324" max="3324" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3323" max="3323" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3324" max="3324" width="22.453125" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="18.453125" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="20" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3328" max="3575" width="11.44140625" style="2"/>
+    <col min="3327" max="3327" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3328" max="3575" width="11.453125" style="2"/>
     <col min="3576" max="3576" width="33" style="2" customWidth="1"/>
     <col min="3577" max="3577" width="25" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3579" max="3579" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3580" max="3580" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3579" max="3579" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3580" max="3580" width="22.453125" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="18.453125" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="20" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3584" max="3831" width="11.44140625" style="2"/>
+    <col min="3583" max="3583" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3584" max="3831" width="11.453125" style="2"/>
     <col min="3832" max="3832" width="33" style="2" customWidth="1"/>
     <col min="3833" max="3833" width="25" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3835" max="3835" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3836" max="3836" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3835" max="3835" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3836" width="22.453125" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="18.453125" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="20" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3840" max="4087" width="11.44140625" style="2"/>
+    <col min="3839" max="3839" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3840" max="4087" width="11.453125" style="2"/>
     <col min="4088" max="4088" width="33" style="2" customWidth="1"/>
     <col min="4089" max="4089" width="25" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4091" max="4091" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4092" max="4092" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4091" max="4091" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4092" max="4092" width="22.453125" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="18.453125" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="20" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4096" max="4343" width="11.44140625" style="2"/>
+    <col min="4095" max="4095" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4096" max="4343" width="11.453125" style="2"/>
     <col min="4344" max="4344" width="33" style="2" customWidth="1"/>
     <col min="4345" max="4345" width="25" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4347" max="4347" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4348" max="4348" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4347" max="4347" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4348" max="4348" width="22.453125" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="18.453125" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="20" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4352" max="4599" width="11.44140625" style="2"/>
+    <col min="4351" max="4351" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4352" max="4599" width="11.453125" style="2"/>
     <col min="4600" max="4600" width="33" style="2" customWidth="1"/>
     <col min="4601" max="4601" width="25" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4603" max="4603" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4604" max="4604" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4603" max="4603" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4604" max="4604" width="22.453125" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="18.453125" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="20" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4608" max="4855" width="11.44140625" style="2"/>
+    <col min="4607" max="4607" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4608" max="4855" width="11.453125" style="2"/>
     <col min="4856" max="4856" width="33" style="2" customWidth="1"/>
     <col min="4857" max="4857" width="25" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4859" max="4859" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4860" max="4860" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4859" max="4859" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4860" max="4860" width="22.453125" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="18.453125" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="20" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4864" max="5111" width="11.44140625" style="2"/>
+    <col min="4863" max="4863" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4864" max="5111" width="11.453125" style="2"/>
     <col min="5112" max="5112" width="33" style="2" customWidth="1"/>
     <col min="5113" max="5113" width="25" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5115" max="5115" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5116" max="5116" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5115" max="5115" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5116" max="5116" width="22.453125" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="18.453125" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="20" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5120" max="5367" width="11.44140625" style="2"/>
+    <col min="5119" max="5119" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5120" max="5367" width="11.453125" style="2"/>
     <col min="5368" max="5368" width="33" style="2" customWidth="1"/>
     <col min="5369" max="5369" width="25" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5371" max="5371" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5372" max="5372" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5371" max="5371" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5372" max="5372" width="22.453125" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="18.453125" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="20" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5376" max="5623" width="11.44140625" style="2"/>
+    <col min="5375" max="5375" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5376" max="5623" width="11.453125" style="2"/>
     <col min="5624" max="5624" width="33" style="2" customWidth="1"/>
     <col min="5625" max="5625" width="25" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5627" max="5627" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5628" max="5628" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5627" max="5627" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5628" max="5628" width="22.453125" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="18.453125" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="20" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5632" max="5879" width="11.44140625" style="2"/>
+    <col min="5631" max="5631" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5632" max="5879" width="11.453125" style="2"/>
     <col min="5880" max="5880" width="33" style="2" customWidth="1"/>
     <col min="5881" max="5881" width="25" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5883" max="5883" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5884" max="5884" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5883" max="5883" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5884" width="22.453125" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="18.453125" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="20" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5888" max="6135" width="11.44140625" style="2"/>
+    <col min="5887" max="5887" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5888" max="6135" width="11.453125" style="2"/>
     <col min="6136" max="6136" width="33" style="2" customWidth="1"/>
     <col min="6137" max="6137" width="25" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6139" max="6139" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6140" max="6140" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6139" max="6139" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6140" max="6140" width="22.453125" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="18.453125" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="20" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6144" max="6391" width="11.44140625" style="2"/>
+    <col min="6143" max="6143" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6144" max="6391" width="11.453125" style="2"/>
     <col min="6392" max="6392" width="33" style="2" customWidth="1"/>
     <col min="6393" max="6393" width="25" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6395" max="6395" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6396" max="6396" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6395" max="6395" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6396" max="6396" width="22.453125" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="18.453125" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="20" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6400" max="6647" width="11.44140625" style="2"/>
+    <col min="6399" max="6399" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6400" max="6647" width="11.453125" style="2"/>
     <col min="6648" max="6648" width="33" style="2" customWidth="1"/>
     <col min="6649" max="6649" width="25" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6651" max="6651" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6652" max="6652" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6651" max="6651" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6652" max="6652" width="22.453125" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="18.453125" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="20" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6656" max="6903" width="11.44140625" style="2"/>
+    <col min="6655" max="6655" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6656" max="6903" width="11.453125" style="2"/>
     <col min="6904" max="6904" width="33" style="2" customWidth="1"/>
     <col min="6905" max="6905" width="25" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6907" max="6907" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6908" max="6908" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6907" max="6907" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6908" max="6908" width="22.453125" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="18.453125" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="20" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6912" max="7159" width="11.44140625" style="2"/>
+    <col min="6911" max="6911" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6912" max="7159" width="11.453125" style="2"/>
     <col min="7160" max="7160" width="33" style="2" customWidth="1"/>
     <col min="7161" max="7161" width="25" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7163" max="7163" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7164" max="7164" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7163" max="7163" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7164" max="7164" width="22.453125" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="18.453125" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="20" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7168" max="7415" width="11.44140625" style="2"/>
+    <col min="7167" max="7167" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7168" max="7415" width="11.453125" style="2"/>
     <col min="7416" max="7416" width="33" style="2" customWidth="1"/>
     <col min="7417" max="7417" width="25" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7419" max="7419" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7420" max="7420" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7419" max="7419" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7420" max="7420" width="22.453125" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="18.453125" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="20" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7424" max="7671" width="11.44140625" style="2"/>
+    <col min="7423" max="7423" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7424" max="7671" width="11.453125" style="2"/>
     <col min="7672" max="7672" width="33" style="2" customWidth="1"/>
     <col min="7673" max="7673" width="25" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7675" max="7675" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7676" max="7676" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7675" max="7675" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7676" max="7676" width="22.453125" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="18.453125" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="20" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7680" max="7927" width="11.44140625" style="2"/>
+    <col min="7679" max="7679" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7680" max="7927" width="11.453125" style="2"/>
     <col min="7928" max="7928" width="33" style="2" customWidth="1"/>
     <col min="7929" max="7929" width="25" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7931" max="7931" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7932" max="7932" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7931" max="7931" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7932" max="7932" width="22.453125" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="18.453125" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="20" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7936" max="8183" width="11.44140625" style="2"/>
+    <col min="7935" max="7935" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7936" max="8183" width="11.453125" style="2"/>
     <col min="8184" max="8184" width="33" style="2" customWidth="1"/>
     <col min="8185" max="8185" width="25" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8187" max="8187" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8188" max="8188" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8187" max="8187" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8188" max="8188" width="22.453125" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="18.453125" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="20" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8192" max="8439" width="11.44140625" style="2"/>
+    <col min="8191" max="8191" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8192" max="8439" width="11.453125" style="2"/>
     <col min="8440" max="8440" width="33" style="2" customWidth="1"/>
     <col min="8441" max="8441" width="25" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8443" max="8443" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8444" max="8444" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8443" max="8443" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8444" max="8444" width="22.453125" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="18.453125" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="20" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8448" max="8695" width="11.44140625" style="2"/>
+    <col min="8447" max="8447" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8448" max="8695" width="11.453125" style="2"/>
     <col min="8696" max="8696" width="33" style="2" customWidth="1"/>
     <col min="8697" max="8697" width="25" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8699" max="8699" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8700" max="8700" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8699" max="8699" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8700" max="8700" width="22.453125" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="18.453125" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="20" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8704" max="8951" width="11.44140625" style="2"/>
+    <col min="8703" max="8703" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8704" max="8951" width="11.453125" style="2"/>
     <col min="8952" max="8952" width="33" style="2" customWidth="1"/>
     <col min="8953" max="8953" width="25" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8955" max="8955" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8956" max="8956" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8955" max="8955" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8956" max="8956" width="22.453125" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="18.453125" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="20" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8960" max="9207" width="11.44140625" style="2"/>
+    <col min="8959" max="8959" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8960" max="9207" width="11.453125" style="2"/>
     <col min="9208" max="9208" width="33" style="2" customWidth="1"/>
     <col min="9209" max="9209" width="25" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9211" max="9211" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9212" max="9212" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9211" max="9211" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9212" max="9212" width="22.453125" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="18.453125" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="20" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9216" max="9463" width="11.44140625" style="2"/>
+    <col min="9215" max="9215" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9216" max="9463" width="11.453125" style="2"/>
     <col min="9464" max="9464" width="33" style="2" customWidth="1"/>
     <col min="9465" max="9465" width="25" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9467" max="9467" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9468" max="9468" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9467" max="9467" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9468" max="9468" width="22.453125" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="18.453125" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="20" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9472" max="9719" width="11.44140625" style="2"/>
+    <col min="9471" max="9471" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9472" max="9719" width="11.453125" style="2"/>
     <col min="9720" max="9720" width="33" style="2" customWidth="1"/>
     <col min="9721" max="9721" width="25" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9723" max="9723" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9724" max="9724" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9723" max="9723" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9724" max="9724" width="22.453125" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="18.453125" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="20" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9728" max="9975" width="11.44140625" style="2"/>
+    <col min="9727" max="9727" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9728" max="9975" width="11.453125" style="2"/>
     <col min="9976" max="9976" width="33" style="2" customWidth="1"/>
     <col min="9977" max="9977" width="25" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9979" max="9979" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9980" max="9980" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9979" max="9979" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9980" max="9980" width="22.453125" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="18.453125" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="20" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9984" max="10231" width="11.44140625" style="2"/>
+    <col min="9983" max="9983" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9984" max="10231" width="11.453125" style="2"/>
     <col min="10232" max="10232" width="33" style="2" customWidth="1"/>
     <col min="10233" max="10233" width="25" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10235" max="10235" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10236" max="10236" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10235" max="10235" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10236" max="10236" width="22.453125" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="18.453125" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="20" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10240" max="10487" width="11.44140625" style="2"/>
+    <col min="10239" max="10239" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10240" max="10487" width="11.453125" style="2"/>
     <col min="10488" max="10488" width="33" style="2" customWidth="1"/>
     <col min="10489" max="10489" width="25" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10491" max="10491" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10492" max="10492" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10491" max="10491" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10492" max="10492" width="22.453125" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="18.453125" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="20" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10496" max="10743" width="11.44140625" style="2"/>
+    <col min="10495" max="10495" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10496" max="10743" width="11.453125" style="2"/>
     <col min="10744" max="10744" width="33" style="2" customWidth="1"/>
     <col min="10745" max="10745" width="25" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10747" max="10747" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10748" max="10748" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10747" max="10747" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10748" max="10748" width="22.453125" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="18.453125" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="20" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10752" max="10999" width="11.44140625" style="2"/>
+    <col min="10751" max="10751" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10752" max="10999" width="11.453125" style="2"/>
     <col min="11000" max="11000" width="33" style="2" customWidth="1"/>
     <col min="11001" max="11001" width="25" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11003" max="11003" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11004" max="11004" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11003" max="11003" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11004" max="11004" width="22.453125" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="18.453125" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="20" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11008" max="11255" width="11.44140625" style="2"/>
+    <col min="11007" max="11007" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11008" max="11255" width="11.453125" style="2"/>
     <col min="11256" max="11256" width="33" style="2" customWidth="1"/>
     <col min="11257" max="11257" width="25" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11259" max="11259" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11260" max="11260" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11259" max="11259" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11260" max="11260" width="22.453125" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="18.453125" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="20" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11264" max="11511" width="11.44140625" style="2"/>
+    <col min="11263" max="11263" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11264" max="11511" width="11.453125" style="2"/>
     <col min="11512" max="11512" width="33" style="2" customWidth="1"/>
     <col min="11513" max="11513" width="25" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11515" max="11515" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11516" max="11516" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11515" max="11515" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11516" max="11516" width="22.453125" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="18.453125" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="20" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11520" max="11767" width="11.44140625" style="2"/>
+    <col min="11519" max="11519" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11520" max="11767" width="11.453125" style="2"/>
     <col min="11768" max="11768" width="33" style="2" customWidth="1"/>
     <col min="11769" max="11769" width="25" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11771" max="11771" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11772" max="11772" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11771" max="11771" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11772" max="11772" width="22.453125" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="18.453125" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="20" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11776" max="12023" width="11.44140625" style="2"/>
+    <col min="11775" max="11775" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11776" max="12023" width="11.453125" style="2"/>
     <col min="12024" max="12024" width="33" style="2" customWidth="1"/>
     <col min="12025" max="12025" width="25" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12027" max="12027" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12028" max="12028" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12027" max="12027" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12028" max="12028" width="22.453125" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="18.453125" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="20" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12032" max="12279" width="11.44140625" style="2"/>
+    <col min="12031" max="12031" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12032" max="12279" width="11.453125" style="2"/>
     <col min="12280" max="12280" width="33" style="2" customWidth="1"/>
     <col min="12281" max="12281" width="25" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12283" max="12283" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12284" max="12284" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12283" max="12283" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12284" max="12284" width="22.453125" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="18.453125" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="20" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12288" max="12535" width="11.44140625" style="2"/>
+    <col min="12287" max="12287" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12288" max="12535" width="11.453125" style="2"/>
     <col min="12536" max="12536" width="33" style="2" customWidth="1"/>
     <col min="12537" max="12537" width="25" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12539" max="12539" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12540" max="12540" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12539" max="12539" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12540" max="12540" width="22.453125" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="18.453125" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="20" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12544" max="12791" width="11.44140625" style="2"/>
+    <col min="12543" max="12543" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12544" max="12791" width="11.453125" style="2"/>
     <col min="12792" max="12792" width="33" style="2" customWidth="1"/>
     <col min="12793" max="12793" width="25" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12795" max="12795" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12796" max="12796" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12795" max="12795" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12796" max="12796" width="22.453125" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="18.453125" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="20" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12800" max="13047" width="11.44140625" style="2"/>
+    <col min="12799" max="12799" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12800" max="13047" width="11.453125" style="2"/>
     <col min="13048" max="13048" width="33" style="2" customWidth="1"/>
     <col min="13049" max="13049" width="25" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13051" max="13051" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13052" max="13052" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13051" max="13051" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13052" max="13052" width="22.453125" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="18.453125" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="20" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13056" max="13303" width="11.44140625" style="2"/>
+    <col min="13055" max="13055" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13056" max="13303" width="11.453125" style="2"/>
     <col min="13304" max="13304" width="33" style="2" customWidth="1"/>
     <col min="13305" max="13305" width="25" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13307" max="13307" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13308" max="13308" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13307" max="13307" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13308" max="13308" width="22.453125" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="18.453125" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="20" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13312" max="13559" width="11.44140625" style="2"/>
+    <col min="13311" max="13311" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13312" max="13559" width="11.453125" style="2"/>
     <col min="13560" max="13560" width="33" style="2" customWidth="1"/>
     <col min="13561" max="13561" width="25" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13563" max="13563" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13564" max="13564" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13563" max="13563" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13564" max="13564" width="22.453125" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="18.453125" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="20" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13568" max="13815" width="11.44140625" style="2"/>
+    <col min="13567" max="13567" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13568" max="13815" width="11.453125" style="2"/>
     <col min="13816" max="13816" width="33" style="2" customWidth="1"/>
     <col min="13817" max="13817" width="25" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13819" max="13819" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13820" max="13820" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13819" max="13819" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13820" max="13820" width="22.453125" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="18.453125" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="20" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13824" max="14071" width="11.44140625" style="2"/>
+    <col min="13823" max="13823" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13824" max="14071" width="11.453125" style="2"/>
     <col min="14072" max="14072" width="33" style="2" customWidth="1"/>
     <col min="14073" max="14073" width="25" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14075" max="14075" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14076" max="14076" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14075" max="14075" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14076" max="14076" width="22.453125" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="18.453125" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="20" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14080" max="14327" width="11.44140625" style="2"/>
+    <col min="14079" max="14079" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14080" max="14327" width="11.453125" style="2"/>
     <col min="14328" max="14328" width="33" style="2" customWidth="1"/>
     <col min="14329" max="14329" width="25" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14331" max="14331" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14332" max="14332" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14331" max="14331" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14332" max="14332" width="22.453125" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="18.453125" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="20" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14336" max="14583" width="11.44140625" style="2"/>
+    <col min="14335" max="14335" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14336" max="14583" width="11.453125" style="2"/>
     <col min="14584" max="14584" width="33" style="2" customWidth="1"/>
     <col min="14585" max="14585" width="25" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14587" max="14587" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14588" max="14588" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14587" max="14587" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14588" max="14588" width="22.453125" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="18.453125" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="20" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14592" max="14839" width="11.44140625" style="2"/>
+    <col min="14591" max="14591" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14592" max="14839" width="11.453125" style="2"/>
     <col min="14840" max="14840" width="33" style="2" customWidth="1"/>
     <col min="14841" max="14841" width="25" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14843" max="14843" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14844" max="14844" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14843" max="14843" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14844" max="14844" width="22.453125" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="18.453125" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="20" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14848" max="15095" width="11.44140625" style="2"/>
+    <col min="14847" max="14847" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14848" max="15095" width="11.453125" style="2"/>
     <col min="15096" max="15096" width="33" style="2" customWidth="1"/>
     <col min="15097" max="15097" width="25" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15099" max="15099" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15100" max="15100" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15099" max="15099" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15100" max="15100" width="22.453125" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="18.453125" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="20" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15104" max="15351" width="11.44140625" style="2"/>
+    <col min="15103" max="15103" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15104" max="15351" width="11.453125" style="2"/>
     <col min="15352" max="15352" width="33" style="2" customWidth="1"/>
     <col min="15353" max="15353" width="25" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15355" max="15355" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15356" max="15356" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15355" max="15355" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15356" max="15356" width="22.453125" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="18.453125" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="20" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15360" max="15607" width="11.44140625" style="2"/>
+    <col min="15359" max="15359" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15360" max="15607" width="11.453125" style="2"/>
     <col min="15608" max="15608" width="33" style="2" customWidth="1"/>
     <col min="15609" max="15609" width="25" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15611" max="15611" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15612" max="15612" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15611" max="15611" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15612" max="15612" width="22.453125" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="18.453125" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="20" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15616" max="15863" width="11.44140625" style="2"/>
+    <col min="15615" max="15615" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15616" max="15863" width="11.453125" style="2"/>
     <col min="15864" max="15864" width="33" style="2" customWidth="1"/>
     <col min="15865" max="15865" width="25" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15867" max="15867" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15868" max="15868" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15867" max="15867" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15868" max="15868" width="22.453125" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="18.453125" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="20" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15872" max="16119" width="11.44140625" style="2"/>
+    <col min="15871" max="15871" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15872" max="16119" width="11.453125" style="2"/>
     <col min="16120" max="16120" width="33" style="2" customWidth="1"/>
     <col min="16121" max="16121" width="25" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="25.77734375" style="2" customWidth="1"/>
-    <col min="16123" max="16123" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16124" max="16124" width="22.44140625" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="18.44140625" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="25.81640625" style="2" customWidth="1"/>
+    <col min="16123" max="16123" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16124" max="16124" width="22.453125" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="18.453125" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="20" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="36.5546875" style="2" customWidth="1"/>
-    <col min="16128" max="16384" width="11.44140625" style="2"/>
+    <col min="16127" max="16127" width="36.54296875" style="2" customWidth="1"/>
+    <col min="16128" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3731,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3799,7 +3764,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3832,7 +3797,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -3865,7 +3830,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -3898,7 +3863,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
@@ -3931,7 +3896,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
@@ -3964,7 +3929,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -3997,7 +3962,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
@@ -4030,7 +3995,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -4063,7 +4028,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -4096,7 +4061,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -4129,7 +4094,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -4162,7 +4127,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -4195,7 +4160,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4228,7 +4193,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -4261,7 +4226,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -4294,7 +4259,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -4327,7 +4292,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -4360,7 +4325,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -4426,7 +4391,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -4459,7 +4424,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -4492,7 +4457,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -4525,7 +4490,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -4558,7 +4523,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -4591,7 +4556,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -4624,7 +4589,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>171</v>
       </c>
@@ -4657,7 +4622,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -4690,7 +4655,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -4723,7 +4688,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
@@ -4756,7 +4721,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -4789,7 +4754,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>171</v>
       </c>
@@ -4822,7 +4787,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -4855,7 +4820,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -4888,7 +4853,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
@@ -4921,7 +4886,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -4954,7 +4919,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -4987,7 +4952,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -5020,7 +4985,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>171</v>
       </c>
@@ -5053,7 +5018,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
@@ -5086,7 +5051,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -5119,7 +5084,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>171</v>
       </c>
@@ -5152,7 +5117,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -5185,7 +5150,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -5218,7 +5183,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>171</v>
       </c>
@@ -5251,7 +5216,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -5284,7 +5249,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -5317,7 +5282,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
@@ -5350,7 +5315,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>171</v>
       </c>
@@ -5383,7 +5348,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5416,7 +5381,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>171</v>
       </c>
@@ -5449,7 +5414,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -5482,7 +5447,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -5515,7 +5480,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
@@ -5548,7 +5513,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5581,7 +5546,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
@@ -5614,7 +5579,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -5647,7 +5612,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -5680,7 +5645,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>171</v>
       </c>
@@ -5713,7 +5678,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -5746,7 +5711,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
@@ -5779,7 +5744,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>171</v>
       </c>
@@ -5812,7 +5777,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -5845,7 +5810,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>171</v>
       </c>
@@ -5878,7 +5843,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>171</v>
       </c>
@@ -5911,7 +5876,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -5944,7 +5909,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
@@ -5977,7 +5942,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
@@ -6010,7 +5975,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -6043,7 +6008,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>171</v>
       </c>
@@ -6076,7 +6041,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -6109,7 +6074,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -6142,7 +6107,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
@@ -6175,7 +6140,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -6208,7 +6173,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
@@ -6241,7 +6206,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6274,7 +6239,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -6307,7 +6272,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>171</v>
       </c>
@@ -6340,7 +6305,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -6373,7 +6338,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -6406,7 +6371,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
@@ -6439,7 +6404,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -6472,7 +6437,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -6505,7 +6470,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -6533,14 +6498,14 @@
       <c r="I85" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="J85" s="38" t="s">
+      <c r="J85" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="K85" s="35" t="s">
+      <c r="K85" s="34" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -6568,10 +6533,10 @@
       <c r="I86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J86" s="39"/>
-      <c r="K86" s="36"/>
-    </row>
-    <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="38"/>
+      <c r="K86" s="35"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -6599,10 +6564,10 @@
       <c r="I87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J87" s="39"/>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="38"/>
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
@@ -6630,10 +6595,10 @@
       <c r="I88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J88" s="39"/>
-      <c r="K88" s="36"/>
-    </row>
-    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="38"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -6661,10 +6626,10 @@
       <c r="I89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J89" s="39"/>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="38"/>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -6692,10 +6657,10 @@
       <c r="I90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J90" s="39"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="38"/>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -6723,10 +6688,10 @@
       <c r="I91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="40"/>
-      <c r="K91" s="37"/>
-    </row>
-    <row r="92" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+      <c r="J91" s="39"/>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11" ht="172.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -6737,7 +6702,7 @@
         <v>264</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>138</v>
@@ -6761,7 +6726,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -6796,7 +6761,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>171</v>
       </c>
@@ -6827,11 +6792,11 @@
       <c r="J94" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K94" s="32" t="s">
+      <c r="K94" s="31" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
@@ -6862,9 +6827,9 @@
       <c r="J95" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K95" s="33"/>
-    </row>
-    <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K95" s="32"/>
+    </row>
+    <row r="96" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
@@ -6895,9 +6860,9 @@
       <c r="J96" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K96" s="33"/>
-    </row>
-    <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K96" s="32"/>
+    </row>
+    <row r="97" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -6928,9 +6893,9 @@
       <c r="J97" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K97" s="33"/>
-    </row>
-    <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K97" s="32"/>
+    </row>
+    <row r="98" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
@@ -6961,9 +6926,9 @@
       <c r="J98" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K98" s="34"/>
-    </row>
-    <row r="99" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="K98" s="33"/>
+    </row>
+    <row r="99" spans="1:11" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
@@ -6998,7 +6963,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
@@ -7031,7 +6996,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
@@ -7066,7 +7031,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>171</v>
       </c>
@@ -7101,7 +7066,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -7134,7 +7099,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>171</v>
       </c>
@@ -7167,7 +7132,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
@@ -7200,7 +7165,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>171</v>
       </c>
@@ -7233,7 +7198,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>172</v>
       </c>
@@ -7266,7 +7231,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -7299,7 +7264,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -7332,7 +7297,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
@@ -7367,7 +7332,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -7400,7 +7365,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -7433,7 +7398,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>172</v>
       </c>
@@ -7466,7 +7431,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>172</v>
       </c>
@@ -7499,7 +7464,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
@@ -7532,7 +7497,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>172</v>
       </c>
@@ -7565,7 +7530,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
@@ -7598,7 +7563,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
@@ -7631,7 +7596,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>172</v>
       </c>
@@ -7664,7 +7629,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>172</v>
       </c>
@@ -7697,7 +7662,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>172</v>
       </c>
@@ -7730,7 +7695,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -7763,7 +7728,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>172</v>
       </c>
@@ -7796,7 +7761,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>172</v>
       </c>
@@ -7829,7 +7794,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -7862,7 +7827,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -7897,7 +7862,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
@@ -7930,7 +7895,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
@@ -7963,7 +7928,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>172</v>
       </c>
@@ -7996,7 +7961,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -8029,7 +7994,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -8062,7 +8027,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>173</v>
       </c>
@@ -8095,7 +8060,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>173</v>
       </c>
@@ -8128,7 +8093,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
@@ -8163,7 +8128,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>173</v>
       </c>
@@ -8196,7 +8161,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>173</v>
       </c>
@@ -8229,7 +8194,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>173</v>
       </c>
@@ -8262,7 +8227,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>173</v>
       </c>
@@ -8295,7 +8260,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
@@ -8328,7 +8293,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>173</v>
       </c>
@@ -8361,7 +8326,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>173</v>
       </c>
@@ -8394,7 +8359,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>173</v>
       </c>
@@ -8427,7 +8392,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -8462,7 +8427,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -8495,7 +8460,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>173</v>
       </c>
@@ -8528,7 +8493,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>173</v>
       </c>
@@ -8561,7 +8526,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>173</v>
       </c>
@@ -8613,15 +8578,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -8635,7 +8600,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8647,7 +8612,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8659,7 +8624,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8671,7 +8636,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8683,7 +8648,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8695,7 +8660,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8707,7 +8672,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8719,7 +8684,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -8731,7 +8696,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -8743,7 +8708,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -8755,7 +8720,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -8767,7 +8732,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -8779,7 +8744,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8791,7 +8756,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8803,7 +8768,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8815,7 +8780,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -8827,7 +8792,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -8839,7 +8804,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -8851,7 +8816,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -8863,7 +8828,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -8875,7 +8840,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -8887,7 +8852,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -8899,7 +8864,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -8911,7 +8876,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -8923,7 +8888,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -8935,7 +8900,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -8947,7 +8912,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -8959,7 +8924,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -8971,7 +8936,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -8983,7 +8948,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -8995,7 +8960,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -9007,7 +8972,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -9019,7 +8984,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -9031,7 +8996,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -9043,7 +9008,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -9055,7 +9020,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -9067,7 +9032,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -9079,7 +9044,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -9091,7 +9056,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -9103,7 +9068,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -9115,7 +9080,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -9127,7 +9092,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -9139,7 +9104,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -9151,7 +9116,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -9163,7 +9128,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -9175,7 +9140,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -9187,7 +9152,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -9199,7 +9164,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -9211,7 +9176,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -9223,7 +9188,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -9235,7 +9200,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -9247,7 +9212,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -9259,7 +9224,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -9271,7 +9236,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -9283,7 +9248,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -9295,7 +9260,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -9307,7 +9272,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -9319,7 +9284,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -9331,7 +9296,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -9343,7 +9308,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -9355,7 +9320,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -9367,7 +9332,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -9379,7 +9344,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -9391,7 +9356,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -9403,7 +9368,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -9415,7 +9380,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -9427,7 +9392,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -9439,7 +9404,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -9451,7 +9416,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -9463,7 +9428,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -9475,7 +9440,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -9487,7 +9452,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -9499,7 +9464,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -9511,7 +9476,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -9523,7 +9488,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -9535,7 +9500,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -9547,7 +9512,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -9559,7 +9524,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -9571,7 +9536,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -9583,7 +9548,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -9595,7 +9560,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -9607,7 +9572,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -9619,7 +9584,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -9631,7 +9596,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -9643,7 +9608,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -9655,7 +9620,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -9667,7 +9632,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -9679,7 +9644,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -9691,7 +9656,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -9703,7 +9668,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -9715,7 +9680,7 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -9727,7 +9692,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -9739,7 +9704,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -9751,7 +9716,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -9763,7 +9728,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -9775,7 +9740,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9752,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -9799,7 +9764,7 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -9811,7 +9776,7 @@
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -9823,7 +9788,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -9835,7 +9800,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -9847,7 +9812,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>107</v>
       </c>
@@ -9938,7 +9903,7 @@
       <c r="CB103"/>
       <c r="CC103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -9950,7 +9915,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>107</v>
       </c>
@@ -10041,7 +10006,7 @@
       <c r="CB105"/>
       <c r="CC105"/>
     </row>
-    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
         <v>107</v>
       </c>
@@ -10132,7 +10097,7 @@
       <c r="CB106"/>
       <c r="CC106"/>
     </row>
-    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -10223,7 +10188,7 @@
       <c r="CB107"/>
       <c r="CC107"/>
     </row>
-    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>107</v>
       </c>
@@ -10314,7 +10279,7 @@
       <c r="CB108"/>
       <c r="CC108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -10326,7 +10291,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -10338,7 +10303,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -10350,7 +10315,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -10362,7 +10327,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -10374,7 +10339,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -10386,7 +10351,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -10398,7 +10363,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -10410,7 +10375,7 @@
       </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -10422,7 +10387,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -10434,7 +10399,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -10446,7 +10411,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -10458,7 +10423,7 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -10470,7 +10435,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -10484,7 +10449,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20" t="s">
         <v>122</v>
       </c>
@@ -10498,7 +10463,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>122</v>
       </c>
@@ -10510,7 +10475,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20" t="s">
         <v>122</v>
       </c>
@@ -10524,7 +10489,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>122</v>
       </c>
@@ -10538,7 +10503,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20" t="s">
         <v>122</v>
       </c>
@@ -10552,7 +10517,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>122</v>
       </c>
@@ -10566,7 +10531,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>122</v>
       </c>
@@ -10578,7 +10543,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>122</v>
       </c>
@@ -10590,7 +10555,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -10602,7 +10567,7 @@
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -10614,7 +10579,7 @@
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -10626,7 +10591,7 @@
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -10638,7 +10603,7 @@
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -10674,15 +10639,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -10702,7 +10667,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10722,7 +10687,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10740,7 +10705,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -10758,7 +10723,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10776,7 +10741,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10794,7 +10759,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -10812,7 +10777,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -10830,7 +10795,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -10848,7 +10813,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -10866,7 +10831,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -10884,7 +10849,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -10902,7 +10867,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -10920,7 +10885,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -10938,7 +10903,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10956,7 +10921,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -10974,7 +10939,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -10992,7 +10957,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -11010,7 +10975,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -11028,7 +10993,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -11046,7 +11011,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -11064,7 +11029,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -11082,7 +11047,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -11100,7 +11065,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -11118,7 +11083,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -11136,7 +11101,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -11154,7 +11119,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -11172,7 +11137,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -11190,7 +11155,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -11208,7 +11173,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -11226,7 +11191,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -11244,7 +11209,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -11262,7 +11227,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -11280,7 +11245,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -11298,7 +11263,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -11316,7 +11281,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -11334,7 +11299,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -11352,7 +11317,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -11370,7 +11335,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -11388,7 +11353,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -11406,7 +11371,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -11424,7 +11389,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -11442,7 +11407,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -11460,7 +11425,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -11478,7 +11443,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -11496,7 +11461,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -11514,7 +11479,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -11532,7 +11497,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -11550,7 +11515,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -11568,7 +11533,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -11586,7 +11551,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -11604,7 +11569,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -11622,7 +11587,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -11640,7 +11605,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -11658,7 +11623,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -11676,7 +11641,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -11694,7 +11659,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -11712,7 +11677,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -11730,7 +11695,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -11748,7 +11713,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -11766,7 +11731,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -11784,7 +11749,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -11802,7 +11767,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -11820,7 +11785,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -11838,7 +11803,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -11856,7 +11821,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -11874,7 +11839,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -11892,7 +11857,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -11910,7 +11875,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -11928,7 +11893,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -11946,7 +11911,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -11964,7 +11929,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -11982,7 +11947,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -12000,7 +11965,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -12018,7 +11983,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -12036,7 +12001,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -12054,7 +12019,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -12072,7 +12037,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -12090,7 +12055,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -12108,7 +12073,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -12126,7 +12091,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -12144,7 +12109,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12127,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -12180,7 +12145,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -12198,7 +12163,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -12216,7 +12181,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -12234,7 +12199,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -12252,7 +12217,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -12270,7 +12235,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -12288,7 +12253,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12271,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -12324,7 +12289,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -12342,7 +12307,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -12360,7 +12325,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -12378,7 +12343,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -12396,7 +12361,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -12414,7 +12379,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -12432,7 +12397,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -12450,7 +12415,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -12468,7 +12433,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -12486,7 +12451,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -12504,7 +12469,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -12522,7 +12487,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -12540,7 +12505,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>2</v>
       </c>
@@ -12558,7 +12523,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -12576,7 +12541,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -12592,7 +12557,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -12612,7 +12577,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -12632,7 +12597,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>107</v>
       </c>
@@ -12650,7 +12615,7 @@
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>107</v>
       </c>
@@ -12668,7 +12633,7 @@
       </c>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>107</v>
       </c>
@@ -12686,7 +12651,7 @@
       </c>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>107</v>
       </c>
@@ -12704,7 +12669,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -12722,7 +12687,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -12740,7 +12705,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -12758,7 +12723,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -12776,7 +12741,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -12794,7 +12759,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -12812,7 +12777,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -12830,7 +12795,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -12848,7 +12813,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -12866,7 +12831,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -12884,7 +12849,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -12902,7 +12867,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -12920,7 +12885,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -12938,7 +12903,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -12956,7 +12921,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -12974,7 +12939,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -12992,7 +12957,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -13010,7 +12975,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>107</v>
       </c>
@@ -13026,7 +12991,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20" t="s">
         <v>122</v>
       </c>
@@ -13046,7 +13011,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -13066,7 +13031,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20" t="s">
         <v>122</v>
       </c>
@@ -13084,7 +13049,7 @@
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20" t="s">
         <v>122</v>
       </c>
@@ -13102,7 +13067,7 @@
       </c>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20" t="s">
         <v>122</v>
       </c>
@@ -13120,7 +13085,7 @@
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20" t="s">
         <v>122</v>
       </c>
@@ -13138,7 +13103,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -13156,7 +13121,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -13174,7 +13139,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -13192,7 +13157,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -13210,7 +13175,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20" t="s">
         <v>122</v>
       </c>
@@ -13228,7 +13193,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20" t="s">
         <v>122</v>
       </c>
@@ -13246,7 +13211,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -13264,7 +13229,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20" t="s">
         <v>122</v>
       </c>
@@ -13282,7 +13247,7 @@
       </c>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20" t="s">
         <v>122</v>
       </c>
@@ -13300,7 +13265,7 @@
       </c>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -13318,7 +13283,7 @@
       </c>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -13352,29 +13317,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O63" sqref="O63:O64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" customWidth="1"/>
-    <col min="9" max="10" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="10" width="21.81640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.77734375" customWidth="1"/>
-    <col min="14" max="15" width="24.77734375" customWidth="1"/>
-    <col min="16" max="16" width="59.21875" customWidth="1"/>
-    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
+    <col min="12" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="15" width="24.81640625" customWidth="1"/>
+    <col min="16" max="16" width="59.1796875" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -13427,7 +13392,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13472,7 +13437,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13515,7 +13480,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -13560,7 +13525,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -13603,7 +13568,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13646,7 +13611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -13689,7 +13654,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13734,7 +13699,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -13777,7 +13742,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -13820,7 +13785,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -13863,7 +13828,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -13906,7 +13871,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13951,7 +13916,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -13994,7 +13959,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14037,7 +14002,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -14080,7 +14045,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -14123,7 +14088,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -14166,7 +14131,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -14209,7 +14174,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -14252,7 +14217,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -14295,7 +14260,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -14338,7 +14303,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -14381,7 +14346,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -14424,7 +14389,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -14467,7 +14432,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -14510,7 +14475,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -14553,7 +14518,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -14596,7 +14561,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -14639,7 +14604,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -14682,7 +14647,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -14725,7 +14690,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -14768,7 +14733,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -14811,7 +14776,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -14854,7 +14819,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -14897,7 +14862,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -14940,7 +14905,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -14983,7 +14948,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -15026,7 +14991,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -15069,7 +15034,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -15112,7 +15077,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -15155,7 +15120,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -15198,7 +15163,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -15241,7 +15206,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -15284,7 +15249,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -15327,7 +15292,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -15370,7 +15335,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -15413,7 +15378,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -15456,7 +15421,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -15499,7 +15464,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -15542,7 +15507,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -15585,7 +15550,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -15628,7 +15593,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -15671,7 +15636,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -15714,7 +15679,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -15757,7 +15722,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -15800,7 +15765,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -15843,7 +15808,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -15886,7 +15851,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -15931,7 +15896,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -15978,7 +15943,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -16023,7 +15988,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -16070,7 +16035,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -16117,7 +16082,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -16162,7 +16127,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -16209,7 +16174,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -16256,7 +16221,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -16301,7 +16266,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -16346,7 +16311,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -16391,7 +16356,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -16436,7 +16401,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -16481,7 +16446,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -16524,7 +16489,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -16567,7 +16532,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -16612,7 +16577,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -16657,7 +16622,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -16702,7 +16667,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -16745,7 +16710,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -16790,7 +16755,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -16833,7 +16798,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -16855,7 +16820,7 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="7" t="s">
         <v>371</v>
       </c>
       <c r="I80" s="8"/>
@@ -16874,7 +16839,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -16917,7 +16882,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -16960,7 +16925,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -17005,7 +16970,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -17048,7 +17013,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -17091,7 +17056,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -17134,7 +17099,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -17177,7 +17142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -17220,7 +17185,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -17263,7 +17228,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -17306,7 +17271,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -17349,7 +17314,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -17392,7 +17357,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -17435,7 +17400,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -17478,7 +17443,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -17521,7 +17486,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -17564,7 +17529,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -17607,7 +17572,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -17650,7 +17615,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -17693,7 +17658,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -17736,7 +17701,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -17779,7 +17744,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -17826,7 +17791,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -17871,7 +17836,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -17918,7 +17883,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -17965,7 +17930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -18012,7 +17977,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
@@ -18059,7 +18024,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -18104,7 +18069,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -18153,7 +18118,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -18200,7 +18165,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -18247,7 +18212,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -18294,7 +18259,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -18341,7 +18306,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -18388,7 +18353,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -18435,7 +18400,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -18478,7 +18443,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -18523,7 +18488,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -18568,7 +18533,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -18613,7 +18578,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -18658,7 +18623,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -18703,7 +18668,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -18748,7 +18713,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
@@ -18810,14 +18775,14 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>404</v>
       </c>
@@ -18828,7 +18793,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -18839,7 +18804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -18850,7 +18815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -18861,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -18872,7 +18837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -18883,7 +18848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -18894,7 +18859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -18905,7 +18870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -18916,7 +18881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -18927,7 +18892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -18938,7 +18903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -18949,7 +18914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -18960,7 +18925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -18971,7 +18936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -18982,7 +18947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -18993,7 +18958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -19004,7 +18969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -19015,7 +18980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -19026,7 +18991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -19037,7 +19002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -19048,7 +19013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -19059,7 +19024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -19070,7 +19035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -19081,7 +19046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -19092,7 +19057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -19103,7 +19068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -19114,7 +19079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -19125,7 +19090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -19136,7 +19101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -19147,7 +19112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -19158,7 +19123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -19169,7 +19134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -19180,7 +19145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -19191,7 +19156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -19202,7 +19167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -19213,7 +19178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -19224,7 +19189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -19235,7 +19200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -19246,7 +19211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -19257,7 +19222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -19268,7 +19233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -19279,7 +19244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -19290,7 +19255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -19301,7 +19266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -19312,7 +19277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -19323,7 +19288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -19334,7 +19299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -19345,7 +19310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -19356,7 +19321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -19367,7 +19332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -19378,7 +19343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -19389,7 +19354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -19400,7 +19365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -19411,7 +19376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -19422,7 +19387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -19433,7 +19398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -19444,7 +19409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -19455,7 +19420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -19466,7 +19431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -19477,7 +19442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -19488,7 +19453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -19499,7 +19464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -19510,7 +19475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -19521,7 +19486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -19532,7 +19497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -19543,7 +19508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -19554,7 +19519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -19565,7 +19530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -19576,7 +19541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -19587,7 +19552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -19598,7 +19563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -19609,7 +19574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -19620,7 +19585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -19631,7 +19596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -19642,7 +19607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -19653,7 +19618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -19664,7 +19629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -19675,7 +19640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -19686,7 +19651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -19697,7 +19662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -19708,7 +19673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -19719,7 +19684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -19730,7 +19695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -19741,7 +19706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -19752,7 +19717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -19763,7 +19728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -19774,7 +19739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -19785,7 +19750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -19796,7 +19761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -19807,7 +19772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -19818,7 +19783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -19829,7 +19794,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -19840,7 +19805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -19851,7 +19816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -19862,7 +19827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -19873,7 +19838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -19884,7 +19849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -19895,7 +19860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -19906,7 +19871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -19917,7 +19882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -19928,7 +19893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>2</v>
       </c>
@@ -19939,7 +19904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -19950,7 +19915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>2</v>
       </c>
@@ -19961,7 +19926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -19972,7 +19937,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -19983,7 +19948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -19994,7 +19959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -20005,7 +19970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -20016,7 +19981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -20027,7 +19992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -20038,7 +20003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -20049,7 +20014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -20060,7 +20025,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -20071,7 +20036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -20082,7 +20047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -20093,7 +20058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -20104,7 +20069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -20115,7 +20080,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -20126,7 +20091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -20137,7 +20102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -20148,7 +20113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -20159,7 +20124,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -20170,7 +20135,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -20181,7 +20146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -20192,7 +20157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -20203,7 +20168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -20214,7 +20179,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>107</v>
       </c>
@@ -20225,7 +20190,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>107</v>
       </c>
@@ -20236,7 +20201,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>107</v>
       </c>
@@ -20247,7 +20212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -20258,7 +20223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -20269,7 +20234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -20280,7 +20245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -20291,7 +20256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -20302,7 +20267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>122</v>
       </c>
@@ -20313,7 +20278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -20324,7 +20289,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -20335,7 +20300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -20346,7 +20311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -20357,7 +20322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>122</v>
       </c>
@@ -20368,7 +20333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>122</v>
       </c>
@@ -20379,7 +20344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -20390,7 +20355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>122</v>
       </c>
@@ -20401,7 +20366,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>122</v>
       </c>
@@ -20412,7 +20377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -20423,7 +20388,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -20447,25 +20412,25 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="9" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" customWidth="1"/>
+    <col min="8" max="9" width="21.81640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="14" width="24.77734375" customWidth="1"/>
-    <col min="15" max="15" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="14" width="24.81640625" customWidth="1"/>
+    <col min="15" max="15" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -20518,7 +20483,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -20563,7 +20528,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -20606,7 +20571,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -20651,7 +20616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -20694,7 +20659,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -20737,7 +20702,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -20780,7 +20745,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -20825,7 +20790,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -20868,7 +20833,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -20911,7 +20876,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -20954,7 +20919,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -20997,7 +20962,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -21042,7 +21007,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -21085,7 +21050,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -21128,7 +21093,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -21171,7 +21136,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -21214,7 +21179,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -21257,7 +21222,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -21300,7 +21265,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -21343,7 +21308,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -21386,7 +21351,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -21429,7 +21394,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -21472,7 +21437,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -21515,7 +21480,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -21558,7 +21523,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -21601,7 +21566,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -21644,7 +21609,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -21687,7 +21652,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -21730,7 +21695,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -21773,7 +21738,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -21816,7 +21781,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -21859,7 +21824,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -21902,7 +21867,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -21945,7 +21910,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -21988,7 +21953,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -22031,7 +21996,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -22074,7 +22039,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -22117,7 +22082,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -22160,7 +22125,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -22203,7 +22168,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -22246,7 +22211,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -22289,7 +22254,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -22332,7 +22297,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -22375,7 +22340,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -22418,7 +22383,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -22461,7 +22426,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -22504,7 +22469,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -22547,7 +22512,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -22590,7 +22555,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -22633,7 +22598,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -22676,7 +22641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -22719,7 +22684,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -22762,7 +22727,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -22805,7 +22770,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -22848,7 +22813,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -22891,7 +22856,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -22934,7 +22899,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -22977,7 +22942,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -23022,7 +22987,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -23069,7 +23034,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -23114,7 +23079,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -23161,7 +23126,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -23208,7 +23173,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -23253,7 +23218,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -23300,7 +23265,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -23347,7 +23312,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -23392,7 +23357,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -23437,7 +23402,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -23482,7 +23447,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -23527,7 +23492,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -23572,7 +23537,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -23615,7 +23580,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -23658,7 +23623,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -23703,7 +23668,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -23748,7 +23713,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -23793,7 +23758,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -23836,7 +23801,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -23881,7 +23846,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -23924,7 +23889,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -23965,7 +23930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -24008,7 +23973,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -24051,7 +24016,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -24096,7 +24061,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -24139,7 +24104,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -24182,7 +24147,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -24225,7 +24190,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -24268,7 +24233,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -24311,7 +24276,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -24354,7 +24319,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -24397,7 +24362,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -24440,7 +24405,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -24483,7 +24448,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -24526,7 +24491,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -24569,7 +24534,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -24612,7 +24577,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -24655,7 +24620,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -24698,7 +24663,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -24741,7 +24706,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -24784,7 +24749,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -24827,7 +24792,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -24870,7 +24835,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -24917,7 +24882,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -24962,7 +24927,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -25009,7 +24974,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -25056,7 +25021,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -25103,7 +25068,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -25150,7 +25115,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -25197,7 +25162,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -25246,7 +25211,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -25293,7 +25258,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -25340,7 +25305,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -25387,7 +25352,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -25434,7 +25399,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -25481,7 +25446,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -25528,7 +25493,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -25571,7 +25536,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -25616,7 +25581,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -25661,7 +25626,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -25706,7 +25671,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -25751,7 +25716,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -25796,7 +25761,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -25841,7 +25806,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temas\Informativas\Documentos Digitales\POL 5611\Insumos XML-JSON\Esquemas JSON\IVAN\Diccionario Esquemas\Integración\archivos_integracion\29052024\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E719E8-2F10-46E7-9020-291E50683CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD794FE4-87D5-45B5-BB52-757011810CA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="1" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="588">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -2739,9 +2739,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2779,9 +2779,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2814,9 +2814,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2849,9 +2866,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3031,16 +3065,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3088,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3068,7 +3102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
@@ -3082,7 +3116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3106,597 +3140,597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D148" sqref="D147:D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.1796875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="2"/>
-    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="247" width="11.453125" style="2"/>
+    <col min="11" max="11" width="29.21875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.44140625" style="2"/>
+    <col min="15" max="15" width="15.77734375" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="11.44140625" style="2"/>
     <col min="248" max="248" width="33" style="2" customWidth="1"/>
     <col min="249" max="249" width="25" style="2" customWidth="1"/>
-    <col min="250" max="250" width="25.81640625" style="2" customWidth="1"/>
-    <col min="251" max="251" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.453125" style="2" customWidth="1"/>
-    <col min="253" max="253" width="18.453125" style="2" customWidth="1"/>
+    <col min="250" max="250" width="25.77734375" style="2" customWidth="1"/>
+    <col min="251" max="251" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.44140625" style="2" customWidth="1"/>
+    <col min="253" max="253" width="18.44140625" style="2" customWidth="1"/>
     <col min="254" max="254" width="20" style="2" customWidth="1"/>
-    <col min="255" max="255" width="36.54296875" style="2" customWidth="1"/>
-    <col min="256" max="503" width="11.453125" style="2"/>
+    <col min="255" max="255" width="36.5546875" style="2" customWidth="1"/>
+    <col min="256" max="503" width="11.44140625" style="2"/>
     <col min="504" max="504" width="33" style="2" customWidth="1"/>
     <col min="505" max="505" width="25" style="2" customWidth="1"/>
-    <col min="506" max="506" width="25.81640625" style="2" customWidth="1"/>
-    <col min="507" max="507" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="22.453125" style="2" customWidth="1"/>
-    <col min="509" max="509" width="18.453125" style="2" customWidth="1"/>
+    <col min="506" max="506" width="25.77734375" style="2" customWidth="1"/>
+    <col min="507" max="507" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="22.44140625" style="2" customWidth="1"/>
+    <col min="509" max="509" width="18.44140625" style="2" customWidth="1"/>
     <col min="510" max="510" width="20" style="2" customWidth="1"/>
-    <col min="511" max="511" width="36.54296875" style="2" customWidth="1"/>
-    <col min="512" max="759" width="11.453125" style="2"/>
+    <col min="511" max="511" width="36.5546875" style="2" customWidth="1"/>
+    <col min="512" max="759" width="11.44140625" style="2"/>
     <col min="760" max="760" width="33" style="2" customWidth="1"/>
     <col min="761" max="761" width="25" style="2" customWidth="1"/>
-    <col min="762" max="762" width="25.81640625" style="2" customWidth="1"/>
-    <col min="763" max="763" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="22.453125" style="2" customWidth="1"/>
-    <col min="765" max="765" width="18.453125" style="2" customWidth="1"/>
+    <col min="762" max="762" width="25.77734375" style="2" customWidth="1"/>
+    <col min="763" max="763" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="22.44140625" style="2" customWidth="1"/>
+    <col min="765" max="765" width="18.44140625" style="2" customWidth="1"/>
     <col min="766" max="766" width="20" style="2" customWidth="1"/>
-    <col min="767" max="767" width="36.54296875" style="2" customWidth="1"/>
-    <col min="768" max="1015" width="11.453125" style="2"/>
+    <col min="767" max="767" width="36.5546875" style="2" customWidth="1"/>
+    <col min="768" max="1015" width="11.44140625" style="2"/>
     <col min="1016" max="1016" width="33" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="25" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="25.81640625" style="2" customWidth="1"/>
-    <col min="1019" max="1019" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="22.453125" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="18.453125" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1019" max="1019" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1020" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="18.44140625" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="20" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1024" max="1271" width="11.453125" style="2"/>
+    <col min="1023" max="1023" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1024" max="1271" width="11.44140625" style="2"/>
     <col min="1272" max="1272" width="33" style="2" customWidth="1"/>
     <col min="1273" max="1273" width="25" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="25.81640625" style="2" customWidth="1"/>
-    <col min="1275" max="1275" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1276" max="1276" width="22.453125" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="18.453125" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1275" max="1275" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1276" max="1276" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="18.44140625" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="20" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1280" max="1527" width="11.453125" style="2"/>
+    <col min="1279" max="1279" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1280" max="1527" width="11.44140625" style="2"/>
     <col min="1528" max="1528" width="33" style="2" customWidth="1"/>
     <col min="1529" max="1529" width="25" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="25.81640625" style="2" customWidth="1"/>
-    <col min="1531" max="1531" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1532" max="1532" width="22.453125" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="18.453125" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1531" max="1531" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1532" max="1532" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="18.44140625" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="20" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1536" max="1783" width="11.453125" style="2"/>
+    <col min="1535" max="1535" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1536" max="1783" width="11.44140625" style="2"/>
     <col min="1784" max="1784" width="33" style="2" customWidth="1"/>
     <col min="1785" max="1785" width="25" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="25.81640625" style="2" customWidth="1"/>
-    <col min="1787" max="1787" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1788" max="1788" width="22.453125" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="18.453125" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1787" max="1787" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1788" max="1788" width="22.44140625" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="18.44140625" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="20" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="36.54296875" style="2" customWidth="1"/>
-    <col min="1792" max="2039" width="11.453125" style="2"/>
+    <col min="1791" max="1791" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1792" max="2039" width="11.44140625" style="2"/>
     <col min="2040" max="2040" width="33" style="2" customWidth="1"/>
     <col min="2041" max="2041" width="25" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2043" max="2043" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2044" max="2044" width="22.453125" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="18.453125" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2043" max="2043" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2044" max="2044" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="18.44140625" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="20" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2048" max="2295" width="11.453125" style="2"/>
+    <col min="2047" max="2047" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2048" max="2295" width="11.44140625" style="2"/>
     <col min="2296" max="2296" width="33" style="2" customWidth="1"/>
     <col min="2297" max="2297" width="25" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2299" max="2299" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2300" max="2300" width="22.453125" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="18.453125" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2299" max="2299" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2300" max="2300" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="18.44140625" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="20" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2304" max="2551" width="11.453125" style="2"/>
+    <col min="2303" max="2303" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2304" max="2551" width="11.44140625" style="2"/>
     <col min="2552" max="2552" width="33" style="2" customWidth="1"/>
     <col min="2553" max="2553" width="25" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2555" max="2555" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2556" max="2556" width="22.453125" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="18.453125" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2555" max="2555" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2556" max="2556" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="18.44140625" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="20" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2560" max="2807" width="11.453125" style="2"/>
+    <col min="2559" max="2559" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2560" max="2807" width="11.44140625" style="2"/>
     <col min="2808" max="2808" width="33" style="2" customWidth="1"/>
     <col min="2809" max="2809" width="25" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2811" max="2811" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2812" max="2812" width="22.453125" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="18.453125" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2811" max="2811" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2812" max="2812" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="18.44140625" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="20" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="36.54296875" style="2" customWidth="1"/>
-    <col min="2816" max="3063" width="11.453125" style="2"/>
+    <col min="2815" max="2815" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2816" max="3063" width="11.44140625" style="2"/>
     <col min="3064" max="3064" width="33" style="2" customWidth="1"/>
     <col min="3065" max="3065" width="25" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="25.81640625" style="2" customWidth="1"/>
-    <col min="3067" max="3067" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3068" max="3068" width="22.453125" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="18.453125" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3067" max="3067" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3068" max="3068" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="18.44140625" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="20" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3072" max="3319" width="11.453125" style="2"/>
+    <col min="3071" max="3071" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3072" max="3319" width="11.44140625" style="2"/>
     <col min="3320" max="3320" width="33" style="2" customWidth="1"/>
     <col min="3321" max="3321" width="25" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="25.81640625" style="2" customWidth="1"/>
-    <col min="3323" max="3323" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3324" max="3324" width="22.453125" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="18.453125" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3323" max="3323" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3324" max="3324" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="18.44140625" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="20" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3328" max="3575" width="11.453125" style="2"/>
+    <col min="3327" max="3327" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3328" max="3575" width="11.44140625" style="2"/>
     <col min="3576" max="3576" width="33" style="2" customWidth="1"/>
     <col min="3577" max="3577" width="25" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="25.81640625" style="2" customWidth="1"/>
-    <col min="3579" max="3579" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3580" max="3580" width="22.453125" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="18.453125" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3579" max="3579" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3580" max="3580" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="18.44140625" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="20" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3584" max="3831" width="11.453125" style="2"/>
+    <col min="3583" max="3583" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3584" max="3831" width="11.44140625" style="2"/>
     <col min="3832" max="3832" width="33" style="2" customWidth="1"/>
     <col min="3833" max="3833" width="25" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="25.81640625" style="2" customWidth="1"/>
-    <col min="3835" max="3835" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3836" max="3836" width="22.453125" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="18.453125" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3835" max="3835" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3836" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="18.44140625" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="20" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="36.54296875" style="2" customWidth="1"/>
-    <col min="3840" max="4087" width="11.453125" style="2"/>
+    <col min="3839" max="3839" width="36.5546875" style="2" customWidth="1"/>
+    <col min="3840" max="4087" width="11.44140625" style="2"/>
     <col min="4088" max="4088" width="33" style="2" customWidth="1"/>
     <col min="4089" max="4089" width="25" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="25.81640625" style="2" customWidth="1"/>
-    <col min="4091" max="4091" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4092" max="4092" width="22.453125" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="18.453125" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4091" max="4091" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4092" max="4092" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="18.44140625" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="20" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4096" max="4343" width="11.453125" style="2"/>
+    <col min="4095" max="4095" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4096" max="4343" width="11.44140625" style="2"/>
     <col min="4344" max="4344" width="33" style="2" customWidth="1"/>
     <col min="4345" max="4345" width="25" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="25.81640625" style="2" customWidth="1"/>
-    <col min="4347" max="4347" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4348" max="4348" width="22.453125" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="18.453125" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4347" max="4347" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4348" max="4348" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="18.44140625" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="20" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4352" max="4599" width="11.453125" style="2"/>
+    <col min="4351" max="4351" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4352" max="4599" width="11.44140625" style="2"/>
     <col min="4600" max="4600" width="33" style="2" customWidth="1"/>
     <col min="4601" max="4601" width="25" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="25.81640625" style="2" customWidth="1"/>
-    <col min="4603" max="4603" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4604" max="4604" width="22.453125" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="18.453125" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4603" max="4603" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4604" max="4604" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="18.44140625" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="20" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4608" max="4855" width="11.453125" style="2"/>
+    <col min="4607" max="4607" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4608" max="4855" width="11.44140625" style="2"/>
     <col min="4856" max="4856" width="33" style="2" customWidth="1"/>
     <col min="4857" max="4857" width="25" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="25.81640625" style="2" customWidth="1"/>
-    <col min="4859" max="4859" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4860" max="4860" width="22.453125" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="18.453125" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="25.77734375" style="2" customWidth="1"/>
+    <col min="4859" max="4859" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4860" max="4860" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="18.44140625" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="20" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="36.54296875" style="2" customWidth="1"/>
-    <col min="4864" max="5111" width="11.453125" style="2"/>
+    <col min="4863" max="4863" width="36.5546875" style="2" customWidth="1"/>
+    <col min="4864" max="5111" width="11.44140625" style="2"/>
     <col min="5112" max="5112" width="33" style="2" customWidth="1"/>
     <col min="5113" max="5113" width="25" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="25.81640625" style="2" customWidth="1"/>
-    <col min="5115" max="5115" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5116" max="5116" width="22.453125" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="18.453125" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5115" max="5115" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5116" max="5116" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="18.44140625" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="20" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5120" max="5367" width="11.453125" style="2"/>
+    <col min="5119" max="5119" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5120" max="5367" width="11.44140625" style="2"/>
     <col min="5368" max="5368" width="33" style="2" customWidth="1"/>
     <col min="5369" max="5369" width="25" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="25.81640625" style="2" customWidth="1"/>
-    <col min="5371" max="5371" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5372" max="5372" width="22.453125" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="18.453125" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5371" max="5371" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5372" max="5372" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="18.44140625" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="20" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5376" max="5623" width="11.453125" style="2"/>
+    <col min="5375" max="5375" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5376" max="5623" width="11.44140625" style="2"/>
     <col min="5624" max="5624" width="33" style="2" customWidth="1"/>
     <col min="5625" max="5625" width="25" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="25.81640625" style="2" customWidth="1"/>
-    <col min="5627" max="5627" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5628" max="5628" width="22.453125" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="18.453125" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5627" max="5627" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5628" max="5628" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="18.44140625" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="20" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5632" max="5879" width="11.453125" style="2"/>
+    <col min="5631" max="5631" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5632" max="5879" width="11.44140625" style="2"/>
     <col min="5880" max="5880" width="33" style="2" customWidth="1"/>
     <col min="5881" max="5881" width="25" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="25.81640625" style="2" customWidth="1"/>
-    <col min="5883" max="5883" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5884" max="5884" width="22.453125" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="18.453125" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5883" max="5883" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5884" width="22.44140625" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="18.44140625" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="20" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="36.54296875" style="2" customWidth="1"/>
-    <col min="5888" max="6135" width="11.453125" style="2"/>
+    <col min="5887" max="5887" width="36.5546875" style="2" customWidth="1"/>
+    <col min="5888" max="6135" width="11.44140625" style="2"/>
     <col min="6136" max="6136" width="33" style="2" customWidth="1"/>
     <col min="6137" max="6137" width="25" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="25.81640625" style="2" customWidth="1"/>
-    <col min="6139" max="6139" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6140" max="6140" width="22.453125" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="18.453125" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6139" max="6139" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6140" max="6140" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="18.44140625" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="20" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6144" max="6391" width="11.453125" style="2"/>
+    <col min="6143" max="6143" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6144" max="6391" width="11.44140625" style="2"/>
     <col min="6392" max="6392" width="33" style="2" customWidth="1"/>
     <col min="6393" max="6393" width="25" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="25.81640625" style="2" customWidth="1"/>
-    <col min="6395" max="6395" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6396" max="6396" width="22.453125" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="18.453125" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6395" max="6395" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6396" max="6396" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="18.44140625" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="20" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6400" max="6647" width="11.453125" style="2"/>
+    <col min="6399" max="6399" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6400" max="6647" width="11.44140625" style="2"/>
     <col min="6648" max="6648" width="33" style="2" customWidth="1"/>
     <col min="6649" max="6649" width="25" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="25.81640625" style="2" customWidth="1"/>
-    <col min="6651" max="6651" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6652" max="6652" width="22.453125" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="18.453125" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6651" max="6651" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6652" max="6652" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="18.44140625" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="20" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6656" max="6903" width="11.453125" style="2"/>
+    <col min="6655" max="6655" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6656" max="6903" width="11.44140625" style="2"/>
     <col min="6904" max="6904" width="33" style="2" customWidth="1"/>
     <col min="6905" max="6905" width="25" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="25.81640625" style="2" customWidth="1"/>
-    <col min="6907" max="6907" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6908" max="6908" width="22.453125" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="18.453125" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="25.77734375" style="2" customWidth="1"/>
+    <col min="6907" max="6907" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6908" max="6908" width="22.44140625" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="18.44140625" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="20" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="36.54296875" style="2" customWidth="1"/>
-    <col min="6912" max="7159" width="11.453125" style="2"/>
+    <col min="6911" max="6911" width="36.5546875" style="2" customWidth="1"/>
+    <col min="6912" max="7159" width="11.44140625" style="2"/>
     <col min="7160" max="7160" width="33" style="2" customWidth="1"/>
     <col min="7161" max="7161" width="25" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="25.81640625" style="2" customWidth="1"/>
-    <col min="7163" max="7163" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7164" max="7164" width="22.453125" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="18.453125" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7163" max="7163" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7164" max="7164" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="18.44140625" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="20" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7168" max="7415" width="11.453125" style="2"/>
+    <col min="7167" max="7167" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7168" max="7415" width="11.44140625" style="2"/>
     <col min="7416" max="7416" width="33" style="2" customWidth="1"/>
     <col min="7417" max="7417" width="25" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="25.81640625" style="2" customWidth="1"/>
-    <col min="7419" max="7419" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7420" max="7420" width="22.453125" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="18.453125" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7419" max="7419" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7420" max="7420" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="18.44140625" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="20" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7424" max="7671" width="11.453125" style="2"/>
+    <col min="7423" max="7423" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7424" max="7671" width="11.44140625" style="2"/>
     <col min="7672" max="7672" width="33" style="2" customWidth="1"/>
     <col min="7673" max="7673" width="25" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="25.81640625" style="2" customWidth="1"/>
-    <col min="7675" max="7675" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7676" max="7676" width="22.453125" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="18.453125" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7675" max="7675" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7676" max="7676" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="18.44140625" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="20" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7680" max="7927" width="11.453125" style="2"/>
+    <col min="7679" max="7679" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7680" max="7927" width="11.44140625" style="2"/>
     <col min="7928" max="7928" width="33" style="2" customWidth="1"/>
     <col min="7929" max="7929" width="25" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="25.81640625" style="2" customWidth="1"/>
-    <col min="7931" max="7931" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7932" max="7932" width="22.453125" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="18.453125" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7931" max="7931" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7932" max="7932" width="22.44140625" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="18.44140625" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="20" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="36.54296875" style="2" customWidth="1"/>
-    <col min="7936" max="8183" width="11.453125" style="2"/>
+    <col min="7935" max="7935" width="36.5546875" style="2" customWidth="1"/>
+    <col min="7936" max="8183" width="11.44140625" style="2"/>
     <col min="8184" max="8184" width="33" style="2" customWidth="1"/>
     <col min="8185" max="8185" width="25" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="25.81640625" style="2" customWidth="1"/>
-    <col min="8187" max="8187" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8188" max="8188" width="22.453125" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="18.453125" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8187" max="8187" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8188" max="8188" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="18.44140625" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="20" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8192" max="8439" width="11.453125" style="2"/>
+    <col min="8191" max="8191" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8192" max="8439" width="11.44140625" style="2"/>
     <col min="8440" max="8440" width="33" style="2" customWidth="1"/>
     <col min="8441" max="8441" width="25" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="25.81640625" style="2" customWidth="1"/>
-    <col min="8443" max="8443" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8444" max="8444" width="22.453125" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="18.453125" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8443" max="8443" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8444" max="8444" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="18.44140625" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="20" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8448" max="8695" width="11.453125" style="2"/>
+    <col min="8447" max="8447" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8448" max="8695" width="11.44140625" style="2"/>
     <col min="8696" max="8696" width="33" style="2" customWidth="1"/>
     <col min="8697" max="8697" width="25" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="25.81640625" style="2" customWidth="1"/>
-    <col min="8699" max="8699" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8700" max="8700" width="22.453125" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="18.453125" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8699" max="8699" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8700" max="8700" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="18.44140625" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="20" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8704" max="8951" width="11.453125" style="2"/>
+    <col min="8703" max="8703" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8704" max="8951" width="11.44140625" style="2"/>
     <col min="8952" max="8952" width="33" style="2" customWidth="1"/>
     <col min="8953" max="8953" width="25" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="25.81640625" style="2" customWidth="1"/>
-    <col min="8955" max="8955" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8956" max="8956" width="22.453125" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="18.453125" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8955" max="8955" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8956" max="8956" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="18.44140625" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="20" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="36.54296875" style="2" customWidth="1"/>
-    <col min="8960" max="9207" width="11.453125" style="2"/>
+    <col min="8959" max="8959" width="36.5546875" style="2" customWidth="1"/>
+    <col min="8960" max="9207" width="11.44140625" style="2"/>
     <col min="9208" max="9208" width="33" style="2" customWidth="1"/>
     <col min="9209" max="9209" width="25" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="25.81640625" style="2" customWidth="1"/>
-    <col min="9211" max="9211" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9212" max="9212" width="22.453125" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="18.453125" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9211" max="9211" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9212" max="9212" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="18.44140625" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="20" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9216" max="9463" width="11.453125" style="2"/>
+    <col min="9215" max="9215" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9216" max="9463" width="11.44140625" style="2"/>
     <col min="9464" max="9464" width="33" style="2" customWidth="1"/>
     <col min="9465" max="9465" width="25" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="25.81640625" style="2" customWidth="1"/>
-    <col min="9467" max="9467" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9468" max="9468" width="22.453125" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="18.453125" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9467" max="9467" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9468" max="9468" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="18.44140625" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="20" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9472" max="9719" width="11.453125" style="2"/>
+    <col min="9471" max="9471" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9472" max="9719" width="11.44140625" style="2"/>
     <col min="9720" max="9720" width="33" style="2" customWidth="1"/>
     <col min="9721" max="9721" width="25" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="25.81640625" style="2" customWidth="1"/>
-    <col min="9723" max="9723" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9724" max="9724" width="22.453125" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="18.453125" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9723" max="9723" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9724" max="9724" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="18.44140625" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="20" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9728" max="9975" width="11.453125" style="2"/>
+    <col min="9727" max="9727" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9728" max="9975" width="11.44140625" style="2"/>
     <col min="9976" max="9976" width="33" style="2" customWidth="1"/>
     <col min="9977" max="9977" width="25" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="25.81640625" style="2" customWidth="1"/>
-    <col min="9979" max="9979" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9980" max="9980" width="22.453125" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="18.453125" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="25.77734375" style="2" customWidth="1"/>
+    <col min="9979" max="9979" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9980" max="9980" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="18.44140625" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="20" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="36.54296875" style="2" customWidth="1"/>
-    <col min="9984" max="10231" width="11.453125" style="2"/>
+    <col min="9983" max="9983" width="36.5546875" style="2" customWidth="1"/>
+    <col min="9984" max="10231" width="11.44140625" style="2"/>
     <col min="10232" max="10232" width="33" style="2" customWidth="1"/>
     <col min="10233" max="10233" width="25" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="25.81640625" style="2" customWidth="1"/>
-    <col min="10235" max="10235" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10236" max="10236" width="22.453125" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="18.453125" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10235" max="10235" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10236" max="10236" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="18.44140625" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="20" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10240" max="10487" width="11.453125" style="2"/>
+    <col min="10239" max="10239" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10240" max="10487" width="11.44140625" style="2"/>
     <col min="10488" max="10488" width="33" style="2" customWidth="1"/>
     <col min="10489" max="10489" width="25" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="25.81640625" style="2" customWidth="1"/>
-    <col min="10491" max="10491" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10492" max="10492" width="22.453125" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="18.453125" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10491" max="10491" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10492" max="10492" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="18.44140625" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="20" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10496" max="10743" width="11.453125" style="2"/>
+    <col min="10495" max="10495" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10496" max="10743" width="11.44140625" style="2"/>
     <col min="10744" max="10744" width="33" style="2" customWidth="1"/>
     <col min="10745" max="10745" width="25" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="25.81640625" style="2" customWidth="1"/>
-    <col min="10747" max="10747" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10748" max="10748" width="22.453125" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="18.453125" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10747" max="10747" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10748" max="10748" width="22.44140625" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="18.44140625" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="20" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="36.54296875" style="2" customWidth="1"/>
-    <col min="10752" max="10999" width="11.453125" style="2"/>
+    <col min="10751" max="10751" width="36.5546875" style="2" customWidth="1"/>
+    <col min="10752" max="10999" width="11.44140625" style="2"/>
     <col min="11000" max="11000" width="33" style="2" customWidth="1"/>
     <col min="11001" max="11001" width="25" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="25.81640625" style="2" customWidth="1"/>
-    <col min="11003" max="11003" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11004" max="11004" width="22.453125" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="18.453125" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11003" max="11003" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11004" max="11004" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="18.44140625" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="20" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11008" max="11255" width="11.453125" style="2"/>
+    <col min="11007" max="11007" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11008" max="11255" width="11.44140625" style="2"/>
     <col min="11256" max="11256" width="33" style="2" customWidth="1"/>
     <col min="11257" max="11257" width="25" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="25.81640625" style="2" customWidth="1"/>
-    <col min="11259" max="11259" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11260" max="11260" width="22.453125" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="18.453125" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11259" max="11259" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11260" max="11260" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="18.44140625" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="20" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11264" max="11511" width="11.453125" style="2"/>
+    <col min="11263" max="11263" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11264" max="11511" width="11.44140625" style="2"/>
     <col min="11512" max="11512" width="33" style="2" customWidth="1"/>
     <col min="11513" max="11513" width="25" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="25.81640625" style="2" customWidth="1"/>
-    <col min="11515" max="11515" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11516" max="11516" width="22.453125" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="18.453125" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11515" max="11515" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11516" max="11516" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="18.44140625" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="20" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11520" max="11767" width="11.453125" style="2"/>
+    <col min="11519" max="11519" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11520" max="11767" width="11.44140625" style="2"/>
     <col min="11768" max="11768" width="33" style="2" customWidth="1"/>
     <col min="11769" max="11769" width="25" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="25.81640625" style="2" customWidth="1"/>
-    <col min="11771" max="11771" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11772" max="11772" width="22.453125" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="18.453125" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11771" max="11771" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11772" max="11772" width="22.44140625" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="18.44140625" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="20" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="36.54296875" style="2" customWidth="1"/>
-    <col min="11776" max="12023" width="11.453125" style="2"/>
+    <col min="11775" max="11775" width="36.5546875" style="2" customWidth="1"/>
+    <col min="11776" max="12023" width="11.44140625" style="2"/>
     <col min="12024" max="12024" width="33" style="2" customWidth="1"/>
     <col min="12025" max="12025" width="25" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="25.81640625" style="2" customWidth="1"/>
-    <col min="12027" max="12027" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12028" max="12028" width="22.453125" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="18.453125" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12027" max="12027" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12028" max="12028" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="18.44140625" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="20" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12032" max="12279" width="11.453125" style="2"/>
+    <col min="12031" max="12031" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12032" max="12279" width="11.44140625" style="2"/>
     <col min="12280" max="12280" width="33" style="2" customWidth="1"/>
     <col min="12281" max="12281" width="25" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="25.81640625" style="2" customWidth="1"/>
-    <col min="12283" max="12283" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12284" max="12284" width="22.453125" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="18.453125" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12283" max="12283" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12284" max="12284" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="18.44140625" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="20" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12288" max="12535" width="11.453125" style="2"/>
+    <col min="12287" max="12287" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12288" max="12535" width="11.44140625" style="2"/>
     <col min="12536" max="12536" width="33" style="2" customWidth="1"/>
     <col min="12537" max="12537" width="25" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="25.81640625" style="2" customWidth="1"/>
-    <col min="12539" max="12539" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12540" max="12540" width="22.453125" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="18.453125" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12539" max="12539" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12540" max="12540" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="18.44140625" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="20" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12544" max="12791" width="11.453125" style="2"/>
+    <col min="12543" max="12543" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12544" max="12791" width="11.44140625" style="2"/>
     <col min="12792" max="12792" width="33" style="2" customWidth="1"/>
     <col min="12793" max="12793" width="25" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="25.81640625" style="2" customWidth="1"/>
-    <col min="12795" max="12795" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12796" max="12796" width="22.453125" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="18.453125" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12795" max="12795" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12796" max="12796" width="22.44140625" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="18.44140625" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="20" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="36.54296875" style="2" customWidth="1"/>
-    <col min="12800" max="13047" width="11.453125" style="2"/>
+    <col min="12799" max="12799" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12800" max="13047" width="11.44140625" style="2"/>
     <col min="13048" max="13048" width="33" style="2" customWidth="1"/>
     <col min="13049" max="13049" width="25" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="25.81640625" style="2" customWidth="1"/>
-    <col min="13051" max="13051" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13052" max="13052" width="22.453125" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="18.453125" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13051" max="13051" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13052" max="13052" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="18.44140625" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="20" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13056" max="13303" width="11.453125" style="2"/>
+    <col min="13055" max="13055" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13056" max="13303" width="11.44140625" style="2"/>
     <col min="13304" max="13304" width="33" style="2" customWidth="1"/>
     <col min="13305" max="13305" width="25" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="25.81640625" style="2" customWidth="1"/>
-    <col min="13307" max="13307" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13308" max="13308" width="22.453125" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="18.453125" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13307" max="13307" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13308" max="13308" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="18.44140625" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="20" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13312" max="13559" width="11.453125" style="2"/>
+    <col min="13311" max="13311" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13312" max="13559" width="11.44140625" style="2"/>
     <col min="13560" max="13560" width="33" style="2" customWidth="1"/>
     <col min="13561" max="13561" width="25" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="25.81640625" style="2" customWidth="1"/>
-    <col min="13563" max="13563" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13564" max="13564" width="22.453125" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="18.453125" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13563" max="13563" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13564" max="13564" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="18.44140625" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="20" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13568" max="13815" width="11.453125" style="2"/>
+    <col min="13567" max="13567" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13568" max="13815" width="11.44140625" style="2"/>
     <col min="13816" max="13816" width="33" style="2" customWidth="1"/>
     <col min="13817" max="13817" width="25" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="25.81640625" style="2" customWidth="1"/>
-    <col min="13819" max="13819" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13820" max="13820" width="22.453125" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="18.453125" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="25.77734375" style="2" customWidth="1"/>
+    <col min="13819" max="13819" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13820" max="13820" width="22.44140625" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="18.44140625" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="20" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="36.54296875" style="2" customWidth="1"/>
-    <col min="13824" max="14071" width="11.453125" style="2"/>
+    <col min="13823" max="13823" width="36.5546875" style="2" customWidth="1"/>
+    <col min="13824" max="14071" width="11.44140625" style="2"/>
     <col min="14072" max="14072" width="33" style="2" customWidth="1"/>
     <col min="14073" max="14073" width="25" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14075" max="14075" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14076" max="14076" width="22.453125" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="18.453125" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14075" max="14075" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14076" max="14076" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="18.44140625" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="20" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14080" max="14327" width="11.453125" style="2"/>
+    <col min="14079" max="14079" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14080" max="14327" width="11.44140625" style="2"/>
     <col min="14328" max="14328" width="33" style="2" customWidth="1"/>
     <col min="14329" max="14329" width="25" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14331" max="14331" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14332" max="14332" width="22.453125" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="18.453125" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14331" max="14331" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14332" max="14332" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="18.44140625" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="20" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14336" max="14583" width="11.453125" style="2"/>
+    <col min="14335" max="14335" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14336" max="14583" width="11.44140625" style="2"/>
     <col min="14584" max="14584" width="33" style="2" customWidth="1"/>
     <col min="14585" max="14585" width="25" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14587" max="14587" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14588" max="14588" width="22.453125" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="18.453125" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14587" max="14587" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14588" max="14588" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="18.44140625" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="20" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14592" max="14839" width="11.453125" style="2"/>
+    <col min="14591" max="14591" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14592" max="14839" width="11.44140625" style="2"/>
     <col min="14840" max="14840" width="33" style="2" customWidth="1"/>
     <col min="14841" max="14841" width="25" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="25.81640625" style="2" customWidth="1"/>
-    <col min="14843" max="14843" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14844" max="14844" width="22.453125" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="18.453125" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="25.77734375" style="2" customWidth="1"/>
+    <col min="14843" max="14843" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14844" max="14844" width="22.44140625" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="18.44140625" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="20" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="36.54296875" style="2" customWidth="1"/>
-    <col min="14848" max="15095" width="11.453125" style="2"/>
+    <col min="14847" max="14847" width="36.5546875" style="2" customWidth="1"/>
+    <col min="14848" max="15095" width="11.44140625" style="2"/>
     <col min="15096" max="15096" width="33" style="2" customWidth="1"/>
     <col min="15097" max="15097" width="25" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="25.81640625" style="2" customWidth="1"/>
-    <col min="15099" max="15099" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15100" max="15100" width="22.453125" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="18.453125" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15099" max="15099" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15100" max="15100" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="18.44140625" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="20" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15104" max="15351" width="11.453125" style="2"/>
+    <col min="15103" max="15103" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15104" max="15351" width="11.44140625" style="2"/>
     <col min="15352" max="15352" width="33" style="2" customWidth="1"/>
     <col min="15353" max="15353" width="25" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="25.81640625" style="2" customWidth="1"/>
-    <col min="15355" max="15355" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15356" max="15356" width="22.453125" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="18.453125" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15355" max="15355" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15356" max="15356" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="18.44140625" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="20" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15360" max="15607" width="11.453125" style="2"/>
+    <col min="15359" max="15359" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15360" max="15607" width="11.44140625" style="2"/>
     <col min="15608" max="15608" width="33" style="2" customWidth="1"/>
     <col min="15609" max="15609" width="25" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="25.81640625" style="2" customWidth="1"/>
-    <col min="15611" max="15611" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15612" max="15612" width="22.453125" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="18.453125" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15611" max="15611" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15612" max="15612" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="18.44140625" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="20" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15616" max="15863" width="11.453125" style="2"/>
+    <col min="15615" max="15615" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15616" max="15863" width="11.44140625" style="2"/>
     <col min="15864" max="15864" width="33" style="2" customWidth="1"/>
     <col min="15865" max="15865" width="25" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="25.81640625" style="2" customWidth="1"/>
-    <col min="15867" max="15867" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15868" max="15868" width="22.453125" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="18.453125" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="25.77734375" style="2" customWidth="1"/>
+    <col min="15867" max="15867" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15868" max="15868" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="18.44140625" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="20" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="36.54296875" style="2" customWidth="1"/>
-    <col min="15872" max="16119" width="11.453125" style="2"/>
+    <col min="15871" max="15871" width="36.5546875" style="2" customWidth="1"/>
+    <col min="15872" max="16119" width="11.44140625" style="2"/>
     <col min="16120" max="16120" width="33" style="2" customWidth="1"/>
     <col min="16121" max="16121" width="25" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="25.81640625" style="2" customWidth="1"/>
-    <col min="16123" max="16123" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16124" max="16124" width="22.453125" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="18.453125" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="25.77734375" style="2" customWidth="1"/>
+    <col min="16123" max="16123" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16124" max="16124" width="22.44140625" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="18.44140625" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="20" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="36.54296875" style="2" customWidth="1"/>
-    <col min="16128" max="16384" width="11.453125" style="2"/>
+    <col min="16127" max="16127" width="36.5546875" style="2" customWidth="1"/>
+    <col min="16128" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3765,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3764,7 +3798,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3797,7 +3831,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -3830,7 +3864,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -3863,7 +3897,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
@@ -3896,7 +3930,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
@@ -3929,7 +3963,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -3962,7 +3996,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
@@ -3995,7 +4029,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -4028,7 +4062,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -4061,7 +4095,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -4094,7 +4128,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -4127,7 +4161,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -4160,7 +4194,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4193,7 +4227,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -4226,7 +4260,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -4259,7 +4293,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -4292,7 +4326,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -4325,7 +4359,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -4358,7 +4392,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -4391,7 +4425,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -4424,7 +4458,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -4457,7 +4491,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -4490,7 +4524,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -4523,7 +4557,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -4556,7 +4590,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -4589,7 +4623,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>171</v>
       </c>
@@ -4622,7 +4656,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -4655,7 +4689,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -4688,7 +4722,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
@@ -4721,7 +4755,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -4754,7 +4788,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>171</v>
       </c>
@@ -4787,7 +4821,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -4820,7 +4854,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -4853,7 +4887,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
@@ -4886,7 +4920,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -4919,7 +4953,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -4952,7 +4986,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -4985,7 +5019,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>171</v>
       </c>
@@ -5018,7 +5052,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
@@ -5051,7 +5085,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -5084,7 +5118,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>171</v>
       </c>
@@ -5117,7 +5151,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -5150,7 +5184,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -5183,7 +5217,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>171</v>
       </c>
@@ -5216,7 +5250,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -5249,7 +5283,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -5282,7 +5316,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
@@ -5315,7 +5349,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>171</v>
       </c>
@@ -5348,7 +5382,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5381,7 +5415,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>171</v>
       </c>
@@ -5414,7 +5448,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -5447,7 +5481,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -5480,7 +5514,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
@@ -5513,7 +5547,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5546,7 +5580,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
@@ -5579,7 +5613,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -5612,7 +5646,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -5645,7 +5679,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>171</v>
       </c>
@@ -5678,7 +5712,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -5711,7 +5745,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
@@ -5744,7 +5778,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>171</v>
       </c>
@@ -5777,7 +5811,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -5810,7 +5844,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>171</v>
       </c>
@@ -5843,7 +5877,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>171</v>
       </c>
@@ -5876,7 +5910,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -5909,7 +5943,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
@@ -5942,7 +5976,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
@@ -5975,7 +6009,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -6008,7 +6042,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>171</v>
       </c>
@@ -6041,7 +6075,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -6074,7 +6108,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -6107,7 +6141,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
@@ -6140,7 +6174,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -6173,7 +6207,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
@@ -6206,7 +6240,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6239,7 +6273,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -6272,7 +6306,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>171</v>
       </c>
@@ -6305,7 +6339,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -6338,7 +6372,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -6371,7 +6405,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
@@ -6404,7 +6438,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -6437,7 +6471,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -6470,7 +6504,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -6505,7 +6539,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -6536,7 +6570,7 @@
       <c r="J86" s="38"/>
       <c r="K86" s="35"/>
     </row>
-    <row r="87" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -6567,7 +6601,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="35"/>
     </row>
-    <row r="88" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
@@ -6598,7 +6632,7 @@
       <c r="J88" s="38"/>
       <c r="K88" s="35"/>
     </row>
-    <row r="89" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -6629,7 +6663,7 @@
       <c r="J89" s="38"/>
       <c r="K89" s="35"/>
     </row>
-    <row r="90" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -6660,7 +6694,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="35"/>
     </row>
-    <row r="91" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -6691,7 +6725,7 @@
       <c r="J91" s="39"/>
       <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="1:11" ht="172.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -6726,7 +6760,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="114" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -6761,7 +6795,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>171</v>
       </c>
@@ -6796,7 +6830,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
@@ -6829,7 +6863,7 @@
       </c>
       <c r="K95" s="32"/>
     </row>
-    <row r="96" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
@@ -6862,7 +6896,7 @@
       </c>
       <c r="K96" s="32"/>
     </row>
-    <row r="97" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -6895,7 +6929,7 @@
       </c>
       <c r="K97" s="32"/>
     </row>
-    <row r="98" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
@@ -6928,7 +6962,7 @@
       </c>
       <c r="K98" s="33"/>
     </row>
-    <row r="99" spans="1:11" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
@@ -6963,7 +6997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
@@ -6996,7 +7030,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
@@ -7031,7 +7065,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>171</v>
       </c>
@@ -7066,7 +7100,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -7099,7 +7133,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>171</v>
       </c>
@@ -7132,7 +7166,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
@@ -7165,7 +7199,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>171</v>
       </c>
@@ -7198,7 +7232,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>172</v>
       </c>
@@ -7231,7 +7265,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -7264,7 +7298,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -7297,7 +7331,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
@@ -7332,7 +7366,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -7365,7 +7399,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -7398,7 +7432,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>172</v>
       </c>
@@ -7431,7 +7465,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>172</v>
       </c>
@@ -7464,7 +7498,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
@@ -7497,7 +7531,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>172</v>
       </c>
@@ -7530,7 +7564,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
@@ -7563,7 +7597,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
@@ -7596,7 +7630,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>172</v>
       </c>
@@ -7629,7 +7663,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>172</v>
       </c>
@@ -7662,7 +7696,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>172</v>
       </c>
@@ -7695,7 +7729,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -7728,7 +7762,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>172</v>
       </c>
@@ -7761,7 +7795,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>172</v>
       </c>
@@ -7794,7 +7828,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -7827,7 +7861,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -7862,7 +7896,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
@@ -7895,7 +7929,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
@@ -7928,7 +7962,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>172</v>
       </c>
@@ -7961,7 +7995,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -7994,7 +8028,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -8027,7 +8061,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>173</v>
       </c>
@@ -8060,7 +8094,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>173</v>
       </c>
@@ -8093,7 +8127,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
@@ -8128,7 +8162,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>173</v>
       </c>
@@ -8161,7 +8195,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>173</v>
       </c>
@@ -8194,7 +8228,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>173</v>
       </c>
@@ -8227,7 +8261,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>173</v>
       </c>
@@ -8260,7 +8294,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
@@ -8293,7 +8327,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>173</v>
       </c>
@@ -8326,7 +8360,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>173</v>
       </c>
@@ -8359,7 +8393,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>173</v>
       </c>
@@ -8392,7 +8426,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -8427,7 +8461,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -8460,7 +8494,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>173</v>
       </c>
@@ -8493,7 +8527,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>173</v>
       </c>
@@ -8526,7 +8560,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>173</v>
       </c>
@@ -8578,15 +8612,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -8600,7 +8634,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8612,7 +8646,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8624,7 +8658,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8636,7 +8670,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8648,7 +8682,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8660,7 +8694,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8672,7 +8706,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8684,7 +8718,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -8696,7 +8730,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -8708,7 +8742,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -8720,7 +8754,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -8732,7 +8766,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -8744,7 +8778,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8756,7 +8790,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8768,7 +8802,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8780,7 +8814,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -8792,7 +8826,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -8804,7 +8838,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -8816,7 +8850,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -8828,7 +8862,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -8840,7 +8874,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -8852,7 +8886,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -8864,7 +8898,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -8876,7 +8910,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -8888,7 +8922,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -8900,7 +8934,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -8912,7 +8946,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -8924,7 +8958,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -8936,7 +8970,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -8948,7 +8982,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -8960,7 +8994,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -8972,7 +9006,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -8984,7 +9018,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -8996,7 +9030,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -9008,7 +9042,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -9020,7 +9054,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -9032,7 +9066,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -9044,7 +9078,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -9056,7 +9090,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -9068,7 +9102,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -9080,7 +9114,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -9092,7 +9126,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -9104,7 +9138,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -9116,7 +9150,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -9128,7 +9162,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -9140,7 +9174,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -9152,7 +9186,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -9164,7 +9198,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -9176,7 +9210,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -9188,7 +9222,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -9200,7 +9234,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -9212,7 +9246,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -9224,7 +9258,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -9236,7 +9270,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -9248,7 +9282,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9294,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -9272,7 +9306,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -9284,7 +9318,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -9296,7 +9330,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -9308,7 +9342,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -9320,7 +9354,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -9332,7 +9366,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -9344,7 +9378,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -9356,7 +9390,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -9368,7 +9402,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -9380,7 +9414,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -9392,7 +9426,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -9404,7 +9438,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -9416,7 +9450,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -9428,7 +9462,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -9440,7 +9474,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -9452,7 +9486,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -9464,7 +9498,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -9476,7 +9510,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -9488,7 +9522,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9534,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -9512,7 +9546,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -9524,7 +9558,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -9536,7 +9570,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -9548,7 +9582,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -9560,7 +9594,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -9572,7 +9606,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -9584,7 +9618,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -9596,7 +9630,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -9608,7 +9642,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -9620,7 +9654,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -9632,7 +9666,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -9644,7 +9678,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -9656,7 +9690,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -9668,7 +9702,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -9680,7 +9714,7 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -9692,7 +9726,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -9704,7 +9738,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -9716,7 +9750,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -9728,7 +9762,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -9740,7 +9774,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -9752,7 +9786,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -9764,7 +9798,7 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -9776,7 +9810,7 @@
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -9788,7 +9822,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -9800,7 +9834,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -9812,7 +9846,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>107</v>
       </c>
@@ -9903,7 +9937,7 @@
       <c r="CB103"/>
       <c r="CC103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -9915,7 +9949,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>107</v>
       </c>
@@ -10006,7 +10040,7 @@
       <c r="CB105"/>
       <c r="CC105"/>
     </row>
-    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>107</v>
       </c>
@@ -10097,7 +10131,7 @@
       <c r="CB106"/>
       <c r="CC106"/>
     </row>
-    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -10188,7 +10222,7 @@
       <c r="CB107"/>
       <c r="CC107"/>
     </row>
-    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>107</v>
       </c>
@@ -10279,7 +10313,7 @@
       <c r="CB108"/>
       <c r="CC108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -10291,7 +10325,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -10303,7 +10337,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -10315,7 +10349,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -10327,7 +10361,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -10339,7 +10373,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -10351,7 +10385,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -10363,7 +10397,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -10375,7 +10409,7 @@
       </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -10387,7 +10421,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -10399,7 +10433,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -10411,7 +10445,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -10423,7 +10457,7 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -10435,7 +10469,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -10449,7 +10483,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
         <v>122</v>
       </c>
@@ -10463,7 +10497,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>122</v>
       </c>
@@ -10475,7 +10509,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>122</v>
       </c>
@@ -10489,7 +10523,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="s">
         <v>122</v>
       </c>
@@ -10503,7 +10537,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20" t="s">
         <v>122</v>
       </c>
@@ -10517,7 +10551,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>122</v>
       </c>
@@ -10531,7 +10565,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>122</v>
       </c>
@@ -10543,7 +10577,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>122</v>
       </c>
@@ -10555,7 +10589,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -10567,7 +10601,7 @@
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -10579,7 +10613,7 @@
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -10591,7 +10625,7 @@
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -10603,7 +10637,7 @@
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -10639,15 +10673,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -10667,7 +10701,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10687,7 +10721,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10705,7 +10739,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -10723,7 +10757,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10741,7 +10775,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10759,7 +10793,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -10777,7 +10811,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -10795,7 +10829,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -10813,7 +10847,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10865,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -10849,7 +10883,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -10867,7 +10901,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -10885,7 +10919,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -10903,7 +10937,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10921,7 +10955,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -10939,7 +10973,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -10957,7 +10991,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -10975,7 +11009,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -10993,7 +11027,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -11011,7 +11045,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -11029,7 +11063,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -11047,7 +11081,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -11065,7 +11099,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -11083,7 +11117,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -11101,7 +11135,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -11119,7 +11153,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -11137,7 +11171,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -11155,7 +11189,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -11173,7 +11207,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -11191,7 +11225,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -11209,7 +11243,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -11227,7 +11261,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -11245,7 +11279,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -11263,7 +11297,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -11281,7 +11315,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -11299,7 +11333,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -11317,7 +11351,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -11335,7 +11369,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -11353,7 +11387,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -11371,7 +11405,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -11389,7 +11423,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -11407,7 +11441,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -11425,7 +11459,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -11443,7 +11477,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -11461,7 +11495,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -11479,7 +11513,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -11497,7 +11531,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -11515,7 +11549,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -11533,7 +11567,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -11551,7 +11585,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11603,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -11587,7 +11621,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -11605,7 +11639,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -11623,7 +11657,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -11641,7 +11675,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -11659,7 +11693,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -11677,7 +11711,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -11695,7 +11729,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -11713,7 +11747,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11765,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -11749,7 +11783,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -11767,7 +11801,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -11785,7 +11819,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -11803,7 +11837,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -11821,7 +11855,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -11839,7 +11873,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -11857,7 +11891,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -11875,7 +11909,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -11893,7 +11927,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -11911,7 +11945,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -11929,7 +11963,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -11947,7 +11981,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -11965,7 +11999,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -11983,7 +12017,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -12001,7 +12035,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -12019,7 +12053,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -12037,7 +12071,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -12055,7 +12089,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -12073,7 +12107,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -12091,7 +12125,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -12109,7 +12143,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -12127,7 +12161,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -12145,7 +12179,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -12163,7 +12197,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -12181,7 +12215,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -12199,7 +12233,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -12217,7 +12251,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -12235,7 +12269,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -12253,7 +12287,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -12271,7 +12305,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -12289,7 +12323,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -12307,7 +12341,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -12325,7 +12359,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12377,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -12361,7 +12395,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -12379,7 +12413,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -12397,7 +12431,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -12415,7 +12449,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -12433,7 +12467,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +12485,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -12469,7 +12503,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -12487,7 +12521,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -12505,7 +12539,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>2</v>
       </c>
@@ -12523,7 +12557,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -12541,7 +12575,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -12557,7 +12591,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -12577,7 +12611,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -12597,7 +12631,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>107</v>
       </c>
@@ -12615,7 +12649,7 @@
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>107</v>
       </c>
@@ -12633,7 +12667,7 @@
       </c>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>107</v>
       </c>
@@ -12651,7 +12685,7 @@
       </c>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>107</v>
       </c>
@@ -12669,7 +12703,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -12687,7 +12721,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -12705,7 +12739,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -12723,7 +12757,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -12741,7 +12775,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -12759,7 +12793,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -12777,7 +12811,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -12795,7 +12829,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -12813,7 +12847,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -12831,7 +12865,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -12849,7 +12883,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -12867,7 +12901,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -12885,7 +12919,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -12903,7 +12937,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -12921,7 +12955,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -12939,7 +12973,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -12957,7 +12991,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -12975,7 +13009,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>107</v>
       </c>
@@ -12991,7 +13025,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="20" t="s">
         <v>122</v>
       </c>
@@ -13011,7 +13045,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -13031,7 +13065,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="20" t="s">
         <v>122</v>
       </c>
@@ -13049,7 +13083,7 @@
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>122</v>
       </c>
@@ -13067,7 +13101,7 @@
       </c>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
         <v>122</v>
       </c>
@@ -13085,7 +13119,7 @@
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
         <v>122</v>
       </c>
@@ -13103,7 +13137,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -13121,7 +13155,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -13139,7 +13173,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -13157,7 +13191,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -13175,7 +13209,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="20" t="s">
         <v>122</v>
       </c>
@@ -13193,7 +13227,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
         <v>122</v>
       </c>
@@ -13211,7 +13245,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -13229,7 +13263,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="20" t="s">
         <v>122</v>
       </c>
@@ -13247,7 +13281,7 @@
       </c>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="20" t="s">
         <v>122</v>
       </c>
@@ -13265,7 +13299,7 @@
       </c>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -13283,7 +13317,7 @@
       </c>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -13317,29 +13351,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63:O64"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" customWidth="1"/>
-    <col min="9" max="10" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" customWidth="1"/>
+    <col min="9" max="10" width="21.77734375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.81640625" customWidth="1"/>
-    <col min="14" max="15" width="24.81640625" customWidth="1"/>
-    <col min="16" max="16" width="59.1796875" customWidth="1"/>
-    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
+    <col min="12" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="15" width="24.77734375" customWidth="1"/>
+    <col min="16" max="16" width="59.21875" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -13392,7 +13426,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13437,7 +13471,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13480,7 +13514,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -13525,7 +13559,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -13568,7 +13602,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13611,7 +13645,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -13654,7 +13688,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13699,7 +13733,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -13742,7 +13776,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -13785,7 +13819,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -13828,7 +13862,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -13871,7 +13905,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13916,7 +13950,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -13959,7 +13993,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14002,7 +14036,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -14045,7 +14079,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -14088,7 +14122,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -14131,7 +14165,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -14174,7 +14208,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -14217,7 +14251,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -14260,7 +14294,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -14303,7 +14337,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -14346,7 +14380,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -14389,7 +14423,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -14432,7 +14466,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -14475,7 +14509,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -14518,7 +14552,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -14561,7 +14595,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -14604,7 +14638,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -14647,7 +14681,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -14690,7 +14724,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -14733,7 +14767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -14776,7 +14810,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -14819,7 +14853,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -14862,7 +14896,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -14905,7 +14939,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -14948,7 +14982,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -14991,7 +15025,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -15034,7 +15068,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -15077,7 +15111,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -15120,7 +15154,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -15163,7 +15197,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -15206,7 +15240,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -15249,7 +15283,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -15292,7 +15326,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -15335,7 +15369,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -15378,7 +15412,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -15421,7 +15455,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -15464,7 +15498,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -15507,7 +15541,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -15550,7 +15584,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -15593,7 +15627,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -15636,7 +15670,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -15679,7 +15713,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -15722,7 +15756,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -15765,7 +15799,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -15808,7 +15842,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -15851,7 +15885,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -15896,7 +15930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -15943,7 +15977,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -15988,7 +16022,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -16035,7 +16069,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -16082,7 +16116,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -16127,7 +16161,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -16174,7 +16208,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -16221,7 +16255,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -16266,7 +16300,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -16311,7 +16345,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -16356,7 +16390,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -16401,7 +16435,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -16446,7 +16480,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -16489,7 +16523,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -16532,7 +16566,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -16577,7 +16611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -16622,7 +16656,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -16667,7 +16701,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -16710,7 +16744,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -16755,7 +16789,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -16798,7 +16832,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -16839,7 +16873,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -16882,7 +16916,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -16925,7 +16959,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -16970,7 +17004,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -17013,7 +17047,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -17056,7 +17090,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -17099,7 +17133,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -17142,7 +17176,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -17185,7 +17219,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -17228,7 +17262,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -17271,7 +17305,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17348,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -17357,7 +17391,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -17400,7 +17434,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -17443,7 +17477,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -17486,7 +17520,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -17529,7 +17563,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -17572,7 +17606,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -17615,7 +17649,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -17658,7 +17692,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -17701,7 +17735,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -17744,7 +17778,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -17791,7 +17825,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -17836,7 +17870,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -17883,7 +17917,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -17930,7 +17964,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -17977,7 +18011,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
@@ -18024,7 +18058,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -18069,7 +18103,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -18118,7 +18152,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -18165,7 +18199,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -18212,7 +18246,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -18259,7 +18293,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -18306,7 +18340,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -18353,7 +18387,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -18400,7 +18434,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -18443,7 +18477,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -18488,7 +18522,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -18533,7 +18567,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -18578,7 +18612,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -18623,7 +18657,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -18668,7 +18702,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -18713,7 +18747,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
@@ -18769,1633 +18803,2075 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861C695-FDFF-4472-8570-A9657F93AFC3}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="D65" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="D66" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="D134" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="D136" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="D138" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="D142" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="D143" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="D144" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="D145" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="D146" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="D147" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -20412,25 +20888,25 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" customWidth="1"/>
-    <col min="8" max="9" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="9" width="21.77734375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="17.81640625" customWidth="1"/>
-    <col min="13" max="14" width="24.81640625" customWidth="1"/>
-    <col min="15" max="15" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
+    <col min="11" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="14" width="24.77734375" customWidth="1"/>
+    <col min="15" max="15" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -20483,7 +20959,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -20528,7 +21004,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -20571,7 +21047,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -20616,7 +21092,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -20659,7 +21135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -20702,7 +21178,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -20745,7 +21221,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -20790,7 +21266,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -20833,7 +21309,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -20876,7 +21352,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -20919,7 +21395,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -20962,7 +21438,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -21007,7 +21483,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -21050,7 +21526,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -21093,7 +21569,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -21136,7 +21612,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -21179,7 +21655,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -21222,7 +21698,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -21265,7 +21741,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -21308,7 +21784,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -21351,7 +21827,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -21394,7 +21870,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -21437,7 +21913,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -21480,7 +21956,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -21523,7 +21999,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -21566,7 +22042,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -21609,7 +22085,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -21652,7 +22128,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -21695,7 +22171,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -21738,7 +22214,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -21781,7 +22257,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -21824,7 +22300,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -21867,7 +22343,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -21910,7 +22386,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -21953,7 +22429,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -21996,7 +22472,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -22039,7 +22515,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -22082,7 +22558,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -22125,7 +22601,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -22168,7 +22644,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -22211,7 +22687,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -22254,7 +22730,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -22297,7 +22773,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -22340,7 +22816,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -22383,7 +22859,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -22426,7 +22902,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -22469,7 +22945,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -22512,7 +22988,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -22555,7 +23031,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -22598,7 +23074,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -22641,7 +23117,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -22684,7 +23160,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -22727,7 +23203,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -22770,7 +23246,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -22813,7 +23289,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -22856,7 +23332,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -22899,7 +23375,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -22942,7 +23418,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -22987,7 +23463,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -23034,7 +23510,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -23079,7 +23555,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -23126,7 +23602,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -23173,7 +23649,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -23218,7 +23694,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -23265,7 +23741,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -23312,7 +23788,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -23357,7 +23833,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -23402,7 +23878,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -23447,7 +23923,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -23492,7 +23968,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -23537,7 +24013,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -23580,7 +24056,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -23623,7 +24099,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -23668,7 +24144,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -23713,7 +24189,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -23758,7 +24234,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -23801,7 +24277,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -23846,7 +24322,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -23889,7 +24365,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -23930,7 +24406,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -23973,7 +24449,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -24016,7 +24492,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -24061,7 +24537,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -24104,7 +24580,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -24147,7 +24623,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -24190,7 +24666,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -24233,7 +24709,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -24276,7 +24752,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -24319,7 +24795,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -24362,7 +24838,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -24405,7 +24881,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -24448,7 +24924,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -24491,7 +24967,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -24534,7 +25010,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -24577,7 +25053,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -24620,7 +25096,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -24663,7 +25139,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -24706,7 +25182,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -24749,7 +25225,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -24792,7 +25268,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -24835,7 +25311,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -24882,7 +25358,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -24927,7 +25403,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -24974,7 +25450,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -25021,7 +25497,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -25068,7 +25544,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -25115,7 +25591,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -25162,7 +25638,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -25211,7 +25687,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -25258,7 +25734,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -25305,7 +25781,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -25352,7 +25828,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -25399,7 +25875,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -25446,7 +25922,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -25493,7 +25969,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -25536,7 +26012,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -25581,7 +26057,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -25626,7 +26102,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -25671,7 +26147,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -25716,7 +26192,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -25761,7 +26237,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -25806,7 +26282,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>

--- a/Forma 81 to db.xlsx
+++ b/Forma 81 to db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temas\Informativas\Documentos Digitales\POL 5611\Insumos XML-JSON\Esquemas JSON\IVAN\Diccionario Esquemas\Integración\archivos_integracion\29052024\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joreyes\Desktop\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD794FE4-87D5-45B5-BB52-757011810CA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555B381-4983-4075-8E9C-9226C378BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="1" activeTab="4" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{2736C846-756C-4042-A012-7E66826D7A55}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="592">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -1829,6 +1829,18 @@
   </si>
   <si>
     <t>D_DEC_TCIOPMO1(003)</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA ENTIDAD</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA TABLA</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL ATRIBUTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA COLUMNA</t>
   </si>
 </sst>
 </file>
@@ -2739,9 +2751,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2779,9 +2791,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2814,26 +2826,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2866,26 +2861,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3065,16 +3043,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3102,7 +3080,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
@@ -3116,7 +3094,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3144,593 +3122,593 @@
       <selection activeCell="D148" sqref="D147:D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="2"/>
-    <col min="15" max="15" width="15.77734375" style="2" customWidth="1"/>
-    <col min="16" max="17" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="247" width="11.44140625" style="2"/>
+    <col min="11" max="11" width="29.1796875" style="2" customWidth="1"/>
+    <col min="12" max="14" width="11.453125" style="2"/>
+    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="11.453125" style="2"/>
     <col min="248" max="248" width="33" style="2" customWidth="1"/>
     <col min="249" max="249" width="25" style="2" customWidth="1"/>
-    <col min="250" max="250" width="25.77734375" style="2" customWidth="1"/>
-    <col min="251" max="251" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.44140625" style="2" customWidth="1"/>
-    <col min="253" max="253" width="18.44140625" style="2" customWidth="1"/>
+    <col min="250" max="250" width="25.81640625" style="2" customWidth="1"/>
+    <col min="251" max="251" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.453125" style="2" customWidth="1"/>
+    <col min="253" max="253" width="18.453125" style="2" customWidth="1"/>
     <col min="254" max="254" width="20" style="2" customWidth="1"/>
-    <col min="255" max="255" width="36.5546875" style="2" customWidth="1"/>
-    <col min="256" max="503" width="11.44140625" style="2"/>
+    <col min="255" max="255" width="36.54296875" style="2" customWidth="1"/>
+    <col min="256" max="503" width="11.453125" style="2"/>
     <col min="504" max="504" width="33" style="2" customWidth="1"/>
     <col min="505" max="505" width="25" style="2" customWidth="1"/>
-    <col min="506" max="506" width="25.77734375" style="2" customWidth="1"/>
-    <col min="507" max="507" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="22.44140625" style="2" customWidth="1"/>
-    <col min="509" max="509" width="18.44140625" style="2" customWidth="1"/>
+    <col min="506" max="506" width="25.81640625" style="2" customWidth="1"/>
+    <col min="507" max="507" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="22.453125" style="2" customWidth="1"/>
+    <col min="509" max="509" width="18.453125" style="2" customWidth="1"/>
     <col min="510" max="510" width="20" style="2" customWidth="1"/>
-    <col min="511" max="511" width="36.5546875" style="2" customWidth="1"/>
-    <col min="512" max="759" width="11.44140625" style="2"/>
+    <col min="511" max="511" width="36.54296875" style="2" customWidth="1"/>
+    <col min="512" max="759" width="11.453125" style="2"/>
     <col min="760" max="760" width="33" style="2" customWidth="1"/>
     <col min="761" max="761" width="25" style="2" customWidth="1"/>
-    <col min="762" max="762" width="25.77734375" style="2" customWidth="1"/>
-    <col min="763" max="763" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="764" max="764" width="22.44140625" style="2" customWidth="1"/>
-    <col min="765" max="765" width="18.44140625" style="2" customWidth="1"/>
+    <col min="762" max="762" width="25.81640625" style="2" customWidth="1"/>
+    <col min="763" max="763" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="764" max="764" width="22.453125" style="2" customWidth="1"/>
+    <col min="765" max="765" width="18.453125" style="2" customWidth="1"/>
     <col min="766" max="766" width="20" style="2" customWidth="1"/>
-    <col min="767" max="767" width="36.5546875" style="2" customWidth="1"/>
-    <col min="768" max="1015" width="11.44140625" style="2"/>
+    <col min="767" max="767" width="36.54296875" style="2" customWidth="1"/>
+    <col min="768" max="1015" width="11.453125" style="2"/>
     <col min="1016" max="1016" width="33" style="2" customWidth="1"/>
     <col min="1017" max="1017" width="25" style="2" customWidth="1"/>
-    <col min="1018" max="1018" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1019" max="1019" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1020" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1018" max="1018" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1019" max="1019" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1020" width="22.453125" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="18.453125" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="20" style="2" customWidth="1"/>
-    <col min="1023" max="1023" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1024" max="1271" width="11.44140625" style="2"/>
+    <col min="1023" max="1023" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1024" max="1271" width="11.453125" style="2"/>
     <col min="1272" max="1272" width="33" style="2" customWidth="1"/>
     <col min="1273" max="1273" width="25" style="2" customWidth="1"/>
-    <col min="1274" max="1274" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1275" max="1275" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1276" max="1276" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1277" max="1277" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1274" max="1274" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1275" max="1275" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1276" max="1276" width="22.453125" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="18.453125" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="20" style="2" customWidth="1"/>
-    <col min="1279" max="1279" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1280" max="1527" width="11.44140625" style="2"/>
+    <col min="1279" max="1279" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1280" max="1527" width="11.453125" style="2"/>
     <col min="1528" max="1528" width="33" style="2" customWidth="1"/>
     <col min="1529" max="1529" width="25" style="2" customWidth="1"/>
-    <col min="1530" max="1530" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1531" max="1531" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1532" max="1532" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1533" max="1533" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1530" max="1530" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1531" max="1531" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1532" max="1532" width="22.453125" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="18.453125" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="20" style="2" customWidth="1"/>
-    <col min="1535" max="1535" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1536" max="1783" width="11.44140625" style="2"/>
+    <col min="1535" max="1535" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1536" max="1783" width="11.453125" style="2"/>
     <col min="1784" max="1784" width="33" style="2" customWidth="1"/>
     <col min="1785" max="1785" width="25" style="2" customWidth="1"/>
-    <col min="1786" max="1786" width="25.77734375" style="2" customWidth="1"/>
-    <col min="1787" max="1787" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="1788" max="1788" width="22.44140625" style="2" customWidth="1"/>
-    <col min="1789" max="1789" width="18.44140625" style="2" customWidth="1"/>
+    <col min="1786" max="1786" width="25.81640625" style="2" customWidth="1"/>
+    <col min="1787" max="1787" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1788" max="1788" width="22.453125" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="18.453125" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="20" style="2" customWidth="1"/>
-    <col min="1791" max="1791" width="36.5546875" style="2" customWidth="1"/>
-    <col min="1792" max="2039" width="11.44140625" style="2"/>
+    <col min="1791" max="1791" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1792" max="2039" width="11.453125" style="2"/>
     <col min="2040" max="2040" width="33" style="2" customWidth="1"/>
     <col min="2041" max="2041" width="25" style="2" customWidth="1"/>
-    <col min="2042" max="2042" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2043" max="2043" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2044" max="2044" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2045" max="2045" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2042" max="2042" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2043" max="2043" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2044" max="2044" width="22.453125" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="18.453125" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="20" style="2" customWidth="1"/>
-    <col min="2047" max="2047" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2048" max="2295" width="11.44140625" style="2"/>
+    <col min="2047" max="2047" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2048" max="2295" width="11.453125" style="2"/>
     <col min="2296" max="2296" width="33" style="2" customWidth="1"/>
     <col min="2297" max="2297" width="25" style="2" customWidth="1"/>
-    <col min="2298" max="2298" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2299" max="2299" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2300" max="2300" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2301" max="2301" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2298" max="2298" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2299" max="2299" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2300" max="2300" width="22.453125" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="18.453125" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="20" style="2" customWidth="1"/>
-    <col min="2303" max="2303" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2304" max="2551" width="11.44140625" style="2"/>
+    <col min="2303" max="2303" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2304" max="2551" width="11.453125" style="2"/>
     <col min="2552" max="2552" width="33" style="2" customWidth="1"/>
     <col min="2553" max="2553" width="25" style="2" customWidth="1"/>
-    <col min="2554" max="2554" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2555" max="2555" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2556" max="2556" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2557" max="2557" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2554" max="2554" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2555" max="2555" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2556" max="2556" width="22.453125" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="18.453125" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="20" style="2" customWidth="1"/>
-    <col min="2559" max="2559" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2560" max="2807" width="11.44140625" style="2"/>
+    <col min="2559" max="2559" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2560" max="2807" width="11.453125" style="2"/>
     <col min="2808" max="2808" width="33" style="2" customWidth="1"/>
     <col min="2809" max="2809" width="25" style="2" customWidth="1"/>
-    <col min="2810" max="2810" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2811" max="2811" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2812" max="2812" width="22.44140625" style="2" customWidth="1"/>
-    <col min="2813" max="2813" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2810" max="2810" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2811" max="2811" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2812" max="2812" width="22.453125" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="18.453125" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="20" style="2" customWidth="1"/>
-    <col min="2815" max="2815" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2816" max="3063" width="11.44140625" style="2"/>
+    <col min="2815" max="2815" width="36.54296875" style="2" customWidth="1"/>
+    <col min="2816" max="3063" width="11.453125" style="2"/>
     <col min="3064" max="3064" width="33" style="2" customWidth="1"/>
     <col min="3065" max="3065" width="25" style="2" customWidth="1"/>
-    <col min="3066" max="3066" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3067" max="3067" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3068" max="3068" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3069" max="3069" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3066" max="3066" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3067" max="3067" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3068" max="3068" width="22.453125" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="18.453125" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="20" style="2" customWidth="1"/>
-    <col min="3071" max="3071" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3072" max="3319" width="11.44140625" style="2"/>
+    <col min="3071" max="3071" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3072" max="3319" width="11.453125" style="2"/>
     <col min="3320" max="3320" width="33" style="2" customWidth="1"/>
     <col min="3321" max="3321" width="25" style="2" customWidth="1"/>
-    <col min="3322" max="3322" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3323" max="3323" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3324" max="3324" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3325" max="3325" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3322" max="3322" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3323" max="3323" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3324" max="3324" width="22.453125" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="18.453125" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="20" style="2" customWidth="1"/>
-    <col min="3327" max="3327" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3328" max="3575" width="11.44140625" style="2"/>
+    <col min="3327" max="3327" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3328" max="3575" width="11.453125" style="2"/>
     <col min="3576" max="3576" width="33" style="2" customWidth="1"/>
     <col min="3577" max="3577" width="25" style="2" customWidth="1"/>
-    <col min="3578" max="3578" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3579" max="3579" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3580" max="3580" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3581" max="3581" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3578" max="3578" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3579" max="3579" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3580" max="3580" width="22.453125" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="18.453125" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="20" style="2" customWidth="1"/>
-    <col min="3583" max="3583" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3584" max="3831" width="11.44140625" style="2"/>
+    <col min="3583" max="3583" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3584" max="3831" width="11.453125" style="2"/>
     <col min="3832" max="3832" width="33" style="2" customWidth="1"/>
     <col min="3833" max="3833" width="25" style="2" customWidth="1"/>
-    <col min="3834" max="3834" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3835" max="3835" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3836" max="3836" width="22.44140625" style="2" customWidth="1"/>
-    <col min="3837" max="3837" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3834" max="3834" width="25.81640625" style="2" customWidth="1"/>
+    <col min="3835" max="3835" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3836" width="22.453125" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="18.453125" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="20" style="2" customWidth="1"/>
-    <col min="3839" max="3839" width="36.5546875" style="2" customWidth="1"/>
-    <col min="3840" max="4087" width="11.44140625" style="2"/>
+    <col min="3839" max="3839" width="36.54296875" style="2" customWidth="1"/>
+    <col min="3840" max="4087" width="11.453125" style="2"/>
     <col min="4088" max="4088" width="33" style="2" customWidth="1"/>
     <col min="4089" max="4089" width="25" style="2" customWidth="1"/>
-    <col min="4090" max="4090" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4091" max="4091" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4092" max="4092" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4093" max="4093" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4090" max="4090" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4091" max="4091" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4092" max="4092" width="22.453125" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="18.453125" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="20" style="2" customWidth="1"/>
-    <col min="4095" max="4095" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4096" max="4343" width="11.44140625" style="2"/>
+    <col min="4095" max="4095" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4096" max="4343" width="11.453125" style="2"/>
     <col min="4344" max="4344" width="33" style="2" customWidth="1"/>
     <col min="4345" max="4345" width="25" style="2" customWidth="1"/>
-    <col min="4346" max="4346" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4347" max="4347" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4348" max="4348" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4349" max="4349" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4346" max="4346" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4347" max="4347" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4348" max="4348" width="22.453125" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="18.453125" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="20" style="2" customWidth="1"/>
-    <col min="4351" max="4351" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4352" max="4599" width="11.44140625" style="2"/>
+    <col min="4351" max="4351" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4352" max="4599" width="11.453125" style="2"/>
     <col min="4600" max="4600" width="33" style="2" customWidth="1"/>
     <col min="4601" max="4601" width="25" style="2" customWidth="1"/>
-    <col min="4602" max="4602" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4603" max="4603" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4604" max="4604" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4605" max="4605" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4602" max="4602" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4603" max="4603" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4604" max="4604" width="22.453125" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="18.453125" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="20" style="2" customWidth="1"/>
-    <col min="4607" max="4607" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4608" max="4855" width="11.44140625" style="2"/>
+    <col min="4607" max="4607" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4608" max="4855" width="11.453125" style="2"/>
     <col min="4856" max="4856" width="33" style="2" customWidth="1"/>
     <col min="4857" max="4857" width="25" style="2" customWidth="1"/>
-    <col min="4858" max="4858" width="25.77734375" style="2" customWidth="1"/>
-    <col min="4859" max="4859" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4860" max="4860" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4861" max="4861" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4858" max="4858" width="25.81640625" style="2" customWidth="1"/>
+    <col min="4859" max="4859" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4860" max="4860" width="22.453125" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="18.453125" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="20" style="2" customWidth="1"/>
-    <col min="4863" max="4863" width="36.5546875" style="2" customWidth="1"/>
-    <col min="4864" max="5111" width="11.44140625" style="2"/>
+    <col min="4863" max="4863" width="36.54296875" style="2" customWidth="1"/>
+    <col min="4864" max="5111" width="11.453125" style="2"/>
     <col min="5112" max="5112" width="33" style="2" customWidth="1"/>
     <col min="5113" max="5113" width="25" style="2" customWidth="1"/>
-    <col min="5114" max="5114" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5115" max="5115" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5116" max="5116" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5117" max="5117" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5114" max="5114" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5115" max="5115" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5116" max="5116" width="22.453125" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="18.453125" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="20" style="2" customWidth="1"/>
-    <col min="5119" max="5119" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5120" max="5367" width="11.44140625" style="2"/>
+    <col min="5119" max="5119" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5120" max="5367" width="11.453125" style="2"/>
     <col min="5368" max="5368" width="33" style="2" customWidth="1"/>
     <col min="5369" max="5369" width="25" style="2" customWidth="1"/>
-    <col min="5370" max="5370" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5371" max="5371" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5372" max="5372" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5373" max="5373" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5370" max="5370" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5371" max="5371" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5372" max="5372" width="22.453125" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="18.453125" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="20" style="2" customWidth="1"/>
-    <col min="5375" max="5375" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5376" max="5623" width="11.44140625" style="2"/>
+    <col min="5375" max="5375" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5376" max="5623" width="11.453125" style="2"/>
     <col min="5624" max="5624" width="33" style="2" customWidth="1"/>
     <col min="5625" max="5625" width="25" style="2" customWidth="1"/>
-    <col min="5626" max="5626" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5627" max="5627" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5628" max="5628" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5629" max="5629" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5626" max="5626" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5627" max="5627" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5628" max="5628" width="22.453125" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="18.453125" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="20" style="2" customWidth="1"/>
-    <col min="5631" max="5631" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5632" max="5879" width="11.44140625" style="2"/>
+    <col min="5631" max="5631" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5632" max="5879" width="11.453125" style="2"/>
     <col min="5880" max="5880" width="33" style="2" customWidth="1"/>
     <col min="5881" max="5881" width="25" style="2" customWidth="1"/>
-    <col min="5882" max="5882" width="25.77734375" style="2" customWidth="1"/>
-    <col min="5883" max="5883" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5884" max="5884" width="22.44140625" style="2" customWidth="1"/>
-    <col min="5885" max="5885" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5882" max="5882" width="25.81640625" style="2" customWidth="1"/>
+    <col min="5883" max="5883" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5884" width="22.453125" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="18.453125" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="20" style="2" customWidth="1"/>
-    <col min="5887" max="5887" width="36.5546875" style="2" customWidth="1"/>
-    <col min="5888" max="6135" width="11.44140625" style="2"/>
+    <col min="5887" max="5887" width="36.54296875" style="2" customWidth="1"/>
+    <col min="5888" max="6135" width="11.453125" style="2"/>
     <col min="6136" max="6136" width="33" style="2" customWidth="1"/>
     <col min="6137" max="6137" width="25" style="2" customWidth="1"/>
-    <col min="6138" max="6138" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6139" max="6139" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6140" max="6140" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6141" max="6141" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6138" max="6138" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6139" max="6139" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6140" max="6140" width="22.453125" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="18.453125" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="20" style="2" customWidth="1"/>
-    <col min="6143" max="6143" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6144" max="6391" width="11.44140625" style="2"/>
+    <col min="6143" max="6143" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6144" max="6391" width="11.453125" style="2"/>
     <col min="6392" max="6392" width="33" style="2" customWidth="1"/>
     <col min="6393" max="6393" width="25" style="2" customWidth="1"/>
-    <col min="6394" max="6394" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6395" max="6395" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6396" max="6396" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6397" max="6397" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6394" max="6394" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6395" max="6395" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6396" max="6396" width="22.453125" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="18.453125" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="20" style="2" customWidth="1"/>
-    <col min="6399" max="6399" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6400" max="6647" width="11.44140625" style="2"/>
+    <col min="6399" max="6399" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6400" max="6647" width="11.453125" style="2"/>
     <col min="6648" max="6648" width="33" style="2" customWidth="1"/>
     <col min="6649" max="6649" width="25" style="2" customWidth="1"/>
-    <col min="6650" max="6650" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6651" max="6651" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6652" max="6652" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6653" max="6653" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6650" max="6650" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6651" max="6651" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6652" max="6652" width="22.453125" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="18.453125" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="20" style="2" customWidth="1"/>
-    <col min="6655" max="6655" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6656" max="6903" width="11.44140625" style="2"/>
+    <col min="6655" max="6655" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6656" max="6903" width="11.453125" style="2"/>
     <col min="6904" max="6904" width="33" style="2" customWidth="1"/>
     <col min="6905" max="6905" width="25" style="2" customWidth="1"/>
-    <col min="6906" max="6906" width="25.77734375" style="2" customWidth="1"/>
-    <col min="6907" max="6907" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6908" max="6908" width="22.44140625" style="2" customWidth="1"/>
-    <col min="6909" max="6909" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6906" max="6906" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6907" max="6907" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6908" max="6908" width="22.453125" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="18.453125" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="20" style="2" customWidth="1"/>
-    <col min="6911" max="6911" width="36.5546875" style="2" customWidth="1"/>
-    <col min="6912" max="7159" width="11.44140625" style="2"/>
+    <col min="6911" max="6911" width="36.54296875" style="2" customWidth="1"/>
+    <col min="6912" max="7159" width="11.453125" style="2"/>
     <col min="7160" max="7160" width="33" style="2" customWidth="1"/>
     <col min="7161" max="7161" width="25" style="2" customWidth="1"/>
-    <col min="7162" max="7162" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7163" max="7163" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7164" max="7164" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7165" max="7165" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7162" max="7162" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7163" max="7163" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7164" max="7164" width="22.453125" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="18.453125" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="20" style="2" customWidth="1"/>
-    <col min="7167" max="7167" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7168" max="7415" width="11.44140625" style="2"/>
+    <col min="7167" max="7167" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7168" max="7415" width="11.453125" style="2"/>
     <col min="7416" max="7416" width="33" style="2" customWidth="1"/>
     <col min="7417" max="7417" width="25" style="2" customWidth="1"/>
-    <col min="7418" max="7418" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7419" max="7419" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7420" max="7420" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7421" max="7421" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7418" max="7418" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7419" max="7419" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7420" max="7420" width="22.453125" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="18.453125" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="20" style="2" customWidth="1"/>
-    <col min="7423" max="7423" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7424" max="7671" width="11.44140625" style="2"/>
+    <col min="7423" max="7423" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7424" max="7671" width="11.453125" style="2"/>
     <col min="7672" max="7672" width="33" style="2" customWidth="1"/>
     <col min="7673" max="7673" width="25" style="2" customWidth="1"/>
-    <col min="7674" max="7674" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7675" max="7675" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7676" max="7676" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7677" max="7677" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7674" max="7674" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7675" max="7675" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7676" max="7676" width="22.453125" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="18.453125" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="20" style="2" customWidth="1"/>
-    <col min="7679" max="7679" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7680" max="7927" width="11.44140625" style="2"/>
+    <col min="7679" max="7679" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7680" max="7927" width="11.453125" style="2"/>
     <col min="7928" max="7928" width="33" style="2" customWidth="1"/>
     <col min="7929" max="7929" width="25" style="2" customWidth="1"/>
-    <col min="7930" max="7930" width="25.77734375" style="2" customWidth="1"/>
-    <col min="7931" max="7931" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7932" max="7932" width="22.44140625" style="2" customWidth="1"/>
-    <col min="7933" max="7933" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7930" max="7930" width="25.81640625" style="2" customWidth="1"/>
+    <col min="7931" max="7931" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7932" max="7932" width="22.453125" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="18.453125" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="20" style="2" customWidth="1"/>
-    <col min="7935" max="7935" width="36.5546875" style="2" customWidth="1"/>
-    <col min="7936" max="8183" width="11.44140625" style="2"/>
+    <col min="7935" max="7935" width="36.54296875" style="2" customWidth="1"/>
+    <col min="7936" max="8183" width="11.453125" style="2"/>
     <col min="8184" max="8184" width="33" style="2" customWidth="1"/>
     <col min="8185" max="8185" width="25" style="2" customWidth="1"/>
-    <col min="8186" max="8186" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8187" max="8187" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8188" max="8188" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8189" max="8189" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8186" max="8186" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8187" max="8187" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8188" max="8188" width="22.453125" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="18.453125" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="20" style="2" customWidth="1"/>
-    <col min="8191" max="8191" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8192" max="8439" width="11.44140625" style="2"/>
+    <col min="8191" max="8191" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8192" max="8439" width="11.453125" style="2"/>
     <col min="8440" max="8440" width="33" style="2" customWidth="1"/>
     <col min="8441" max="8441" width="25" style="2" customWidth="1"/>
-    <col min="8442" max="8442" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8443" max="8443" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8444" max="8444" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8445" max="8445" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8442" max="8442" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8443" max="8443" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8444" max="8444" width="22.453125" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="18.453125" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="20" style="2" customWidth="1"/>
-    <col min="8447" max="8447" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8448" max="8695" width="11.44140625" style="2"/>
+    <col min="8447" max="8447" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8448" max="8695" width="11.453125" style="2"/>
     <col min="8696" max="8696" width="33" style="2" customWidth="1"/>
     <col min="8697" max="8697" width="25" style="2" customWidth="1"/>
-    <col min="8698" max="8698" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8699" max="8699" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8700" max="8700" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8701" max="8701" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8698" max="8698" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8699" max="8699" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8700" max="8700" width="22.453125" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="18.453125" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="20" style="2" customWidth="1"/>
-    <col min="8703" max="8703" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8704" max="8951" width="11.44140625" style="2"/>
+    <col min="8703" max="8703" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8704" max="8951" width="11.453125" style="2"/>
     <col min="8952" max="8952" width="33" style="2" customWidth="1"/>
     <col min="8953" max="8953" width="25" style="2" customWidth="1"/>
-    <col min="8954" max="8954" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8955" max="8955" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8956" max="8956" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8957" max="8957" width="18.44140625" style="2" customWidth="1"/>
+    <col min="8954" max="8954" width="25.81640625" style="2" customWidth="1"/>
+    <col min="8955" max="8955" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8956" max="8956" width="22.453125" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="18.453125" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="20" style="2" customWidth="1"/>
-    <col min="8959" max="8959" width="36.5546875" style="2" customWidth="1"/>
-    <col min="8960" max="9207" width="11.44140625" style="2"/>
+    <col min="8959" max="8959" width="36.54296875" style="2" customWidth="1"/>
+    <col min="8960" max="9207" width="11.453125" style="2"/>
     <col min="9208" max="9208" width="33" style="2" customWidth="1"/>
     <col min="9209" max="9209" width="25" style="2" customWidth="1"/>
-    <col min="9210" max="9210" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9211" max="9211" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9212" max="9212" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9213" max="9213" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9210" max="9210" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9211" max="9211" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9212" max="9212" width="22.453125" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="18.453125" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="20" style="2" customWidth="1"/>
-    <col min="9215" max="9215" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9216" max="9463" width="11.44140625" style="2"/>
+    <col min="9215" max="9215" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9216" max="9463" width="11.453125" style="2"/>
     <col min="9464" max="9464" width="33" style="2" customWidth="1"/>
     <col min="9465" max="9465" width="25" style="2" customWidth="1"/>
-    <col min="9466" max="9466" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9467" max="9467" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9468" max="9468" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9469" max="9469" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9466" max="9466" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9467" max="9467" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9468" max="9468" width="22.453125" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="18.453125" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="20" style="2" customWidth="1"/>
-    <col min="9471" max="9471" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9472" max="9719" width="11.44140625" style="2"/>
+    <col min="9471" max="9471" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9472" max="9719" width="11.453125" style="2"/>
     <col min="9720" max="9720" width="33" style="2" customWidth="1"/>
     <col min="9721" max="9721" width="25" style="2" customWidth="1"/>
-    <col min="9722" max="9722" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9723" max="9723" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9724" max="9724" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9725" max="9725" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9722" max="9722" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9723" max="9723" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9724" max="9724" width="22.453125" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="18.453125" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="20" style="2" customWidth="1"/>
-    <col min="9727" max="9727" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9728" max="9975" width="11.44140625" style="2"/>
+    <col min="9727" max="9727" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9728" max="9975" width="11.453125" style="2"/>
     <col min="9976" max="9976" width="33" style="2" customWidth="1"/>
     <col min="9977" max="9977" width="25" style="2" customWidth="1"/>
-    <col min="9978" max="9978" width="25.77734375" style="2" customWidth="1"/>
-    <col min="9979" max="9979" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9980" max="9980" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9981" max="9981" width="18.44140625" style="2" customWidth="1"/>
+    <col min="9978" max="9978" width="25.81640625" style="2" customWidth="1"/>
+    <col min="9979" max="9979" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9980" max="9980" width="22.453125" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="18.453125" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="20" style="2" customWidth="1"/>
-    <col min="9983" max="9983" width="36.5546875" style="2" customWidth="1"/>
-    <col min="9984" max="10231" width="11.44140625" style="2"/>
+    <col min="9983" max="9983" width="36.54296875" style="2" customWidth="1"/>
+    <col min="9984" max="10231" width="11.453125" style="2"/>
     <col min="10232" max="10232" width="33" style="2" customWidth="1"/>
     <col min="10233" max="10233" width="25" style="2" customWidth="1"/>
-    <col min="10234" max="10234" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10235" max="10235" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10236" max="10236" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10237" max="10237" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10234" max="10234" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10235" max="10235" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10236" max="10236" width="22.453125" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="18.453125" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="20" style="2" customWidth="1"/>
-    <col min="10239" max="10239" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10240" max="10487" width="11.44140625" style="2"/>
+    <col min="10239" max="10239" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10240" max="10487" width="11.453125" style="2"/>
     <col min="10488" max="10488" width="33" style="2" customWidth="1"/>
     <col min="10489" max="10489" width="25" style="2" customWidth="1"/>
-    <col min="10490" max="10490" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10491" max="10491" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10492" max="10492" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10493" max="10493" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10490" max="10490" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10491" max="10491" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10492" max="10492" width="22.453125" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="18.453125" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="20" style="2" customWidth="1"/>
-    <col min="10495" max="10495" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10496" max="10743" width="11.44140625" style="2"/>
+    <col min="10495" max="10495" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10496" max="10743" width="11.453125" style="2"/>
     <col min="10744" max="10744" width="33" style="2" customWidth="1"/>
     <col min="10745" max="10745" width="25" style="2" customWidth="1"/>
-    <col min="10746" max="10746" width="25.77734375" style="2" customWidth="1"/>
-    <col min="10747" max="10747" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10748" max="10748" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10749" max="10749" width="18.44140625" style="2" customWidth="1"/>
+    <col min="10746" max="10746" width="25.81640625" style="2" customWidth="1"/>
+    <col min="10747" max="10747" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10748" max="10748" width="22.453125" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="18.453125" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="20" style="2" customWidth="1"/>
-    <col min="10751" max="10751" width="36.5546875" style="2" customWidth="1"/>
-    <col min="10752" max="10999" width="11.44140625" style="2"/>
+    <col min="10751" max="10751" width="36.54296875" style="2" customWidth="1"/>
+    <col min="10752" max="10999" width="11.453125" style="2"/>
     <col min="11000" max="11000" width="33" style="2" customWidth="1"/>
     <col min="11001" max="11001" width="25" style="2" customWidth="1"/>
-    <col min="11002" max="11002" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11003" max="11003" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11004" max="11004" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11005" max="11005" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11002" max="11002" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11003" max="11003" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11004" max="11004" width="22.453125" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="18.453125" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="20" style="2" customWidth="1"/>
-    <col min="11007" max="11007" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11008" max="11255" width="11.44140625" style="2"/>
+    <col min="11007" max="11007" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11008" max="11255" width="11.453125" style="2"/>
     <col min="11256" max="11256" width="33" style="2" customWidth="1"/>
     <col min="11257" max="11257" width="25" style="2" customWidth="1"/>
-    <col min="11258" max="11258" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11259" max="11259" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11260" max="11260" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11261" max="11261" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11258" max="11258" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11259" max="11259" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11260" max="11260" width="22.453125" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="18.453125" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="20" style="2" customWidth="1"/>
-    <col min="11263" max="11263" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11264" max="11511" width="11.44140625" style="2"/>
+    <col min="11263" max="11263" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11264" max="11511" width="11.453125" style="2"/>
     <col min="11512" max="11512" width="33" style="2" customWidth="1"/>
     <col min="11513" max="11513" width="25" style="2" customWidth="1"/>
-    <col min="11514" max="11514" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11515" max="11515" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11516" max="11516" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11517" max="11517" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11514" max="11514" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11515" max="11515" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11516" max="11516" width="22.453125" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="18.453125" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="20" style="2" customWidth="1"/>
-    <col min="11519" max="11519" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11520" max="11767" width="11.44140625" style="2"/>
+    <col min="11519" max="11519" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11520" max="11767" width="11.453125" style="2"/>
     <col min="11768" max="11768" width="33" style="2" customWidth="1"/>
     <col min="11769" max="11769" width="25" style="2" customWidth="1"/>
-    <col min="11770" max="11770" width="25.77734375" style="2" customWidth="1"/>
-    <col min="11771" max="11771" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11772" max="11772" width="22.44140625" style="2" customWidth="1"/>
-    <col min="11773" max="11773" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11770" max="11770" width="25.81640625" style="2" customWidth="1"/>
+    <col min="11771" max="11771" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11772" max="11772" width="22.453125" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="18.453125" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="20" style="2" customWidth="1"/>
-    <col min="11775" max="11775" width="36.5546875" style="2" customWidth="1"/>
-    <col min="11776" max="12023" width="11.44140625" style="2"/>
+    <col min="11775" max="11775" width="36.54296875" style="2" customWidth="1"/>
+    <col min="11776" max="12023" width="11.453125" style="2"/>
     <col min="12024" max="12024" width="33" style="2" customWidth="1"/>
     <col min="12025" max="12025" width="25" style="2" customWidth="1"/>
-    <col min="12026" max="12026" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12027" max="12027" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12028" max="12028" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12029" max="12029" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12026" max="12026" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12027" max="12027" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12028" max="12028" width="22.453125" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="18.453125" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="20" style="2" customWidth="1"/>
-    <col min="12031" max="12031" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12032" max="12279" width="11.44140625" style="2"/>
+    <col min="12031" max="12031" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12032" max="12279" width="11.453125" style="2"/>
     <col min="12280" max="12280" width="33" style="2" customWidth="1"/>
     <col min="12281" max="12281" width="25" style="2" customWidth="1"/>
-    <col min="12282" max="12282" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12283" max="12283" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12284" max="12284" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12285" max="12285" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12282" max="12282" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12283" max="12283" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12284" max="12284" width="22.453125" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="18.453125" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="20" style="2" customWidth="1"/>
-    <col min="12287" max="12287" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12288" max="12535" width="11.44140625" style="2"/>
+    <col min="12287" max="12287" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12288" max="12535" width="11.453125" style="2"/>
     <col min="12536" max="12536" width="33" style="2" customWidth="1"/>
     <col min="12537" max="12537" width="25" style="2" customWidth="1"/>
-    <col min="12538" max="12538" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12539" max="12539" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12540" max="12540" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12541" max="12541" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12538" max="12538" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12539" max="12539" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12540" max="12540" width="22.453125" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="18.453125" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="20" style="2" customWidth="1"/>
-    <col min="12543" max="12543" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12544" max="12791" width="11.44140625" style="2"/>
+    <col min="12543" max="12543" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12544" max="12791" width="11.453125" style="2"/>
     <col min="12792" max="12792" width="33" style="2" customWidth="1"/>
     <col min="12793" max="12793" width="25" style="2" customWidth="1"/>
-    <col min="12794" max="12794" width="25.77734375" style="2" customWidth="1"/>
-    <col min="12795" max="12795" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12796" max="12796" width="22.44140625" style="2" customWidth="1"/>
-    <col min="12797" max="12797" width="18.44140625" style="2" customWidth="1"/>
+    <col min="12794" max="12794" width="25.81640625" style="2" customWidth="1"/>
+    <col min="12795" max="12795" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12796" max="12796" width="22.453125" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="18.453125" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="20" style="2" customWidth="1"/>
-    <col min="12799" max="12799" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12800" max="13047" width="11.44140625" style="2"/>
+    <col min="12799" max="12799" width="36.54296875" style="2" customWidth="1"/>
+    <col min="12800" max="13047" width="11.453125" style="2"/>
     <col min="13048" max="13048" width="33" style="2" customWidth="1"/>
     <col min="13049" max="13049" width="25" style="2" customWidth="1"/>
-    <col min="13050" max="13050" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13051" max="13051" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13052" max="13052" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13053" max="13053" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13050" max="13050" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13051" max="13051" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13052" max="13052" width="22.453125" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="18.453125" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="20" style="2" customWidth="1"/>
-    <col min="13055" max="13055" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13056" max="13303" width="11.44140625" style="2"/>
+    <col min="13055" max="13055" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13056" max="13303" width="11.453125" style="2"/>
     <col min="13304" max="13304" width="33" style="2" customWidth="1"/>
     <col min="13305" max="13305" width="25" style="2" customWidth="1"/>
-    <col min="13306" max="13306" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13307" max="13307" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13308" max="13308" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13309" max="13309" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13306" max="13306" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13307" max="13307" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13308" max="13308" width="22.453125" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="18.453125" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="20" style="2" customWidth="1"/>
-    <col min="13311" max="13311" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13312" max="13559" width="11.44140625" style="2"/>
+    <col min="13311" max="13311" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13312" max="13559" width="11.453125" style="2"/>
     <col min="13560" max="13560" width="33" style="2" customWidth="1"/>
     <col min="13561" max="13561" width="25" style="2" customWidth="1"/>
-    <col min="13562" max="13562" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13563" max="13563" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13564" max="13564" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13565" max="13565" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13562" max="13562" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13563" max="13563" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13564" max="13564" width="22.453125" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="18.453125" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="20" style="2" customWidth="1"/>
-    <col min="13567" max="13567" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13568" max="13815" width="11.44140625" style="2"/>
+    <col min="13567" max="13567" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13568" max="13815" width="11.453125" style="2"/>
     <col min="13816" max="13816" width="33" style="2" customWidth="1"/>
     <col min="13817" max="13817" width="25" style="2" customWidth="1"/>
-    <col min="13818" max="13818" width="25.77734375" style="2" customWidth="1"/>
-    <col min="13819" max="13819" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13820" max="13820" width="22.44140625" style="2" customWidth="1"/>
-    <col min="13821" max="13821" width="18.44140625" style="2" customWidth="1"/>
+    <col min="13818" max="13818" width="25.81640625" style="2" customWidth="1"/>
+    <col min="13819" max="13819" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13820" max="13820" width="22.453125" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="18.453125" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="20" style="2" customWidth="1"/>
-    <col min="13823" max="13823" width="36.5546875" style="2" customWidth="1"/>
-    <col min="13824" max="14071" width="11.44140625" style="2"/>
+    <col min="13823" max="13823" width="36.54296875" style="2" customWidth="1"/>
+    <col min="13824" max="14071" width="11.453125" style="2"/>
     <col min="14072" max="14072" width="33" style="2" customWidth="1"/>
     <col min="14073" max="14073" width="25" style="2" customWidth="1"/>
-    <col min="14074" max="14074" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14075" max="14075" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14076" max="14076" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14077" max="14077" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14074" max="14074" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14075" max="14075" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14076" max="14076" width="22.453125" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="18.453125" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="20" style="2" customWidth="1"/>
-    <col min="14079" max="14079" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14080" max="14327" width="11.44140625" style="2"/>
+    <col min="14079" max="14079" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14080" max="14327" width="11.453125" style="2"/>
     <col min="14328" max="14328" width="33" style="2" customWidth="1"/>
     <col min="14329" max="14329" width="25" style="2" customWidth="1"/>
-    <col min="14330" max="14330" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14331" max="14331" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14332" max="14332" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14333" max="14333" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14330" max="14330" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14331" max="14331" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14332" max="14332" width="22.453125" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="18.453125" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="20" style="2" customWidth="1"/>
-    <col min="14335" max="14335" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14336" max="14583" width="11.44140625" style="2"/>
+    <col min="14335" max="14335" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14336" max="14583" width="11.453125" style="2"/>
     <col min="14584" max="14584" width="33" style="2" customWidth="1"/>
     <col min="14585" max="14585" width="25" style="2" customWidth="1"/>
-    <col min="14586" max="14586" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14587" max="14587" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14588" max="14588" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14589" max="14589" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14586" max="14586" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14587" max="14587" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14588" max="14588" width="22.453125" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="18.453125" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="20" style="2" customWidth="1"/>
-    <col min="14591" max="14591" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14592" max="14839" width="11.44140625" style="2"/>
+    <col min="14591" max="14591" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14592" max="14839" width="11.453125" style="2"/>
     <col min="14840" max="14840" width="33" style="2" customWidth="1"/>
     <col min="14841" max="14841" width="25" style="2" customWidth="1"/>
-    <col min="14842" max="14842" width="25.77734375" style="2" customWidth="1"/>
-    <col min="14843" max="14843" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14844" max="14844" width="22.44140625" style="2" customWidth="1"/>
-    <col min="14845" max="14845" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14842" max="14842" width="25.81640625" style="2" customWidth="1"/>
+    <col min="14843" max="14843" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14844" max="14844" width="22.453125" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="18.453125" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="20" style="2" customWidth="1"/>
-    <col min="14847" max="14847" width="36.5546875" style="2" customWidth="1"/>
-    <col min="14848" max="15095" width="11.44140625" style="2"/>
+    <col min="14847" max="14847" width="36.54296875" style="2" customWidth="1"/>
+    <col min="14848" max="15095" width="11.453125" style="2"/>
     <col min="15096" max="15096" width="33" style="2" customWidth="1"/>
     <col min="15097" max="15097" width="25" style="2" customWidth="1"/>
-    <col min="15098" max="15098" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15099" max="15099" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15100" max="15100" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15101" max="15101" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15098" max="15098" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15099" max="15099" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15100" max="15100" width="22.453125" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="18.453125" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="20" style="2" customWidth="1"/>
-    <col min="15103" max="15103" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15104" max="15351" width="11.44140625" style="2"/>
+    <col min="15103" max="15103" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15104" max="15351" width="11.453125" style="2"/>
     <col min="15352" max="15352" width="33" style="2" customWidth="1"/>
     <col min="15353" max="15353" width="25" style="2" customWidth="1"/>
-    <col min="15354" max="15354" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15355" max="15355" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15356" max="15356" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15357" max="15357" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15354" max="15354" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15355" max="15355" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15356" max="15356" width="22.453125" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="18.453125" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="20" style="2" customWidth="1"/>
-    <col min="15359" max="15359" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15360" max="15607" width="11.44140625" style="2"/>
+    <col min="15359" max="15359" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15360" max="15607" width="11.453125" style="2"/>
     <col min="15608" max="15608" width="33" style="2" customWidth="1"/>
     <col min="15609" max="15609" width="25" style="2" customWidth="1"/>
-    <col min="15610" max="15610" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15611" max="15611" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15612" max="15612" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15613" max="15613" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15610" max="15610" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15611" max="15611" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15612" max="15612" width="22.453125" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="18.453125" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="20" style="2" customWidth="1"/>
-    <col min="15615" max="15615" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15616" max="15863" width="11.44140625" style="2"/>
+    <col min="15615" max="15615" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15616" max="15863" width="11.453125" style="2"/>
     <col min="15864" max="15864" width="33" style="2" customWidth="1"/>
     <col min="15865" max="15865" width="25" style="2" customWidth="1"/>
-    <col min="15866" max="15866" width="25.77734375" style="2" customWidth="1"/>
-    <col min="15867" max="15867" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15868" max="15868" width="22.44140625" style="2" customWidth="1"/>
-    <col min="15869" max="15869" width="18.44140625" style="2" customWidth="1"/>
+    <col min="15866" max="15866" width="25.81640625" style="2" customWidth="1"/>
+    <col min="15867" max="15867" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15868" max="15868" width="22.453125" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="18.453125" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="20" style="2" customWidth="1"/>
-    <col min="15871" max="15871" width="36.5546875" style="2" customWidth="1"/>
-    <col min="15872" max="16119" width="11.44140625" style="2"/>
+    <col min="15871" max="15871" width="36.54296875" style="2" customWidth="1"/>
+    <col min="15872" max="16119" width="11.453125" style="2"/>
     <col min="16120" max="16120" width="33" style="2" customWidth="1"/>
     <col min="16121" max="16121" width="25" style="2" customWidth="1"/>
-    <col min="16122" max="16122" width="25.77734375" style="2" customWidth="1"/>
-    <col min="16123" max="16123" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16124" max="16124" width="22.44140625" style="2" customWidth="1"/>
-    <col min="16125" max="16125" width="18.44140625" style="2" customWidth="1"/>
+    <col min="16122" max="16122" width="25.81640625" style="2" customWidth="1"/>
+    <col min="16123" max="16123" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16124" max="16124" width="22.453125" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="18.453125" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="20" style="2" customWidth="1"/>
-    <col min="16127" max="16127" width="36.5546875" style="2" customWidth="1"/>
-    <col min="16128" max="16384" width="11.44140625" style="2"/>
+    <col min="16127" max="16127" width="36.54296875" style="2" customWidth="1"/>
+    <col min="16128" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3743,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3798,7 +3776,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3831,7 +3809,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -3864,7 +3842,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -3897,7 +3875,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
@@ -3930,7 +3908,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
@@ -3963,7 +3941,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -3996,7 +3974,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
@@ -4029,7 +4007,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -4062,7 +4040,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -4095,7 +4073,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -4128,7 +4106,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -4161,7 +4139,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -4194,7 +4172,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4227,7 +4205,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -4260,7 +4238,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -4293,7 +4271,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -4326,7 +4304,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -4359,7 +4337,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -4392,7 +4370,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -4425,7 +4403,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -4458,7 +4436,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -4491,7 +4469,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -4524,7 +4502,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -4557,7 +4535,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -4590,7 +4568,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -4623,7 +4601,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>171</v>
       </c>
@@ -4656,7 +4634,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -4689,7 +4667,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -4722,7 +4700,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
@@ -4755,7 +4733,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -4788,7 +4766,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>171</v>
       </c>
@@ -4821,7 +4799,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -4854,7 +4832,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -4887,7 +4865,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
@@ -4920,7 +4898,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -4953,7 +4931,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -4986,7 +4964,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -5019,7 +4997,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>171</v>
       </c>
@@ -5052,7 +5030,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
@@ -5085,7 +5063,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -5118,7 +5096,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>171</v>
       </c>
@@ -5151,7 +5129,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -5184,7 +5162,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -5217,7 +5195,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>171</v>
       </c>
@@ -5250,7 +5228,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -5283,7 +5261,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -5316,7 +5294,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
@@ -5349,7 +5327,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>171</v>
       </c>
@@ -5382,7 +5360,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5415,7 +5393,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>171</v>
       </c>
@@ -5448,7 +5426,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -5481,7 +5459,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -5514,7 +5492,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
@@ -5547,7 +5525,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5580,7 +5558,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
@@ -5613,7 +5591,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -5646,7 +5624,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -5679,7 +5657,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>171</v>
       </c>
@@ -5712,7 +5690,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -5745,7 +5723,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
@@ -5778,7 +5756,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>171</v>
       </c>
@@ -5811,7 +5789,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -5844,7 +5822,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>171</v>
       </c>
@@ -5877,7 +5855,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>171</v>
       </c>
@@ -5910,7 +5888,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -5943,7 +5921,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
@@ -5976,7 +5954,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
@@ -6009,7 +5987,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -6042,7 +6020,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>171</v>
       </c>
@@ -6075,7 +6053,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -6108,7 +6086,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -6141,7 +6119,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
@@ -6174,7 +6152,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -6207,7 +6185,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
@@ -6240,7 +6218,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -6273,7 +6251,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -6306,7 +6284,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>171</v>
       </c>
@@ -6339,7 +6317,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -6372,7 +6350,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -6405,7 +6383,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
@@ -6438,7 +6416,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -6471,7 +6449,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -6504,7 +6482,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -6539,7 +6517,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -6570,7 +6548,7 @@
       <c r="J86" s="38"/>
       <c r="K86" s="35"/>
     </row>
-    <row r="87" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -6601,7 +6579,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="35"/>
     </row>
-    <row r="88" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
@@ -6632,7 +6610,7 @@
       <c r="J88" s="38"/>
       <c r="K88" s="35"/>
     </row>
-    <row r="89" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -6663,7 +6641,7 @@
       <c r="J89" s="38"/>
       <c r="K89" s="35"/>
     </row>
-    <row r="90" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -6694,7 +6672,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="35"/>
     </row>
-    <row r="91" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -6725,7 +6703,7 @@
       <c r="J91" s="39"/>
       <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="1:11" ht="148.19999999999999" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="172.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -6760,7 +6738,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="115" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -6795,7 +6773,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>171</v>
       </c>
@@ -6830,7 +6808,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
@@ -6863,7 +6841,7 @@
       </c>
       <c r="K95" s="32"/>
     </row>
-    <row r="96" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
@@ -6896,7 +6874,7 @@
       </c>
       <c r="K96" s="32"/>
     </row>
-    <row r="97" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -6929,7 +6907,7 @@
       </c>
       <c r="K97" s="32"/>
     </row>
-    <row r="98" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
@@ -6962,7 +6940,7 @@
       </c>
       <c r="K98" s="33"/>
     </row>
-    <row r="99" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
@@ -6997,7 +6975,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
@@ -7030,7 +7008,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
@@ -7065,7 +7043,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>171</v>
       </c>
@@ -7100,7 +7078,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -7133,7 +7111,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>171</v>
       </c>
@@ -7166,7 +7144,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
@@ -7199,7 +7177,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>171</v>
       </c>
@@ -7232,7 +7210,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>172</v>
       </c>
@@ -7265,7 +7243,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -7298,7 +7276,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -7331,7 +7309,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
@@ -7366,7 +7344,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -7399,7 +7377,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -7432,7 +7410,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>172</v>
       </c>
@@ -7465,7 +7443,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>172</v>
       </c>
@@ -7498,7 +7476,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
@@ -7531,7 +7509,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>172</v>
       </c>
@@ -7564,7 +7542,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
@@ -7597,7 +7575,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
@@ -7630,7 +7608,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>172</v>
       </c>
@@ -7663,7 +7641,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>172</v>
       </c>
@@ -7696,7 +7674,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>172</v>
       </c>
@@ -7729,7 +7707,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -7762,7 +7740,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>172</v>
       </c>
@@ -7795,7 +7773,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>172</v>
       </c>
@@ -7828,7 +7806,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -7861,7 +7839,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -7896,7 +7874,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
@@ -7929,7 +7907,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
@@ -7962,7 +7940,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>172</v>
       </c>
@@ -7995,7 +7973,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -8028,7 +8006,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -8061,7 +8039,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>173</v>
       </c>
@@ -8094,7 +8072,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>173</v>
       </c>
@@ -8127,7 +8105,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
@@ -8162,7 +8140,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>173</v>
       </c>
@@ -8195,7 +8173,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>173</v>
       </c>
@@ -8228,7 +8206,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>173</v>
       </c>
@@ -8261,7 +8239,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>173</v>
       </c>
@@ -8294,7 +8272,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
@@ -8327,7 +8305,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>173</v>
       </c>
@@ -8360,7 +8338,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>173</v>
       </c>
@@ -8393,7 +8371,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>173</v>
       </c>
@@ -8426,7 +8404,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -8461,7 +8439,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -8494,7 +8472,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>173</v>
       </c>
@@ -8527,7 +8505,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>173</v>
       </c>
@@ -8560,7 +8538,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" s="5" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>173</v>
       </c>
@@ -8612,15 +8590,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -8634,7 +8612,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8646,7 +8624,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8658,7 +8636,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -8670,7 +8648,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8660,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8694,7 +8672,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8706,7 +8684,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8718,7 +8696,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -8730,7 +8708,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -8742,7 +8720,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -8754,7 +8732,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8744,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -8778,7 +8756,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -8790,7 +8768,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8780,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8814,7 +8792,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8804,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -8838,7 +8816,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -8850,7 +8828,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -8862,7 +8840,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -8874,7 +8852,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8864,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -8898,7 +8876,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -8910,7 +8888,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -8922,7 +8900,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -8934,7 +8912,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -8946,7 +8924,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -8958,7 +8936,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8948,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -8982,7 +8960,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -8994,7 +8972,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -9006,7 +8984,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -9018,7 +8996,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -9030,7 +9008,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -9042,7 +9020,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -9054,7 +9032,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -9066,7 +9044,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9056,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -9090,7 +9068,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -9102,7 +9080,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -9114,7 +9092,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -9126,7 +9104,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -9138,7 +9116,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -9150,7 +9128,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -9162,7 +9140,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -9174,7 +9152,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -9186,7 +9164,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -9198,7 +9176,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -9210,7 +9188,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -9222,7 +9200,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -9234,7 +9212,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -9246,7 +9224,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -9258,7 +9236,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -9270,7 +9248,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -9282,7 +9260,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -9294,7 +9272,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -9306,7 +9284,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -9318,7 +9296,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -9330,7 +9308,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -9342,7 +9320,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9332,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9344,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -9378,7 +9356,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -9390,7 +9368,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -9402,7 +9380,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -9414,7 +9392,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -9426,7 +9404,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -9438,7 +9416,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -9450,7 +9428,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -9462,7 +9440,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -9474,7 +9452,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -9486,7 +9464,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -9498,7 +9476,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -9510,7 +9488,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -9522,7 +9500,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9512,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -9546,7 +9524,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -9558,7 +9536,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -9570,7 +9548,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -9582,7 +9560,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -9594,7 +9572,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -9606,7 +9584,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -9618,7 +9596,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -9630,7 +9608,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -9642,7 +9620,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -9654,7 +9632,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -9666,7 +9644,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -9678,7 +9656,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -9690,7 +9668,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -9702,7 +9680,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -9714,7 +9692,7 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -9726,7 +9704,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -9738,7 +9716,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -9750,7 +9728,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -9762,7 +9740,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9752,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -9786,7 +9764,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -9798,7 +9776,7 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -9810,7 +9788,7 @@
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -9822,7 +9800,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -9834,7 +9812,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -9846,7 +9824,7 @@
       </c>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:81" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>107</v>
       </c>
@@ -9937,7 +9915,7 @@
       <c r="CB103"/>
       <c r="CC103"/>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -9949,7 +9927,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>107</v>
       </c>
@@ -10040,7 +10018,7 @@
       <c r="CB105"/>
       <c r="CC105"/>
     </row>
-    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
         <v>107</v>
       </c>
@@ -10131,7 +10109,7 @@
       <c r="CB106"/>
       <c r="CC106"/>
     </row>
-    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -10222,7 +10200,7 @@
       <c r="CB107"/>
       <c r="CC107"/>
     </row>
-    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:81" s="22" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>107</v>
       </c>
@@ -10313,7 +10291,7 @@
       <c r="CB108"/>
       <c r="CC108"/>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -10325,7 +10303,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -10337,7 +10315,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -10349,7 +10327,7 @@
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -10361,7 +10339,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -10373,7 +10351,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -10385,7 +10363,7 @@
       </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -10397,7 +10375,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -10409,7 +10387,7 @@
       </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -10421,7 +10399,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -10433,7 +10411,7 @@
       </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -10445,7 +10423,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -10457,7 +10435,7 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -10469,7 +10447,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -10483,7 +10461,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20" t="s">
         <v>122</v>
       </c>
@@ -10497,7 +10475,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>122</v>
       </c>
@@ -10509,7 +10487,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20" t="s">
         <v>122</v>
       </c>
@@ -10523,7 +10501,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>122</v>
       </c>
@@ -10537,7 +10515,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20" t="s">
         <v>122</v>
       </c>
@@ -10551,7 +10529,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>122</v>
       </c>
@@ -10565,7 +10543,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>122</v>
       </c>
@@ -10577,7 +10555,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>122</v>
       </c>
@@ -10589,7 +10567,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>122</v>
       </c>
@@ -10601,7 +10579,7 @@
       </c>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -10613,7 +10591,7 @@
       </c>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
@@ -10625,7 +10603,7 @@
       </c>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
@@ -10637,7 +10615,7 @@
       </c>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>122</v>
       </c>
@@ -10673,15 +10651,15 @@
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -10701,7 +10679,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10721,7 +10699,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10739,7 +10717,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -10757,7 +10735,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10775,7 +10753,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10793,7 +10771,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -10811,7 +10789,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -10829,7 +10807,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -10847,7 +10825,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -10865,7 +10843,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -10883,7 +10861,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -10901,7 +10879,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -10919,7 +10897,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -10937,7 +10915,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10955,7 +10933,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -10973,7 +10951,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +10969,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -11009,7 +10987,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -11027,7 +11005,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -11045,7 +11023,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -11063,7 +11041,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -11081,7 +11059,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -11099,7 +11077,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11095,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -11135,7 +11113,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -11153,7 +11131,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -11171,7 +11149,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -11189,7 +11167,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -11207,7 +11185,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -11225,7 +11203,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -11243,7 +11221,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -11261,7 +11239,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -11279,7 +11257,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -11297,7 +11275,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -11315,7 +11293,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -11333,7 +11311,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -11351,7 +11329,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -11369,7 +11347,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -11387,7 +11365,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11383,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -11423,7 +11401,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -11441,7 +11419,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -11459,7 +11437,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -11477,7 +11455,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -11495,7 +11473,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -11513,7 +11491,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -11531,7 +11509,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -11549,7 +11527,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -11567,7 +11545,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -11585,7 +11563,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -11603,7 +11581,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -11621,7 +11599,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -11639,7 +11617,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -11657,7 +11635,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -11675,7 +11653,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -11693,7 +11671,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -11711,7 +11689,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -11729,7 +11707,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -11747,7 +11725,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -11765,7 +11743,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -11783,7 +11761,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -11801,7 +11779,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -11819,7 +11797,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -11837,7 +11815,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -11855,7 +11833,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -11873,7 +11851,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -11891,7 +11869,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -11909,7 +11887,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -11927,7 +11905,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -11945,7 +11923,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -11963,7 +11941,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -11981,7 +11959,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -11999,7 +11977,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -12017,7 +11995,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -12035,7 +12013,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -12053,7 +12031,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -12071,7 +12049,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -12089,7 +12067,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -12107,7 +12085,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -12125,7 +12103,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -12143,7 +12121,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -12161,7 +12139,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -12179,7 +12157,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -12197,7 +12175,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -12215,7 +12193,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -12233,7 +12211,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -12251,7 +12229,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -12269,7 +12247,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -12287,7 +12265,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -12305,7 +12283,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -12323,7 +12301,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -12341,7 +12319,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -12359,7 +12337,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -12377,7 +12355,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -12395,7 +12373,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -12413,7 +12391,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -12431,7 +12409,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -12449,7 +12427,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12445,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -12485,7 +12463,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -12503,7 +12481,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -12521,7 +12499,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>2</v>
       </c>
@@ -12539,7 +12517,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>2</v>
       </c>
@@ -12557,7 +12535,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>2</v>
       </c>
@@ -12575,7 +12553,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>2</v>
       </c>
@@ -12591,7 +12569,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
         <v>107</v>
       </c>
@@ -12611,7 +12589,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -12631,7 +12609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>107</v>
       </c>
@@ -12649,7 +12627,7 @@
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>107</v>
       </c>
@@ -12667,7 +12645,7 @@
       </c>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>107</v>
       </c>
@@ -12685,7 +12663,7 @@
       </c>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>107</v>
       </c>
@@ -12703,7 +12681,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -12721,7 +12699,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -12739,7 +12717,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -12757,7 +12735,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -12775,7 +12753,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>107</v>
       </c>
@@ -12793,7 +12771,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>107</v>
       </c>
@@ -12811,7 +12789,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>107</v>
       </c>
@@ -12829,7 +12807,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>107</v>
       </c>
@@ -12847,7 +12825,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -12865,7 +12843,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -12883,7 +12861,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -12901,7 +12879,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -12919,7 +12897,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -12937,7 +12915,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -12955,7 +12933,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -12973,7 +12951,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -12991,7 +12969,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -13009,7 +12987,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>107</v>
       </c>
@@ -13025,7 +13003,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20" t="s">
         <v>122</v>
       </c>
@@ -13045,7 +13023,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -13065,7 +13043,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20" t="s">
         <v>122</v>
       </c>
@@ -13083,7 +13061,7 @@
       </c>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20" t="s">
         <v>122</v>
       </c>
@@ -13101,7 +13079,7 @@
       </c>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20" t="s">
         <v>122</v>
       </c>
@@ -13119,7 +13097,7 @@
       </c>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20" t="s">
         <v>122</v>
       </c>
@@ -13137,7 +13115,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>122</v>
       </c>
@@ -13155,7 +13133,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>122</v>
       </c>
@@ -13173,7 +13151,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>122</v>
       </c>
@@ -13191,7 +13169,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>122</v>
       </c>
@@ -13209,7 +13187,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20" t="s">
         <v>122</v>
       </c>
@@ -13227,7 +13205,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20" t="s">
         <v>122</v>
       </c>
@@ -13245,7 +13223,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -13263,7 +13241,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20" t="s">
         <v>122</v>
       </c>
@@ -13281,7 +13259,7 @@
       </c>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20" t="s">
         <v>122</v>
       </c>
@@ -13299,7 +13277,7 @@
       </c>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>122</v>
       </c>
@@ -13317,7 +13295,7 @@
       </c>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>122</v>
       </c>
@@ -13351,29 +13329,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EE1F-7FCD-4E3E-87C5-39201133B8CB}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" customWidth="1"/>
-    <col min="9" max="10" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="10" width="21.81640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.77734375" customWidth="1"/>
-    <col min="14" max="15" width="24.77734375" customWidth="1"/>
-    <col min="16" max="16" width="59.21875" customWidth="1"/>
-    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
+    <col min="12" max="13" width="17.81640625" customWidth="1"/>
+    <col min="14" max="15" width="24.81640625" customWidth="1"/>
+    <col min="16" max="16" width="59.1796875" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -13426,7 +13404,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -13471,7 +13449,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13514,7 +13492,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -13559,7 +13537,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -13602,7 +13580,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13645,7 +13623,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -13688,7 +13666,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -13733,7 +13711,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -13776,7 +13754,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -13819,7 +13797,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -13862,7 +13840,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -13905,7 +13883,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -13950,7 +13928,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -13993,7 +13971,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14036,7 +14014,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -14079,7 +14057,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -14122,7 +14100,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -14165,7 +14143,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -14208,7 +14186,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -14251,7 +14229,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -14294,7 +14272,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -14337,7 +14315,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -14380,7 +14358,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -14423,7 +14401,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -14466,7 +14444,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -14509,7 +14487,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -14552,7 +14530,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -14595,7 +14573,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -14638,7 +14616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -14681,7 +14659,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -14724,7 +14702,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -14767,7 +14745,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -14810,7 +14788,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -14853,7 +14831,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -14896,7 +14874,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -14939,7 +14917,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -14982,7 +14960,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -15025,7 +15003,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -15068,7 +15046,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -15111,7 +15089,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -15154,7 +15132,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -15197,7 +15175,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -15240,7 +15218,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -15283,7 +15261,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -15326,7 +15304,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -15369,7 +15347,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -15412,7 +15390,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -15455,7 +15433,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -15498,7 +15476,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -15541,7 +15519,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -15584,7 +15562,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -15627,7 +15605,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -15670,7 +15648,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -15713,7 +15691,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -15756,7 +15734,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -15799,7 +15777,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -15842,7 +15820,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -15885,7 +15863,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -15930,7 +15908,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -15977,7 +15955,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -16022,7 +16000,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -16069,7 +16047,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -16116,7 +16094,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -16161,7 +16139,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -16208,7 +16186,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -16255,7 +16233,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -16300,7 +16278,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -16345,7 +16323,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -16390,7 +16368,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -16435,7 +16413,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -16480,7 +16458,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -16523,7 +16501,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -16566,7 +16544,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -16611,7 +16589,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -16656,7 +16634,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -16701,7 +16679,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -16744,7 +16722,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -16789,7 +16767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -16832,7 +16810,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -16873,7 +16851,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -16916,7 +16894,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -16959,7 +16937,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -17004,7 +16982,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -17047,7 +17025,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -17090,7 +17068,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -17133,7 +17111,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -17176,7 +17154,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -17219,7 +17197,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -17262,7 +17240,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -17305,7 +17283,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -17348,7 +17326,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -17391,7 +17369,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -17434,7 +17412,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -17477,7 +17455,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -17520,7 +17498,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -17563,7 +17541,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -17606,7 +17584,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -17649,7 +17627,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -17692,7 +17670,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -17735,7 +17713,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -17778,7 +17756,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -17825,7 +17803,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -17870,7 +17848,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -17917,7 +17895,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -17964,7 +17942,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -18011,7 +17989,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>107</v>
       </c>
@@ -18058,7 +18036,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -18103,7 +18081,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -18152,7 +18130,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -18199,7 +18177,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -18246,7 +18224,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -18293,7 +18271,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -18340,7 +18318,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -18387,7 +18365,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -18434,7 +18412,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -18477,7 +18455,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -18522,7 +18500,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -18567,7 +18545,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -18612,7 +18590,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -18657,7 +18635,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -18702,7 +18680,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -18747,7 +18725,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
@@ -18805,33 +18783,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861C695-FDFF-4472-8570-A9657F93AFC3}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>404</v>
+        <v>589</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -18845,7 +18823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -18859,7 +18837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -18873,7 +18851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>171</v>
       </c>
@@ -18887,7 +18865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>171</v>
       </c>
@@ -18901,7 +18879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>171</v>
       </c>
@@ -18915,7 +18893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -18929,7 +18907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
@@ -18943,7 +18921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -18957,7 +18935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
@@ -18971,7 +18949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -18985,7 +18963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>171</v>
       </c>
@@ -18999,7 +18977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -19013,7 +18991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -19027,7 +19005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>171</v>
       </c>
@@ -19041,7 +19019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -19055,7 +19033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>171</v>
       </c>
@@ -19069,7 +19047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>171</v>
       </c>
@@ -19083,7 +19061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>171</v>
       </c>
@@ -19097,7 +19075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>171</v>
       </c>
@@ -19111,7 +19089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -19125,7 +19103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>171</v>
       </c>
@@ -19139,7 +19117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -19153,7 +19131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>171</v>
       </c>
@@ -19167,7 +19145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>171</v>
       </c>
@@ -19181,7 +19159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>171</v>
       </c>
@@ -19195,7 +19173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>171</v>
       </c>
@@ -19209,7 +19187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -19223,7 +19201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>171</v>
       </c>
@@ -19237,7 +19215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
@@ -19251,7 +19229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -19265,7 +19243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>171</v>
       </c>
@@ -19279,7 +19257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -19293,7 +19271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
@@ -19307,7 +19285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>171</v>
       </c>
@@ -19321,7 +19299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -19335,7 +19313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>171</v>
       </c>
@@ -19349,7 +19327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
@@ -19363,7 +19341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>171</v>
       </c>
@@ -19377,7 +19355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
@@ -19391,7 +19369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -19405,7 +19383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>171</v>
       </c>
@@ -19419,7 +19397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -19433,7 +19411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -19447,7 +19425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>171</v>
       </c>
@@ -19461,7 +19439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -19475,7 +19453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -19489,7 +19467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>171</v>
       </c>
@@ -19503,7 +19481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>171</v>
       </c>
@@ -19517,7 +19495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -19531,7 +19509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>171</v>
       </c>
@@ -19545,7 +19523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -19559,7 +19537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -19573,7 +19551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>171</v>
       </c>
@@ -19587,7 +19565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -19601,7 +19579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>171</v>
       </c>
@@ -19615,7 +19593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -19629,7 +19607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
@@ -19643,7 +19621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>171</v>
       </c>
@@ -19657,7 +19635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -19671,7 +19649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
@@ -19685,7 +19663,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>171</v>
       </c>
@@ -19699,7 +19677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -19713,7 +19691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>171</v>
       </c>
@@ -19727,7 +19705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>171</v>
       </c>
@@ -19741,7 +19719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -19755,7 +19733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
@@ -19769,7 +19747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
@@ -19783,7 +19761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>171</v>
       </c>
@@ -19797,7 +19775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>171</v>
       </c>
@@ -19811,7 +19789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -19825,7 +19803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -19839,7 +19817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
@@ -19853,7 +19831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>171</v>
       </c>
@@ -19867,7 +19845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
@@ -19881,7 +19859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -19895,7 +19873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -19909,7 +19887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>171</v>
       </c>
@@ -19923,7 +19901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>171</v>
       </c>
@@ -19937,7 +19915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -19951,7 +19929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
@@ -19965,7 +19943,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -19979,7 +19957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -19993,7 +19971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -20007,7 +19985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -20021,7 +19999,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -20035,7 +20013,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>171</v>
       </c>
@@ -20049,7 +20027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
@@ -20063,7 +20041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -20077,7 +20055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -20091,7 +20069,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>171</v>
       </c>
@@ -20105,7 +20083,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -20119,7 +20097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>171</v>
       </c>
@@ -20133,7 +20111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
@@ -20147,7 +20125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>171</v>
       </c>
@@ -20161,7 +20139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>171</v>
       </c>
@@ -20175,7 +20153,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
@@ -20189,7 +20167,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>171</v>
       </c>
@@ -20203,7 +20181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>171</v>
       </c>
@@ -20217,7 +20195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
@@ -20231,7 +20209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>171</v>
       </c>
@@ -20245,7 +20223,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
@@ -20259,7 +20237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>171</v>
       </c>
@@ -20273,7 +20251,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
@@ -20287,7 +20265,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>171</v>
       </c>
@@ -20301,7 +20279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>172</v>
       </c>
@@ -20315,7 +20293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>172</v>
       </c>
@@ -20329,7 +20307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>172</v>
       </c>
@@ -20343,7 +20321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
@@ -20357,7 +20335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>172</v>
       </c>
@@ -20371,7 +20349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -20385,7 +20363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>172</v>
       </c>
@@ -20399,7 +20377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>172</v>
       </c>
@@ -20413,7 +20391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>172</v>
       </c>
@@ -20427,7 +20405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>172</v>
       </c>
@@ -20441,7 +20419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>172</v>
       </c>
@@ -20455,7 +20433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
@@ -20469,7 +20447,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>172</v>
       </c>
@@ -20483,7 +20461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>172</v>
       </c>
@@ -20497,7 +20475,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>172</v>
       </c>
@@ -20511,7 +20489,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>172</v>
       </c>
@@ -20525,7 +20503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>172</v>
       </c>
@@ -20539,7 +20517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>172</v>
       </c>
@@ -20553,7 +20531,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -20567,7 +20545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -20581,7 +20559,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
@@ -20595,7 +20573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>172</v>
       </c>
@@ -20609,7 +20587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>172</v>
       </c>
@@ -20623,7 +20601,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -20637,7 +20615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -20651,7 +20629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>173</v>
       </c>
@@ -20665,7 +20643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>173</v>
       </c>
@@ -20679,7 +20657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
@@ -20693,7 +20671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>173</v>
       </c>
@@ -20707,7 +20685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>173</v>
       </c>
@@ -20721,7 +20699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>173</v>
       </c>
@@ -20735,7 +20713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>173</v>
       </c>
@@ -20749,7 +20727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
@@ -20763,7 +20741,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>173</v>
       </c>
@@ -20777,7 +20755,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>173</v>
       </c>
@@ -20791,7 +20769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>173</v>
       </c>
@@ -20805,7 +20783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -20819,7 +20797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -20833,7 +20811,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>173</v>
       </c>
@@ -20847,7 +20825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>173</v>
       </c>
@@ -20861,7 +20839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>173</v>
       </c>
@@ -20888,25 +20866,25 @@
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
-    <col min="8" max="9" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" customWidth="1"/>
+    <col min="8" max="9" width="21.81640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="14" width="24.77734375" customWidth="1"/>
-    <col min="15" max="15" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.21875" style="26" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="14" width="24.81640625" customWidth="1"/>
+    <col min="15" max="15" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>404</v>
       </c>
@@ -20959,7 +20937,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -21004,7 +20982,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -21047,7 +21025,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -21092,7 +21070,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -21135,7 +21113,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -21178,7 +21156,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -21221,7 +21199,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -21266,7 +21244,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -21309,7 +21287,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -21352,7 +21330,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -21395,7 +21373,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -21438,7 +21416,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -21483,7 +21461,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -21526,7 +21504,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -21569,7 +21547,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -21612,7 +21590,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -21655,7 +21633,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -21698,7 +21676,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -21741,7 +21719,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -21784,7 +21762,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -21827,7 +21805,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -21870,7 +21848,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -21913,7 +21891,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -21956,7 +21934,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -21999,7 +21977,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -22042,7 +22020,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -22085,7 +22063,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -22128,7 +22106,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -22171,7 +22149,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -22214,7 +22192,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -22257,7 +22235,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -22300,7 +22278,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -22343,7 +22321,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -22386,7 +22364,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -22429,7 +22407,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -22472,7 +22450,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -22515,7 +22493,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -22558,7 +22536,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -22601,7 +22579,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -22644,7 +22622,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -22687,7 +22665,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -22730,7 +22708,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -22773,7 +22751,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
@@ -22816,7 +22794,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>2</v>
       </c>
@@ -22859,7 +22837,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
@@ -22902,7 +22880,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -22945,7 +22923,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -22988,7 +22966,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -23031,7 +23009,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
@@ -23074,7 +23052,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
@@ -23117,7 +23095,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -23160,7 +23138,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -23203,7 +23181,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -23246,7 +23224,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -23289,7 +23267,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -23332,7 +23310,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -23375,7 +23353,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -23418,7 +23396,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -23463,7 +23441,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -23510,7 +23488,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -23555,7 +23533,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -23602,7 +23580,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -23649,7 +23627,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -23694,7 +23672,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
@@ -23741,7 +23719,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
@@ -23788,7 +23766,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
@@ -23833,7 +23811,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -23878,7 +23856,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -23923,7 +23901,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -23968,7 +23946,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
@@ -24013,7 +23991,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -24056,7 +24034,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
@@ -24099,7 +24077,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
@@ -24144,7 +24122,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
@@ -24189,7 +24167,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
@@ -24234,7 +24212,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -24277,7 +24255,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -24322,7 +24300,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>2</v>
       </c>
@@ -24365,7 +24343,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>2</v>
       </c>
@@ -24406,7 +24384,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -24449,7 +24427,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
@@ -24492,7 +24470,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
@@ -24537,7 +24515,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
@@ -24580,7 +24558,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
@@ -24623,7 +24601,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -24666,7 +24644,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
@@ -24709,7 +24687,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
@@ -24752,7 +24730,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>2</v>
       </c>
@@ -24795,7 +24773,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>2</v>
       </c>
@@ -24838,7 +24816,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2</v>
       </c>
@@ -24881,7 +24859,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
@@ -24924,7 +24902,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2</v>
       </c>
@@ -24967,7 +24945,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2</v>
       </c>
@@ -25010,7 +24988,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -25053,7 +25031,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
@@ -25096,7 +25074,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2</v>
       </c>
@@ -25139,7 +25117,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
@@ -25182,7 +25160,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2</v>
       </c>
@@ -25225,7 +25203,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -25268,7 +25246,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2</v>
       </c>
@@ -25311,7 +25289,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>2</v>
       </c>
@@ -25358,7 +25336,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -25403,7 +25381,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -25450,7 +25428,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -25497,7 +25475,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -25544,7 +25522,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -25591,7 +25569,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -25638,7 +25616,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -25687,7 +25665,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
@@ -25734,7 +25712,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -25781,7 +25759,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -25828,7 +25806,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -25875,7 +25853,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -25922,7 +25900,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -25969,7 +25947,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -26012,7 +25990,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>122</v>
       </c>
@@ -26057,7 +26035,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -26102,7 +26080,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -26147,7 +26125,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>122</v>
       </c>
@@ -26192,7 +26170,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
@@ -26237,7 +26215,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
@@ -26282,7 +26260,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
